--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_20_37.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_20_37.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1579108.624284395</v>
+        <v>1574665.308761687</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5148253.621372774</v>
+        <v>5371810.097473023</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>11194959.33207959</v>
+        <v>11295210.39205638</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6408300.434847618</v>
+        <v>6363074.055519965</v>
       </c>
     </row>
     <row r="11">
@@ -2078,19 +2078,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>22.95950154380951</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>22.95950154380951</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>20.22272895978742</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>3.624085051353995</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>3.624085051353995</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -2126,10 +2126,10 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>3.192094113232597</v>
       </c>
       <c r="S20" t="n">
-        <v>22.95950154380951</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -2138,7 +2138,7 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>3.624085051353995</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -2172,10 +2172,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>20.22272895978742</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>3.624085051353995</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2208,22 +2208,22 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>22.95950154380951</v>
+        <v>3.624085051353995</v>
       </c>
       <c r="T21" t="n">
-        <v>22.95950154380951</v>
+        <v>3.192094113232597</v>
       </c>
       <c r="U21" t="n">
         <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>3.624085051353995</v>
       </c>
       <c r="W21" t="n">
         <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>22.95950154380951</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
         <v>0</v>
@@ -2239,7 +2239,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>3.624085051353995</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2251,13 +2251,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>3.624085051353995</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>3.624085051353995</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2296,16 +2296,16 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>20.22272895978741</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>22.95950154380951</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>22.95950154380951</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>22.95950154380951</v>
+        <v>3.192094113232597</v>
       </c>
     </row>
     <row r="23">
@@ -2330,13 +2330,13 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>3.624085051353995</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>3.624085051353995</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2363,25 +2363,25 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>20.22272895978741</v>
+        <v>3.624085051353995</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>22.95950154380951</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>22.95950154380951</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>3.192094113232597</v>
       </c>
       <c r="X23" t="n">
-        <v>22.95950154380951</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -2403,16 +2403,16 @@
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>3.624085051353995</v>
       </c>
       <c r="F24" t="n">
-        <v>22.95950154380951</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>20.22272895978742</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2454,13 +2454,13 @@
         <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>22.95950154380951</v>
+        <v>3.624085051353995</v>
       </c>
       <c r="W24" t="n">
-        <v>22.95950154380951</v>
+        <v>3.624085051353995</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>3.192094113232597</v>
       </c>
       <c r="Y24" t="n">
         <v>0</v>
@@ -2485,7 +2485,7 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>3.192094113232597</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2527,22 +2527,22 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>22.95950154380951</v>
+        <v>3.624085051353995</v>
       </c>
       <c r="U25" t="n">
-        <v>22.95950154380951</v>
+        <v>3.624085051353995</v>
       </c>
       <c r="V25" t="n">
-        <v>22.95950154380951</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>3.624085051353995</v>
       </c>
       <c r="Y25" t="n">
-        <v>20.22272895978742</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2552,10 +2552,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>3.192094113232597</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>3.624085051353995</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -2564,13 +2564,13 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>20.22272895978742</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>3.624085051353995</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2603,13 +2603,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>22.95950154380951</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>22.95950154380951</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>3.624085051353995</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -2621,7 +2621,7 @@
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>22.95950154380951</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2631,25 +2631,25 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>3.624085051353995</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>3.192094113232597</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>22.95950154380951</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>20.34341911851555</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>22.83881138508139</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2682,13 +2682,13 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>22.95950154380951</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>3.624085051353995</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>3.624085051353995</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -2713,7 +2713,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>3.624085051353995</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2722,13 +2722,13 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>20.22272895978742</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>3.192094113232597</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>3.624085051353995</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,10 +2758,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>22.95950154380951</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>22.95950154380951</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -2770,10 +2770,10 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>22.95950154380951</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>3.624085051353995</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -2789,28 +2789,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>20.22272895978742</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>3.624085051353995</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>22.95950154380951</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>22.95950154380951</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>3.624085051353995</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>3.624085051353995</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2843,7 +2843,7 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>3.192094113232597</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -2858,7 +2858,7 @@
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>22.95950154380951</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2868,10 +2868,10 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>3.192094113232597</v>
       </c>
       <c r="C30" t="n">
-        <v>20.22272895978742</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
@@ -2922,22 +2922,22 @@
         <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>22.95950154380951</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>22.95950154380951</v>
+        <v>3.624085051353995</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>3.624085051353995</v>
       </c>
       <c r="W30" t="n">
-        <v>0</v>
+        <v>3.624085051353995</v>
       </c>
       <c r="X30" t="n">
         <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>22.95950154380951</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -2959,13 +2959,13 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>8.077530859720611</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>12.14519810006681</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2998,25 +2998,25 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>22.95950154380951</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>3.624085051353995</v>
       </c>
       <c r="U31" t="n">
-        <v>22.95950154380951</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>3.624085051353995</v>
       </c>
       <c r="X31" t="n">
-        <v>22.95950154380951</v>
+        <v>3.624085051353995</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>3.192094113232597</v>
       </c>
     </row>
     <row r="32">
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>3.624085051353995</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -3044,10 +3044,10 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>22.95950154380951</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>7.697128181848378</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3074,7 +3074,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>12.52560077793905</v>
+        <v>3.192094113232597</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -3083,19 +3083,19 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>22.95950154380951</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>22.95950154380951</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>3.624085051353995</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>3.624085051353995</v>
       </c>
     </row>
     <row r="33">
@@ -3156,19 +3156,19 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>22.95950154380951</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>22.95950154380951</v>
+        <v>3.192094113232597</v>
       </c>
       <c r="U33" t="n">
-        <v>22.95950154380951</v>
+        <v>3.624085051353995</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>3.624085051353995</v>
       </c>
       <c r="W33" t="n">
-        <v>20.22272895978742</v>
+        <v>3.624085051353995</v>
       </c>
       <c r="X33" t="n">
         <v>0</v>
@@ -3205,7 +3205,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>3.192094113232597</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,22 +3232,22 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>22.95950154380951</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>20.22272895978742</v>
+        <v>3.624085051353995</v>
       </c>
       <c r="T34" t="n">
-        <v>22.95950154380951</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>3.624085051353995</v>
       </c>
       <c r="W34" t="n">
-        <v>22.95950154380951</v>
+        <v>3.624085051353995</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -3263,7 +3263,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>22.95950154380951</v>
+        <v>3.624085051353995</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -3311,22 +3311,22 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>3.624085051353995</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>3.624085051353995</v>
       </c>
       <c r="T35" t="n">
-        <v>20.22272895978741</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>22.95950154380951</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>22.95950154380951</v>
+        <v>3.192094113232597</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -3351,10 +3351,10 @@
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>20.30156329219031</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>7.725695230173244</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
         <v>0</v>
@@ -3393,22 +3393,22 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>3.624085051353995</v>
       </c>
       <c r="T36" t="n">
-        <v>22.95950154380951</v>
+        <v>3.624085051353995</v>
       </c>
       <c r="U36" t="n">
         <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>3.192094113232597</v>
       </c>
       <c r="W36" t="n">
-        <v>15.15497198123338</v>
+        <v>3.624085051353995</v>
       </c>
       <c r="X36" t="n">
-        <v>22.95950154380951</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
         <v>0</v>
@@ -3421,10 +3421,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>20.22272895978742</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>22.95950154380951</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3436,7 +3436,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>22.95950154380951</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3469,16 +3469,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>22.95950154380951</v>
+        <v>3.192094113232597</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>3.624085051353995</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>3.624085051353995</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>3.624085051353995</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -3500,10 +3500,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>20.22272895978742</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>22.95950154380951</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -3512,7 +3512,7 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>22.95950154380951</v>
+        <v>3.624085051353995</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -3551,13 +3551,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>3.192094113232597</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>3.624085051353995</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>3.624085051353995</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -3569,7 +3569,7 @@
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>22.95950154380951</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3579,10 +3579,10 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>20.22272895978742</v>
+        <v>3.624085051353995</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>3.624085051353995</v>
       </c>
       <c r="D39" t="n">
         <v>0</v>
@@ -3630,10 +3630,10 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>22.95950154380951</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>22.95950154380951</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
         <v>0</v>
@@ -3642,13 +3642,13 @@
         <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>22.95950154380951</v>
+        <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>3.192094113232597</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>3.624085051353995</v>
       </c>
     </row>
     <row r="40">
@@ -3664,7 +3664,7 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>11.27195585500172</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3673,13 +3673,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>13.80331688454756</v>
+        <v>3.624085051353995</v>
       </c>
       <c r="H40" t="n">
-        <v>22.95950154380951</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>18.10695776404765</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>22.95950154380951</v>
+        <v>3.192094113232597</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -3715,10 +3715,10 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>3.624085051353995</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>3.624085051353995</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -3746,13 +3746,13 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>20.22272895978742</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>22.95950154380951</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>22.95950154380951</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3788,16 +3788,16 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>3.192094113232597</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>3.624085051353995</v>
       </c>
       <c r="U41" t="n">
-        <v>22.95950154380951</v>
+        <v>3.624085051353995</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>3.624085051353995</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -3816,10 +3816,10 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>22.95950154380951</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>22.95950154380951</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
@@ -3870,22 +3870,22 @@
         <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>20.22272895978741</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>3.624085051353995</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>3.624085051353995</v>
       </c>
       <c r="W42" t="n">
-        <v>0</v>
+        <v>3.624085051353995</v>
       </c>
       <c r="X42" t="n">
-        <v>22.95950154380951</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>3.192094113232597</v>
       </c>
     </row>
     <row r="43">
@@ -3907,16 +3907,16 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>20.02682021433313</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0.1959087454542976</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>22.95950154380951</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,16 +3943,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>22.95950154380951</v>
+        <v>3.192094113232597</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>3.624085051353995</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>3.624085051353995</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>3.624085051353995</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -3961,7 +3961,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>22.95950154380951</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>45.45517477360268</v>
+        <v>7.611310746237603</v>
       </c>
       <c r="C20" t="n">
-        <v>22.26375907278499</v>
+        <v>7.611310746237603</v>
       </c>
       <c r="D20" t="n">
-        <v>1.836760123504761</v>
+        <v>7.611310746237603</v>
       </c>
       <c r="E20" t="n">
-        <v>1.836760123504761</v>
+        <v>3.950618775172961</v>
       </c>
       <c r="F20" t="n">
-        <v>1.836760123504761</v>
+        <v>0.2899268041083196</v>
       </c>
       <c r="G20" t="n">
-        <v>1.836760123504761</v>
+        <v>0.2899268041083196</v>
       </c>
       <c r="H20" t="n">
-        <v>1.836760123504761</v>
+        <v>0.2899268041083196</v>
       </c>
       <c r="I20" t="n">
-        <v>1.836760123504761</v>
+        <v>0.2899268041083196</v>
       </c>
       <c r="J20" t="n">
-        <v>1.836760123504761</v>
+        <v>0.2899268041083196</v>
       </c>
       <c r="K20" t="n">
-        <v>24.56666665187618</v>
+        <v>0.2899268041083196</v>
       </c>
       <c r="L20" t="n">
-        <v>47.29657318024759</v>
+        <v>0.2899268041083196</v>
       </c>
       <c r="M20" t="n">
-        <v>47.29657318024759</v>
+        <v>3.732807602894615</v>
       </c>
       <c r="N20" t="n">
-        <v>70.02647970861901</v>
+        <v>7.32065180373507</v>
       </c>
       <c r="O20" t="n">
-        <v>91.83800617523805</v>
+        <v>10.90849600457553</v>
       </c>
       <c r="P20" t="n">
-        <v>91.83800617523805</v>
+        <v>14.49634020541598</v>
       </c>
       <c r="Q20" t="n">
-        <v>91.83800617523805</v>
+        <v>14.49634020541598</v>
       </c>
       <c r="R20" t="n">
-        <v>91.83800617523805</v>
+        <v>11.27200271730224</v>
       </c>
       <c r="S20" t="n">
-        <v>68.64659047442036</v>
+        <v>11.27200271730224</v>
       </c>
       <c r="T20" t="n">
-        <v>68.64659047442036</v>
+        <v>11.27200271730224</v>
       </c>
       <c r="U20" t="n">
-        <v>68.64659047442036</v>
+        <v>11.27200271730224</v>
       </c>
       <c r="V20" t="n">
-        <v>68.64659047442036</v>
+        <v>7.611310746237603</v>
       </c>
       <c r="W20" t="n">
-        <v>68.64659047442036</v>
+        <v>7.611310746237603</v>
       </c>
       <c r="X20" t="n">
-        <v>68.64659047442036</v>
+        <v>7.611310746237603</v>
       </c>
       <c r="Y20" t="n">
-        <v>68.64659047442036</v>
+        <v>7.611310746237603</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5805,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>22.26375907278499</v>
+        <v>3.950618775172961</v>
       </c>
       <c r="C21" t="n">
-        <v>22.26375907278499</v>
+        <v>3.950618775172961</v>
       </c>
       <c r="D21" t="n">
-        <v>22.26375907278499</v>
+        <v>3.950618775172961</v>
       </c>
       <c r="E21" t="n">
-        <v>22.26375907278499</v>
+        <v>3.950618775172961</v>
       </c>
       <c r="F21" t="n">
-        <v>22.26375907278499</v>
+        <v>3.950618775172961</v>
       </c>
       <c r="G21" t="n">
-        <v>1.836760123504761</v>
+        <v>3.950618775172961</v>
       </c>
       <c r="H21" t="n">
-        <v>1.836760123504761</v>
+        <v>0.2899268041083196</v>
       </c>
       <c r="I21" t="n">
-        <v>1.836760123504761</v>
+        <v>0.2899268041083196</v>
       </c>
       <c r="J21" t="n">
-        <v>1.836760123504761</v>
+        <v>0.2899268041083196</v>
       </c>
       <c r="K21" t="n">
-        <v>1.836760123504761</v>
+        <v>0.2899268041083196</v>
       </c>
       <c r="L21" t="n">
-        <v>23.6482865901238</v>
+        <v>0.2899268041083196</v>
       </c>
       <c r="M21" t="n">
-        <v>46.37819311849522</v>
+        <v>3.877771004948775</v>
       </c>
       <c r="N21" t="n">
-        <v>69.10809964686663</v>
+        <v>3.877771004948775</v>
       </c>
       <c r="O21" t="n">
-        <v>91.83800617523805</v>
+        <v>7.46561520578923</v>
       </c>
       <c r="P21" t="n">
-        <v>91.83800617523805</v>
+        <v>10.90849600457553</v>
       </c>
       <c r="Q21" t="n">
-        <v>91.83800617523805</v>
+        <v>14.49634020541598</v>
       </c>
       <c r="R21" t="n">
-        <v>91.83800617523805</v>
+        <v>14.49634020541598</v>
       </c>
       <c r="S21" t="n">
-        <v>68.64659047442036</v>
+        <v>10.83564823435134</v>
       </c>
       <c r="T21" t="n">
-        <v>45.45517477360268</v>
+        <v>7.611310746237603</v>
       </c>
       <c r="U21" t="n">
-        <v>45.45517477360268</v>
+        <v>7.611310746237603</v>
       </c>
       <c r="V21" t="n">
-        <v>45.45517477360268</v>
+        <v>3.950618775172961</v>
       </c>
       <c r="W21" t="n">
-        <v>45.45517477360268</v>
+        <v>3.950618775172961</v>
       </c>
       <c r="X21" t="n">
-        <v>22.26375907278499</v>
+        <v>3.950618775172961</v>
       </c>
       <c r="Y21" t="n">
-        <v>22.26375907278499</v>
+        <v>3.950618775172961</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1.836760123504761</v>
+        <v>11.27200271730224</v>
       </c>
       <c r="C22" t="n">
-        <v>1.836760123504761</v>
+        <v>7.611310746237603</v>
       </c>
       <c r="D22" t="n">
-        <v>1.836760123504761</v>
+        <v>7.611310746237603</v>
       </c>
       <c r="E22" t="n">
-        <v>1.836760123504761</v>
+        <v>7.611310746237603</v>
       </c>
       <c r="F22" t="n">
-        <v>1.836760123504761</v>
+        <v>7.611310746237603</v>
       </c>
       <c r="G22" t="n">
-        <v>1.836760123504761</v>
+        <v>3.950618775172961</v>
       </c>
       <c r="H22" t="n">
-        <v>1.836760123504761</v>
+        <v>3.950618775172961</v>
       </c>
       <c r="I22" t="n">
-        <v>1.836760123504761</v>
+        <v>0.2899268041083196</v>
       </c>
       <c r="J22" t="n">
-        <v>1.836760123504761</v>
+        <v>0.2899268041083196</v>
       </c>
       <c r="K22" t="n">
-        <v>1.836760123504761</v>
+        <v>0.2899268041083196</v>
       </c>
       <c r="L22" t="n">
-        <v>24.56666665187618</v>
+        <v>3.877771004948775</v>
       </c>
       <c r="M22" t="n">
-        <v>47.29657318024759</v>
+        <v>7.46561520578923</v>
       </c>
       <c r="N22" t="n">
-        <v>70.02647970861901</v>
+        <v>11.05345940662968</v>
       </c>
       <c r="O22" t="n">
-        <v>91.83800617523805</v>
+        <v>14.49634020541598</v>
       </c>
       <c r="P22" t="n">
-        <v>91.83800617523805</v>
+        <v>14.49634020541598</v>
       </c>
       <c r="Q22" t="n">
-        <v>91.83800617523805</v>
+        <v>14.49634020541598</v>
       </c>
       <c r="R22" t="n">
-        <v>91.83800617523805</v>
+        <v>14.49634020541598</v>
       </c>
       <c r="S22" t="n">
-        <v>91.83800617523805</v>
+        <v>14.49634020541598</v>
       </c>
       <c r="T22" t="n">
-        <v>91.83800617523805</v>
+        <v>14.49634020541598</v>
       </c>
       <c r="U22" t="n">
-        <v>91.83800617523805</v>
+        <v>14.49634020541598</v>
       </c>
       <c r="V22" t="n">
-        <v>71.41100722595783</v>
+        <v>14.49634020541598</v>
       </c>
       <c r="W22" t="n">
-        <v>48.21959152514014</v>
+        <v>14.49634020541598</v>
       </c>
       <c r="X22" t="n">
-        <v>25.02817582432245</v>
+        <v>14.49634020541598</v>
       </c>
       <c r="Y22" t="n">
-        <v>1.836760123504761</v>
+        <v>11.27200271730224</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1.836760123504761</v>
+        <v>7.611310746237603</v>
       </c>
       <c r="C23" t="n">
-        <v>1.836760123504761</v>
+        <v>7.611310746237603</v>
       </c>
       <c r="D23" t="n">
-        <v>1.836760123504761</v>
+        <v>7.611310746237603</v>
       </c>
       <c r="E23" t="n">
-        <v>1.836760123504761</v>
+        <v>7.611310746237603</v>
       </c>
       <c r="F23" t="n">
-        <v>1.836760123504761</v>
+        <v>7.611310746237603</v>
       </c>
       <c r="G23" t="n">
-        <v>1.836760123504761</v>
+        <v>3.950618775172961</v>
       </c>
       <c r="H23" t="n">
-        <v>1.836760123504761</v>
+        <v>3.950618775172961</v>
       </c>
       <c r="I23" t="n">
-        <v>1.836760123504761</v>
+        <v>0.2899268041083196</v>
       </c>
       <c r="J23" t="n">
-        <v>1.836760123504761</v>
+        <v>0.2899268041083196</v>
       </c>
       <c r="K23" t="n">
-        <v>24.56666665187618</v>
+        <v>0.2899268041083196</v>
       </c>
       <c r="L23" t="n">
-        <v>47.29657318024759</v>
+        <v>3.732807602894615</v>
       </c>
       <c r="M23" t="n">
-        <v>70.02647970861901</v>
+        <v>7.32065180373507</v>
       </c>
       <c r="N23" t="n">
-        <v>91.83800617523805</v>
+        <v>10.90849600457553</v>
       </c>
       <c r="O23" t="n">
-        <v>91.83800617523805</v>
+        <v>14.49634020541598</v>
       </c>
       <c r="P23" t="n">
-        <v>91.83800617523805</v>
+        <v>14.49634020541598</v>
       </c>
       <c r="Q23" t="n">
-        <v>91.83800617523805</v>
+        <v>14.49634020541598</v>
       </c>
       <c r="R23" t="n">
-        <v>71.41100722595783</v>
+        <v>10.83564823435134</v>
       </c>
       <c r="S23" t="n">
-        <v>71.41100722595783</v>
+        <v>10.83564823435134</v>
       </c>
       <c r="T23" t="n">
-        <v>48.21959152514014</v>
+        <v>10.83564823435134</v>
       </c>
       <c r="U23" t="n">
-        <v>25.02817582432245</v>
+        <v>10.83564823435134</v>
       </c>
       <c r="V23" t="n">
-        <v>25.02817582432245</v>
+        <v>10.83564823435134</v>
       </c>
       <c r="W23" t="n">
-        <v>25.02817582432245</v>
+        <v>7.611310746237603</v>
       </c>
       <c r="X23" t="n">
-        <v>1.836760123504761</v>
+        <v>7.611310746237603</v>
       </c>
       <c r="Y23" t="n">
-        <v>1.836760123504761</v>
+        <v>7.611310746237603</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6042,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>45.45517477360268</v>
+        <v>3.950618775172961</v>
       </c>
       <c r="C24" t="n">
-        <v>45.45517477360268</v>
+        <v>3.950618775172961</v>
       </c>
       <c r="D24" t="n">
-        <v>45.45517477360268</v>
+        <v>3.950618775172961</v>
       </c>
       <c r="E24" t="n">
-        <v>45.45517477360268</v>
+        <v>0.2899268041083196</v>
       </c>
       <c r="F24" t="n">
-        <v>22.26375907278499</v>
+        <v>0.2899268041083196</v>
       </c>
       <c r="G24" t="n">
-        <v>22.26375907278499</v>
+        <v>0.2899268041083196</v>
       </c>
       <c r="H24" t="n">
-        <v>1.836760123504761</v>
+        <v>0.2899268041083196</v>
       </c>
       <c r="I24" t="n">
-        <v>1.836760123504761</v>
+        <v>0.2899268041083196</v>
       </c>
       <c r="J24" t="n">
-        <v>1.836760123504761</v>
+        <v>0.2899268041083196</v>
       </c>
       <c r="K24" t="n">
-        <v>1.836760123504761</v>
+        <v>3.877771004948775</v>
       </c>
       <c r="L24" t="n">
-        <v>1.836760123504761</v>
+        <v>3.877771004948775</v>
       </c>
       <c r="M24" t="n">
-        <v>1.836760123504761</v>
+        <v>3.877771004948775</v>
       </c>
       <c r="N24" t="n">
-        <v>23.6482865901238</v>
+        <v>3.877771004948775</v>
       </c>
       <c r="O24" t="n">
-        <v>46.37819311849522</v>
+        <v>7.32065180373507</v>
       </c>
       <c r="P24" t="n">
-        <v>69.10809964686663</v>
+        <v>10.90849600457553</v>
       </c>
       <c r="Q24" t="n">
-        <v>91.83800617523805</v>
+        <v>14.49634020541598</v>
       </c>
       <c r="R24" t="n">
-        <v>91.83800617523805</v>
+        <v>14.49634020541598</v>
       </c>
       <c r="S24" t="n">
-        <v>91.83800617523805</v>
+        <v>14.49634020541598</v>
       </c>
       <c r="T24" t="n">
-        <v>91.83800617523805</v>
+        <v>14.49634020541598</v>
       </c>
       <c r="U24" t="n">
-        <v>91.83800617523805</v>
+        <v>14.49634020541598</v>
       </c>
       <c r="V24" t="n">
-        <v>68.64659047442036</v>
+        <v>10.83564823435134</v>
       </c>
       <c r="W24" t="n">
-        <v>45.45517477360268</v>
+        <v>7.174956263286695</v>
       </c>
       <c r="X24" t="n">
-        <v>45.45517477360268</v>
+        <v>3.950618775172961</v>
       </c>
       <c r="Y24" t="n">
-        <v>45.45517477360268</v>
+        <v>3.950618775172961</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1.836760123504761</v>
+        <v>3.514264292222054</v>
       </c>
       <c r="C25" t="n">
-        <v>1.836760123504761</v>
+        <v>3.514264292222054</v>
       </c>
       <c r="D25" t="n">
-        <v>1.836760123504761</v>
+        <v>3.514264292222054</v>
       </c>
       <c r="E25" t="n">
-        <v>1.836760123504761</v>
+        <v>3.514264292222054</v>
       </c>
       <c r="F25" t="n">
-        <v>1.836760123504761</v>
+        <v>0.2899268041083196</v>
       </c>
       <c r="G25" t="n">
-        <v>1.836760123504761</v>
+        <v>0.2899268041083196</v>
       </c>
       <c r="H25" t="n">
-        <v>1.836760123504761</v>
+        <v>0.2899268041083196</v>
       </c>
       <c r="I25" t="n">
-        <v>1.836760123504761</v>
+        <v>0.2899268041083196</v>
       </c>
       <c r="J25" t="n">
-        <v>1.836760123504761</v>
+        <v>0.2899268041083196</v>
       </c>
       <c r="K25" t="n">
-        <v>1.836760123504761</v>
+        <v>0.2899268041083196</v>
       </c>
       <c r="L25" t="n">
-        <v>24.56666665187618</v>
+        <v>3.877771004948775</v>
       </c>
       <c r="M25" t="n">
-        <v>47.29657318024759</v>
+        <v>7.46561520578923</v>
       </c>
       <c r="N25" t="n">
-        <v>70.02647970861901</v>
+        <v>11.05345940662968</v>
       </c>
       <c r="O25" t="n">
-        <v>91.83800617523805</v>
+        <v>14.49634020541598</v>
       </c>
       <c r="P25" t="n">
-        <v>91.83800617523805</v>
+        <v>14.49634020541598</v>
       </c>
       <c r="Q25" t="n">
-        <v>91.83800617523805</v>
+        <v>14.49634020541598</v>
       </c>
       <c r="R25" t="n">
-        <v>91.83800617523805</v>
+        <v>14.49634020541598</v>
       </c>
       <c r="S25" t="n">
-        <v>91.83800617523805</v>
+        <v>14.49634020541598</v>
       </c>
       <c r="T25" t="n">
-        <v>68.64659047442036</v>
+        <v>10.83564823435134</v>
       </c>
       <c r="U25" t="n">
-        <v>45.45517477360268</v>
+        <v>7.174956263286695</v>
       </c>
       <c r="V25" t="n">
-        <v>22.26375907278499</v>
+        <v>7.174956263286695</v>
       </c>
       <c r="W25" t="n">
-        <v>22.26375907278499</v>
+        <v>7.174956263286695</v>
       </c>
       <c r="X25" t="n">
-        <v>22.26375907278499</v>
+        <v>3.514264292222054</v>
       </c>
       <c r="Y25" t="n">
-        <v>1.836760123504761</v>
+        <v>3.514264292222054</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6200,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>22.26375907278499</v>
+        <v>7.611310746237603</v>
       </c>
       <c r="C26" t="n">
-        <v>22.26375907278499</v>
+        <v>3.950618775172961</v>
       </c>
       <c r="D26" t="n">
-        <v>22.26375907278499</v>
+        <v>3.950618775172961</v>
       </c>
       <c r="E26" t="n">
-        <v>22.26375907278499</v>
+        <v>3.950618775172961</v>
       </c>
       <c r="F26" t="n">
-        <v>1.836760123504761</v>
+        <v>3.950618775172961</v>
       </c>
       <c r="G26" t="n">
-        <v>1.836760123504761</v>
+        <v>3.950618775172961</v>
       </c>
       <c r="H26" t="n">
-        <v>1.836760123504761</v>
+        <v>0.2899268041083196</v>
       </c>
       <c r="I26" t="n">
-        <v>1.836760123504761</v>
+        <v>0.2899268041083196</v>
       </c>
       <c r="J26" t="n">
-        <v>1.836760123504761</v>
+        <v>0.2899268041083196</v>
       </c>
       <c r="K26" t="n">
-        <v>1.836760123504761</v>
+        <v>3.877771004948775</v>
       </c>
       <c r="L26" t="n">
-        <v>1.836760123504761</v>
+        <v>7.46561520578923</v>
       </c>
       <c r="M26" t="n">
-        <v>23.6482865901238</v>
+        <v>11.05345940662968</v>
       </c>
       <c r="N26" t="n">
-        <v>46.37819311849522</v>
+        <v>14.49634020541598</v>
       </c>
       <c r="O26" t="n">
-        <v>69.10809964686663</v>
+        <v>14.49634020541598</v>
       </c>
       <c r="P26" t="n">
-        <v>91.83800617523805</v>
+        <v>14.49634020541598</v>
       </c>
       <c r="Q26" t="n">
-        <v>91.83800617523805</v>
+        <v>14.49634020541598</v>
       </c>
       <c r="R26" t="n">
-        <v>91.83800617523805</v>
+        <v>14.49634020541598</v>
       </c>
       <c r="S26" t="n">
-        <v>68.64659047442036</v>
+        <v>14.49634020541598</v>
       </c>
       <c r="T26" t="n">
-        <v>45.45517477360268</v>
+        <v>14.49634020541598</v>
       </c>
       <c r="U26" t="n">
-        <v>45.45517477360268</v>
+        <v>10.83564823435134</v>
       </c>
       <c r="V26" t="n">
-        <v>45.45517477360268</v>
+        <v>10.83564823435134</v>
       </c>
       <c r="W26" t="n">
-        <v>45.45517477360268</v>
+        <v>10.83564823435134</v>
       </c>
       <c r="X26" t="n">
-        <v>45.45517477360268</v>
+        <v>10.83564823435134</v>
       </c>
       <c r="Y26" t="n">
-        <v>22.26375907278499</v>
+        <v>10.83564823435134</v>
       </c>
     </row>
     <row r="27">
@@ -6279,76 +6279,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>68.64659047442036</v>
+        <v>3.514264292222054</v>
       </c>
       <c r="C27" t="n">
-        <v>68.64659047442036</v>
+        <v>0.2899268041083196</v>
       </c>
       <c r="D27" t="n">
-        <v>68.64659047442036</v>
+        <v>0.2899268041083196</v>
       </c>
       <c r="E27" t="n">
-        <v>45.45517477360268</v>
+        <v>0.2899268041083196</v>
       </c>
       <c r="F27" t="n">
-        <v>45.45517477360268</v>
+        <v>0.2899268041083196</v>
       </c>
       <c r="G27" t="n">
-        <v>24.90626657308192</v>
+        <v>0.2899268041083196</v>
       </c>
       <c r="H27" t="n">
-        <v>1.836760123504761</v>
+        <v>0.2899268041083196</v>
       </c>
       <c r="I27" t="n">
-        <v>1.836760123504761</v>
+        <v>0.2899268041083196</v>
       </c>
       <c r="J27" t="n">
-        <v>1.836760123504761</v>
+        <v>0.2899268041083196</v>
       </c>
       <c r="K27" t="n">
-        <v>1.836760123504761</v>
+        <v>0.2899268041083196</v>
       </c>
       <c r="L27" t="n">
-        <v>1.836760123504761</v>
+        <v>3.877771004948775</v>
       </c>
       <c r="M27" t="n">
-        <v>24.56666665187618</v>
+        <v>3.877771004948775</v>
       </c>
       <c r="N27" t="n">
-        <v>47.29657318024759</v>
+        <v>7.46561520578923</v>
       </c>
       <c r="O27" t="n">
-        <v>70.02647970861901</v>
+        <v>10.90849600457553</v>
       </c>
       <c r="P27" t="n">
-        <v>91.83800617523805</v>
+        <v>14.49634020541598</v>
       </c>
       <c r="Q27" t="n">
-        <v>91.83800617523805</v>
+        <v>14.49634020541598</v>
       </c>
       <c r="R27" t="n">
-        <v>91.83800617523805</v>
+        <v>14.49634020541598</v>
       </c>
       <c r="S27" t="n">
-        <v>68.64659047442036</v>
+        <v>14.49634020541598</v>
       </c>
       <c r="T27" t="n">
-        <v>68.64659047442036</v>
+        <v>10.83564823435134</v>
       </c>
       <c r="U27" t="n">
-        <v>68.64659047442036</v>
+        <v>7.174956263286695</v>
       </c>
       <c r="V27" t="n">
-        <v>68.64659047442036</v>
+        <v>7.174956263286695</v>
       </c>
       <c r="W27" t="n">
-        <v>68.64659047442036</v>
+        <v>7.174956263286695</v>
       </c>
       <c r="X27" t="n">
-        <v>68.64659047442036</v>
+        <v>7.174956263286695</v>
       </c>
       <c r="Y27" t="n">
-        <v>68.64659047442036</v>
+        <v>7.174956263286695</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>22.26375907278499</v>
+        <v>10.83564823435134</v>
       </c>
       <c r="C28" t="n">
-        <v>22.26375907278499</v>
+        <v>7.174956263286695</v>
       </c>
       <c r="D28" t="n">
-        <v>22.26375907278499</v>
+        <v>7.174956263286695</v>
       </c>
       <c r="E28" t="n">
-        <v>22.26375907278499</v>
+        <v>7.174956263286695</v>
       </c>
       <c r="F28" t="n">
-        <v>1.836760123504761</v>
+        <v>7.174956263286695</v>
       </c>
       <c r="G28" t="n">
-        <v>1.836760123504761</v>
+        <v>3.950618775172961</v>
       </c>
       <c r="H28" t="n">
-        <v>1.836760123504761</v>
+        <v>0.2899268041083196</v>
       </c>
       <c r="I28" t="n">
-        <v>1.836760123504761</v>
+        <v>0.2899268041083196</v>
       </c>
       <c r="J28" t="n">
-        <v>1.836760123504761</v>
+        <v>0.2899268041083196</v>
       </c>
       <c r="K28" t="n">
-        <v>1.836760123504761</v>
+        <v>0.2899268041083196</v>
       </c>
       <c r="L28" t="n">
-        <v>23.6482865901238</v>
+        <v>3.877771004948775</v>
       </c>
       <c r="M28" t="n">
-        <v>46.37819311849522</v>
+        <v>7.46561520578923</v>
       </c>
       <c r="N28" t="n">
-        <v>69.10809964686663</v>
+        <v>10.90849600457553</v>
       </c>
       <c r="O28" t="n">
-        <v>91.83800617523805</v>
+        <v>14.49634020541598</v>
       </c>
       <c r="P28" t="n">
-        <v>91.83800617523805</v>
+        <v>14.49634020541598</v>
       </c>
       <c r="Q28" t="n">
-        <v>91.83800617523805</v>
+        <v>14.49634020541598</v>
       </c>
       <c r="R28" t="n">
-        <v>68.64659047442036</v>
+        <v>14.49634020541598</v>
       </c>
       <c r="S28" t="n">
-        <v>45.45517477360268</v>
+        <v>14.49634020541598</v>
       </c>
       <c r="T28" t="n">
-        <v>45.45517477360268</v>
+        <v>14.49634020541598</v>
       </c>
       <c r="U28" t="n">
-        <v>45.45517477360268</v>
+        <v>14.49634020541598</v>
       </c>
       <c r="V28" t="n">
-        <v>22.26375907278499</v>
+        <v>14.49634020541598</v>
       </c>
       <c r="W28" t="n">
-        <v>22.26375907278499</v>
+        <v>10.83564823435134</v>
       </c>
       <c r="X28" t="n">
-        <v>22.26375907278499</v>
+        <v>10.83564823435134</v>
       </c>
       <c r="Y28" t="n">
-        <v>22.26375907278499</v>
+        <v>10.83564823435134</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6437,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>48.21959152514014</v>
+        <v>11.27200271730224</v>
       </c>
       <c r="C29" t="n">
-        <v>48.21959152514014</v>
+        <v>7.611310746237603</v>
       </c>
       <c r="D29" t="n">
-        <v>48.21959152514014</v>
+        <v>7.611310746237603</v>
       </c>
       <c r="E29" t="n">
-        <v>25.02817582432245</v>
+        <v>7.611310746237603</v>
       </c>
       <c r="F29" t="n">
-        <v>1.836760123504761</v>
+        <v>7.611310746237603</v>
       </c>
       <c r="G29" t="n">
-        <v>1.836760123504761</v>
+        <v>3.950618775172961</v>
       </c>
       <c r="H29" t="n">
-        <v>1.836760123504761</v>
+        <v>3.950618775172961</v>
       </c>
       <c r="I29" t="n">
-        <v>1.836760123504761</v>
+        <v>0.2899268041083196</v>
       </c>
       <c r="J29" t="n">
-        <v>1.836760123504761</v>
+        <v>0.2899268041083196</v>
       </c>
       <c r="K29" t="n">
-        <v>23.6482865901238</v>
+        <v>3.732807602894615</v>
       </c>
       <c r="L29" t="n">
-        <v>46.37819311849522</v>
+        <v>3.732807602894615</v>
       </c>
       <c r="M29" t="n">
-        <v>69.10809964686663</v>
+        <v>7.32065180373507</v>
       </c>
       <c r="N29" t="n">
-        <v>91.83800617523805</v>
+        <v>10.90849600457553</v>
       </c>
       <c r="O29" t="n">
-        <v>91.83800617523805</v>
+        <v>10.90849600457553</v>
       </c>
       <c r="P29" t="n">
-        <v>91.83800617523805</v>
+        <v>14.49634020541598</v>
       </c>
       <c r="Q29" t="n">
-        <v>91.83800617523805</v>
+        <v>14.49634020541598</v>
       </c>
       <c r="R29" t="n">
-        <v>91.83800617523805</v>
+        <v>14.49634020541598</v>
       </c>
       <c r="S29" t="n">
-        <v>91.83800617523805</v>
+        <v>14.49634020541598</v>
       </c>
       <c r="T29" t="n">
-        <v>91.83800617523805</v>
+        <v>11.27200271730224</v>
       </c>
       <c r="U29" t="n">
-        <v>91.83800617523805</v>
+        <v>11.27200271730224</v>
       </c>
       <c r="V29" t="n">
-        <v>91.83800617523805</v>
+        <v>11.27200271730224</v>
       </c>
       <c r="W29" t="n">
-        <v>91.83800617523805</v>
+        <v>11.27200271730224</v>
       </c>
       <c r="X29" t="n">
-        <v>91.83800617523805</v>
+        <v>11.27200271730224</v>
       </c>
       <c r="Y29" t="n">
-        <v>68.64659047442036</v>
+        <v>11.27200271730224</v>
       </c>
     </row>
     <row r="30">
@@ -6516,76 +6516,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>22.26375907278499</v>
+        <v>0.2899268041083196</v>
       </c>
       <c r="C30" t="n">
-        <v>1.836760123504761</v>
+        <v>0.2899268041083196</v>
       </c>
       <c r="D30" t="n">
-        <v>1.836760123504761</v>
+        <v>0.2899268041083196</v>
       </c>
       <c r="E30" t="n">
-        <v>1.836760123504761</v>
+        <v>0.2899268041083196</v>
       </c>
       <c r="F30" t="n">
-        <v>1.836760123504761</v>
+        <v>0.2899268041083196</v>
       </c>
       <c r="G30" t="n">
-        <v>1.836760123504761</v>
+        <v>0.2899268041083196</v>
       </c>
       <c r="H30" t="n">
-        <v>1.836760123504761</v>
+        <v>0.2899268041083196</v>
       </c>
       <c r="I30" t="n">
-        <v>1.836760123504761</v>
+        <v>0.2899268041083196</v>
       </c>
       <c r="J30" t="n">
-        <v>1.836760123504761</v>
+        <v>0.2899268041083196</v>
       </c>
       <c r="K30" t="n">
-        <v>1.836760123504761</v>
+        <v>0.2899268041083196</v>
       </c>
       <c r="L30" t="n">
-        <v>1.836760123504761</v>
+        <v>0.2899268041083196</v>
       </c>
       <c r="M30" t="n">
-        <v>1.836760123504761</v>
+        <v>3.732807602894615</v>
       </c>
       <c r="N30" t="n">
-        <v>23.6482865901238</v>
+        <v>7.32065180373507</v>
       </c>
       <c r="O30" t="n">
-        <v>46.37819311849522</v>
+        <v>7.32065180373507</v>
       </c>
       <c r="P30" t="n">
-        <v>69.10809964686663</v>
+        <v>10.90849600457553</v>
       </c>
       <c r="Q30" t="n">
-        <v>91.83800617523805</v>
+        <v>14.49634020541598</v>
       </c>
       <c r="R30" t="n">
-        <v>91.83800617523805</v>
+        <v>14.49634020541598</v>
       </c>
       <c r="S30" t="n">
-        <v>91.83800617523805</v>
+        <v>14.49634020541598</v>
       </c>
       <c r="T30" t="n">
-        <v>68.64659047442036</v>
+        <v>14.49634020541598</v>
       </c>
       <c r="U30" t="n">
-        <v>45.45517477360268</v>
+        <v>10.83564823435134</v>
       </c>
       <c r="V30" t="n">
-        <v>45.45517477360268</v>
+        <v>7.174956263286695</v>
       </c>
       <c r="W30" t="n">
-        <v>45.45517477360268</v>
+        <v>3.514264292222054</v>
       </c>
       <c r="X30" t="n">
-        <v>45.45517477360268</v>
+        <v>3.514264292222054</v>
       </c>
       <c r="Y30" t="n">
-        <v>22.26375907278499</v>
+        <v>3.514264292222054</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>22.26375907278499</v>
+        <v>0.2899268041083196</v>
       </c>
       <c r="C31" t="n">
-        <v>22.26375907278499</v>
+        <v>0.2899268041083196</v>
       </c>
       <c r="D31" t="n">
-        <v>22.26375907278499</v>
+        <v>0.2899268041083196</v>
       </c>
       <c r="E31" t="n">
-        <v>22.26375907278499</v>
+        <v>0.2899268041083196</v>
       </c>
       <c r="F31" t="n">
-        <v>14.10463699225912</v>
+        <v>0.2899268041083196</v>
       </c>
       <c r="G31" t="n">
-        <v>14.10463699225912</v>
+        <v>0.2899268041083196</v>
       </c>
       <c r="H31" t="n">
-        <v>1.836760123504761</v>
+        <v>0.2899268041083196</v>
       </c>
       <c r="I31" t="n">
-        <v>1.836760123504761</v>
+        <v>0.2899268041083196</v>
       </c>
       <c r="J31" t="n">
-        <v>1.836760123504761</v>
+        <v>0.2899268041083196</v>
       </c>
       <c r="K31" t="n">
-        <v>1.836760123504761</v>
+        <v>0.2899268041083196</v>
       </c>
       <c r="L31" t="n">
-        <v>23.6482865901238</v>
+        <v>3.732807602894615</v>
       </c>
       <c r="M31" t="n">
-        <v>46.37819311849522</v>
+        <v>7.32065180373507</v>
       </c>
       <c r="N31" t="n">
-        <v>69.10809964686663</v>
+        <v>10.90849600457553</v>
       </c>
       <c r="O31" t="n">
-        <v>91.83800617523805</v>
+        <v>14.49634020541598</v>
       </c>
       <c r="P31" t="n">
-        <v>91.83800617523805</v>
+        <v>14.49634020541598</v>
       </c>
       <c r="Q31" t="n">
-        <v>91.83800617523805</v>
+        <v>14.49634020541598</v>
       </c>
       <c r="R31" t="n">
-        <v>91.83800617523805</v>
+        <v>14.49634020541598</v>
       </c>
       <c r="S31" t="n">
-        <v>68.64659047442036</v>
+        <v>14.49634020541598</v>
       </c>
       <c r="T31" t="n">
-        <v>68.64659047442036</v>
+        <v>10.83564823435134</v>
       </c>
       <c r="U31" t="n">
-        <v>45.45517477360268</v>
+        <v>10.83564823435134</v>
       </c>
       <c r="V31" t="n">
-        <v>45.45517477360268</v>
+        <v>10.83564823435134</v>
       </c>
       <c r="W31" t="n">
-        <v>45.45517477360268</v>
+        <v>7.174956263286695</v>
       </c>
       <c r="X31" t="n">
-        <v>22.26375907278499</v>
+        <v>3.514264292222054</v>
       </c>
       <c r="Y31" t="n">
-        <v>22.26375907278499</v>
+        <v>0.2899268041083196</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>32.80305277568445</v>
+        <v>0.2899268041083196</v>
       </c>
       <c r="C32" t="n">
-        <v>32.80305277568445</v>
+        <v>0.2899268041083196</v>
       </c>
       <c r="D32" t="n">
-        <v>32.80305277568445</v>
+        <v>0.2899268041083196</v>
       </c>
       <c r="E32" t="n">
-        <v>32.80305277568445</v>
+        <v>0.2899268041083196</v>
       </c>
       <c r="F32" t="n">
-        <v>32.80305277568445</v>
+        <v>0.2899268041083196</v>
       </c>
       <c r="G32" t="n">
-        <v>32.80305277568445</v>
+        <v>0.2899268041083196</v>
       </c>
       <c r="H32" t="n">
-        <v>9.61163707486676</v>
+        <v>0.2899268041083196</v>
       </c>
       <c r="I32" t="n">
-        <v>1.836760123504761</v>
+        <v>0.2899268041083196</v>
       </c>
       <c r="J32" t="n">
-        <v>1.836760123504761</v>
+        <v>0.2899268041083196</v>
       </c>
       <c r="K32" t="n">
-        <v>24.56666665187618</v>
+        <v>3.877771004948775</v>
       </c>
       <c r="L32" t="n">
-        <v>47.29657318024759</v>
+        <v>7.46561520578923</v>
       </c>
       <c r="M32" t="n">
-        <v>70.02647970861901</v>
+        <v>11.05345940662968</v>
       </c>
       <c r="N32" t="n">
-        <v>91.83800617523805</v>
+        <v>14.49634020541598</v>
       </c>
       <c r="O32" t="n">
-        <v>91.83800617523805</v>
+        <v>14.49634020541598</v>
       </c>
       <c r="P32" t="n">
-        <v>91.83800617523805</v>
+        <v>14.49634020541598</v>
       </c>
       <c r="Q32" t="n">
-        <v>91.83800617523805</v>
+        <v>14.49634020541598</v>
       </c>
       <c r="R32" t="n">
-        <v>79.18588417731982</v>
+        <v>11.27200271730224</v>
       </c>
       <c r="S32" t="n">
-        <v>79.18588417731982</v>
+        <v>11.27200271730224</v>
       </c>
       <c r="T32" t="n">
-        <v>79.18588417731982</v>
+        <v>11.27200271730224</v>
       </c>
       <c r="U32" t="n">
-        <v>55.99446847650213</v>
+        <v>11.27200271730224</v>
       </c>
       <c r="V32" t="n">
-        <v>32.80305277568445</v>
+        <v>11.27200271730224</v>
       </c>
       <c r="W32" t="n">
-        <v>32.80305277568445</v>
+        <v>11.27200271730224</v>
       </c>
       <c r="X32" t="n">
-        <v>32.80305277568445</v>
+        <v>7.611310746237603</v>
       </c>
       <c r="Y32" t="n">
-        <v>32.80305277568445</v>
+        <v>3.950618775172961</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6753,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>1.836760123504761</v>
+        <v>0.2899268041083196</v>
       </c>
       <c r="C33" t="n">
-        <v>1.836760123504761</v>
+        <v>0.2899268041083196</v>
       </c>
       <c r="D33" t="n">
-        <v>1.836760123504761</v>
+        <v>0.2899268041083196</v>
       </c>
       <c r="E33" t="n">
-        <v>1.836760123504761</v>
+        <v>0.2899268041083196</v>
       </c>
       <c r="F33" t="n">
-        <v>1.836760123504761</v>
+        <v>0.2899268041083196</v>
       </c>
       <c r="G33" t="n">
-        <v>1.836760123504761</v>
+        <v>0.2899268041083196</v>
       </c>
       <c r="H33" t="n">
-        <v>1.836760123504761</v>
+        <v>0.2899268041083196</v>
       </c>
       <c r="I33" t="n">
-        <v>1.836760123504761</v>
+        <v>0.2899268041083196</v>
       </c>
       <c r="J33" t="n">
-        <v>1.836760123504761</v>
+        <v>0.2899268041083196</v>
       </c>
       <c r="K33" t="n">
-        <v>1.836760123504761</v>
+        <v>3.732807602894615</v>
       </c>
       <c r="L33" t="n">
-        <v>1.836760123504761</v>
+        <v>3.732807602894615</v>
       </c>
       <c r="M33" t="n">
-        <v>1.836760123504761</v>
+        <v>3.732807602894615</v>
       </c>
       <c r="N33" t="n">
-        <v>23.6482865901238</v>
+        <v>3.732807602894615</v>
       </c>
       <c r="O33" t="n">
-        <v>46.37819311849522</v>
+        <v>7.32065180373507</v>
       </c>
       <c r="P33" t="n">
-        <v>69.10809964686663</v>
+        <v>10.90849600457553</v>
       </c>
       <c r="Q33" t="n">
-        <v>91.83800617523805</v>
+        <v>14.49634020541598</v>
       </c>
       <c r="R33" t="n">
-        <v>91.83800617523805</v>
+        <v>14.49634020541598</v>
       </c>
       <c r="S33" t="n">
-        <v>68.64659047442036</v>
+        <v>14.49634020541598</v>
       </c>
       <c r="T33" t="n">
-        <v>45.45517477360268</v>
+        <v>11.27200271730224</v>
       </c>
       <c r="U33" t="n">
-        <v>22.26375907278499</v>
+        <v>7.611310746237603</v>
       </c>
       <c r="V33" t="n">
-        <v>22.26375907278499</v>
+        <v>3.950618775172961</v>
       </c>
       <c r="W33" t="n">
-        <v>1.836760123504761</v>
+        <v>0.2899268041083196</v>
       </c>
       <c r="X33" t="n">
-        <v>1.836760123504761</v>
+        <v>0.2899268041083196</v>
       </c>
       <c r="Y33" t="n">
-        <v>1.836760123504761</v>
+        <v>0.2899268041083196</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1.836760123504761</v>
+        <v>3.514264292222054</v>
       </c>
       <c r="C34" t="n">
-        <v>1.836760123504761</v>
+        <v>3.514264292222054</v>
       </c>
       <c r="D34" t="n">
-        <v>1.836760123504761</v>
+        <v>3.514264292222054</v>
       </c>
       <c r="E34" t="n">
-        <v>1.836760123504761</v>
+        <v>3.514264292222054</v>
       </c>
       <c r="F34" t="n">
-        <v>1.836760123504761</v>
+        <v>3.514264292222054</v>
       </c>
       <c r="G34" t="n">
-        <v>1.836760123504761</v>
+        <v>3.514264292222054</v>
       </c>
       <c r="H34" t="n">
-        <v>1.836760123504761</v>
+        <v>3.514264292222054</v>
       </c>
       <c r="I34" t="n">
-        <v>1.836760123504761</v>
+        <v>0.2899268041083196</v>
       </c>
       <c r="J34" t="n">
-        <v>1.836760123504761</v>
+        <v>0.2899268041083196</v>
       </c>
       <c r="K34" t="n">
-        <v>1.836760123504761</v>
+        <v>0.2899268041083196</v>
       </c>
       <c r="L34" t="n">
-        <v>23.6482865901238</v>
+        <v>3.877771004948775</v>
       </c>
       <c r="M34" t="n">
-        <v>46.37819311849522</v>
+        <v>7.46561520578923</v>
       </c>
       <c r="N34" t="n">
-        <v>69.10809964686663</v>
+        <v>11.05345940662968</v>
       </c>
       <c r="O34" t="n">
-        <v>91.83800617523805</v>
+        <v>14.49634020541598</v>
       </c>
       <c r="P34" t="n">
-        <v>91.83800617523805</v>
+        <v>14.49634020541598</v>
       </c>
       <c r="Q34" t="n">
-        <v>91.83800617523805</v>
+        <v>14.49634020541598</v>
       </c>
       <c r="R34" t="n">
-        <v>68.64659047442036</v>
+        <v>14.49634020541598</v>
       </c>
       <c r="S34" t="n">
-        <v>48.21959152514014</v>
+        <v>10.83564823435134</v>
       </c>
       <c r="T34" t="n">
-        <v>25.02817582432245</v>
+        <v>10.83564823435134</v>
       </c>
       <c r="U34" t="n">
-        <v>25.02817582432245</v>
+        <v>10.83564823435134</v>
       </c>
       <c r="V34" t="n">
-        <v>25.02817582432245</v>
+        <v>7.174956263286695</v>
       </c>
       <c r="W34" t="n">
-        <v>1.836760123504761</v>
+        <v>3.514264292222054</v>
       </c>
       <c r="X34" t="n">
-        <v>1.836760123504761</v>
+        <v>3.514264292222054</v>
       </c>
       <c r="Y34" t="n">
-        <v>1.836760123504761</v>
+        <v>3.514264292222054</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1.836760123504761</v>
+        <v>0.2899268041083196</v>
       </c>
       <c r="C35" t="n">
-        <v>1.836760123504761</v>
+        <v>0.2899268041083196</v>
       </c>
       <c r="D35" t="n">
-        <v>1.836760123504761</v>
+        <v>0.2899268041083196</v>
       </c>
       <c r="E35" t="n">
-        <v>1.836760123504761</v>
+        <v>0.2899268041083196</v>
       </c>
       <c r="F35" t="n">
-        <v>1.836760123504761</v>
+        <v>0.2899268041083196</v>
       </c>
       <c r="G35" t="n">
-        <v>1.836760123504761</v>
+        <v>0.2899268041083196</v>
       </c>
       <c r="H35" t="n">
-        <v>1.836760123504761</v>
+        <v>0.2899268041083196</v>
       </c>
       <c r="I35" t="n">
-        <v>1.836760123504761</v>
+        <v>0.2899268041083196</v>
       </c>
       <c r="J35" t="n">
-        <v>1.836760123504761</v>
+        <v>0.2899268041083196</v>
       </c>
       <c r="K35" t="n">
-        <v>1.836760123504761</v>
+        <v>0.2899268041083196</v>
       </c>
       <c r="L35" t="n">
-        <v>24.56666665187618</v>
+        <v>3.877771004948775</v>
       </c>
       <c r="M35" t="n">
-        <v>46.37819311849522</v>
+        <v>7.46561520578923</v>
       </c>
       <c r="N35" t="n">
-        <v>69.10809964686663</v>
+        <v>11.05345940662968</v>
       </c>
       <c r="O35" t="n">
-        <v>91.83800617523805</v>
+        <v>14.49634020541598</v>
       </c>
       <c r="P35" t="n">
-        <v>91.83800617523805</v>
+        <v>14.49634020541598</v>
       </c>
       <c r="Q35" t="n">
-        <v>91.83800617523805</v>
+        <v>14.49634020541598</v>
       </c>
       <c r="R35" t="n">
-        <v>91.83800617523805</v>
+        <v>10.83564823435134</v>
       </c>
       <c r="S35" t="n">
-        <v>91.83800617523805</v>
+        <v>7.174956263286695</v>
       </c>
       <c r="T35" t="n">
-        <v>71.41100722595783</v>
+        <v>7.174956263286695</v>
       </c>
       <c r="U35" t="n">
-        <v>48.21959152514014</v>
+        <v>7.174956263286695</v>
       </c>
       <c r="V35" t="n">
-        <v>48.21959152514014</v>
+        <v>7.174956263286695</v>
       </c>
       <c r="W35" t="n">
-        <v>25.02817582432245</v>
+        <v>3.950618775172961</v>
       </c>
       <c r="X35" t="n">
-        <v>25.02817582432245</v>
+        <v>3.950618775172961</v>
       </c>
       <c r="Y35" t="n">
-        <v>25.02817582432245</v>
+        <v>3.950618775172961</v>
       </c>
     </row>
     <row r="36">
@@ -6990,76 +6990,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>30.14712226730633</v>
+        <v>0.2899268041083196</v>
       </c>
       <c r="C36" t="n">
-        <v>30.14712226730633</v>
+        <v>0.2899268041083196</v>
       </c>
       <c r="D36" t="n">
-        <v>30.14712226730633</v>
+        <v>0.2899268041083196</v>
       </c>
       <c r="E36" t="n">
-        <v>9.640492679235312</v>
+        <v>0.2899268041083196</v>
       </c>
       <c r="F36" t="n">
-        <v>1.836760123504761</v>
+        <v>0.2899268041083196</v>
       </c>
       <c r="G36" t="n">
-        <v>1.836760123504761</v>
+        <v>0.2899268041083196</v>
       </c>
       <c r="H36" t="n">
-        <v>1.836760123504761</v>
+        <v>0.2899268041083196</v>
       </c>
       <c r="I36" t="n">
-        <v>1.836760123504761</v>
+        <v>0.2899268041083196</v>
       </c>
       <c r="J36" t="n">
-        <v>1.836760123504761</v>
+        <v>0.2899268041083196</v>
       </c>
       <c r="K36" t="n">
-        <v>1.836760123504761</v>
+        <v>3.877771004948775</v>
       </c>
       <c r="L36" t="n">
-        <v>24.56666665187618</v>
+        <v>7.46561520578923</v>
       </c>
       <c r="M36" t="n">
-        <v>47.29657318024759</v>
+        <v>11.05345940662968</v>
       </c>
       <c r="N36" t="n">
-        <v>70.02647970861901</v>
+        <v>14.49634020541598</v>
       </c>
       <c r="O36" t="n">
-        <v>70.02647970861901</v>
+        <v>14.49634020541598</v>
       </c>
       <c r="P36" t="n">
-        <v>91.83800617523805</v>
+        <v>14.49634020541598</v>
       </c>
       <c r="Q36" t="n">
-        <v>91.83800617523805</v>
+        <v>14.49634020541598</v>
       </c>
       <c r="R36" t="n">
-        <v>91.83800617523805</v>
+        <v>14.49634020541598</v>
       </c>
       <c r="S36" t="n">
-        <v>91.83800617523805</v>
+        <v>10.83564823435134</v>
       </c>
       <c r="T36" t="n">
-        <v>68.64659047442036</v>
+        <v>7.174956263286695</v>
       </c>
       <c r="U36" t="n">
-        <v>68.64659047442036</v>
+        <v>7.174956263286695</v>
       </c>
       <c r="V36" t="n">
-        <v>68.64659047442036</v>
+        <v>3.950618775172961</v>
       </c>
       <c r="W36" t="n">
-        <v>53.33853796812402</v>
+        <v>0.2899268041083196</v>
       </c>
       <c r="X36" t="n">
-        <v>30.14712226730633</v>
+        <v>0.2899268041083196</v>
       </c>
       <c r="Y36" t="n">
-        <v>30.14712226730633</v>
+        <v>0.2899268041083196</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>48.21959152514014</v>
+        <v>0.2899268041083196</v>
       </c>
       <c r="C37" t="n">
-        <v>25.02817582432245</v>
+        <v>0.2899268041083196</v>
       </c>
       <c r="D37" t="n">
-        <v>25.02817582432245</v>
+        <v>0.2899268041083196</v>
       </c>
       <c r="E37" t="n">
-        <v>25.02817582432245</v>
+        <v>0.2899268041083196</v>
       </c>
       <c r="F37" t="n">
-        <v>25.02817582432245</v>
+        <v>0.2899268041083196</v>
       </c>
       <c r="G37" t="n">
-        <v>1.836760123504761</v>
+        <v>0.2899268041083196</v>
       </c>
       <c r="H37" t="n">
-        <v>1.836760123504761</v>
+        <v>0.2899268041083196</v>
       </c>
       <c r="I37" t="n">
-        <v>1.836760123504761</v>
+        <v>0.2899268041083196</v>
       </c>
       <c r="J37" t="n">
-        <v>1.836760123504761</v>
+        <v>0.2899268041083196</v>
       </c>
       <c r="K37" t="n">
-        <v>1.836760123504761</v>
+        <v>0.2899268041083196</v>
       </c>
       <c r="L37" t="n">
-        <v>23.6482865901238</v>
+        <v>3.877771004948775</v>
       </c>
       <c r="M37" t="n">
-        <v>46.37819311849522</v>
+        <v>7.46561520578923</v>
       </c>
       <c r="N37" t="n">
-        <v>69.10809964686663</v>
+        <v>11.05345940662968</v>
       </c>
       <c r="O37" t="n">
-        <v>91.83800617523805</v>
+        <v>14.49634020541598</v>
       </c>
       <c r="P37" t="n">
-        <v>91.83800617523805</v>
+        <v>14.49634020541598</v>
       </c>
       <c r="Q37" t="n">
-        <v>91.83800617523805</v>
+        <v>14.49634020541598</v>
       </c>
       <c r="R37" t="n">
-        <v>68.64659047442036</v>
+        <v>11.27200271730224</v>
       </c>
       <c r="S37" t="n">
-        <v>68.64659047442036</v>
+        <v>7.611310746237603</v>
       </c>
       <c r="T37" t="n">
-        <v>68.64659047442036</v>
+        <v>3.950618775172961</v>
       </c>
       <c r="U37" t="n">
-        <v>68.64659047442036</v>
+        <v>0.2899268041083196</v>
       </c>
       <c r="V37" t="n">
-        <v>68.64659047442036</v>
+        <v>0.2899268041083196</v>
       </c>
       <c r="W37" t="n">
-        <v>68.64659047442036</v>
+        <v>0.2899268041083196</v>
       </c>
       <c r="X37" t="n">
-        <v>68.64659047442036</v>
+        <v>0.2899268041083196</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.64659047442036</v>
+        <v>0.2899268041083196</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>48.21959152514014</v>
+        <v>3.950618775172961</v>
       </c>
       <c r="C38" t="n">
-        <v>25.02817582432245</v>
+        <v>3.950618775172961</v>
       </c>
       <c r="D38" t="n">
-        <v>25.02817582432245</v>
+        <v>3.950618775172961</v>
       </c>
       <c r="E38" t="n">
-        <v>25.02817582432245</v>
+        <v>3.950618775172961</v>
       </c>
       <c r="F38" t="n">
-        <v>1.836760123504761</v>
+        <v>0.2899268041083196</v>
       </c>
       <c r="G38" t="n">
-        <v>1.836760123504761</v>
+        <v>0.2899268041083196</v>
       </c>
       <c r="H38" t="n">
-        <v>1.836760123504761</v>
+        <v>0.2899268041083196</v>
       </c>
       <c r="I38" t="n">
-        <v>1.836760123504761</v>
+        <v>0.2899268041083196</v>
       </c>
       <c r="J38" t="n">
-        <v>1.836760123504761</v>
+        <v>0.2899268041083196</v>
       </c>
       <c r="K38" t="n">
-        <v>24.56666665187618</v>
+        <v>0.2899268041083196</v>
       </c>
       <c r="L38" t="n">
-        <v>47.29657318024759</v>
+        <v>0.2899268041083196</v>
       </c>
       <c r="M38" t="n">
-        <v>47.29657318024759</v>
+        <v>3.732807602894615</v>
       </c>
       <c r="N38" t="n">
-        <v>69.10809964686663</v>
+        <v>7.32065180373507</v>
       </c>
       <c r="O38" t="n">
-        <v>91.83800617523805</v>
+        <v>10.90849600457553</v>
       </c>
       <c r="P38" t="n">
-        <v>91.83800617523805</v>
+        <v>14.49634020541598</v>
       </c>
       <c r="Q38" t="n">
-        <v>91.83800617523805</v>
+        <v>14.49634020541598</v>
       </c>
       <c r="R38" t="n">
-        <v>91.83800617523805</v>
+        <v>14.49634020541598</v>
       </c>
       <c r="S38" t="n">
-        <v>91.83800617523805</v>
+        <v>11.27200271730224</v>
       </c>
       <c r="T38" t="n">
-        <v>91.83800617523805</v>
+        <v>7.611310746237603</v>
       </c>
       <c r="U38" t="n">
-        <v>91.83800617523805</v>
+        <v>3.950618775172961</v>
       </c>
       <c r="V38" t="n">
-        <v>91.83800617523805</v>
+        <v>3.950618775172961</v>
       </c>
       <c r="W38" t="n">
-        <v>91.83800617523805</v>
+        <v>3.950618775172961</v>
       </c>
       <c r="X38" t="n">
-        <v>91.83800617523805</v>
+        <v>3.950618775172961</v>
       </c>
       <c r="Y38" t="n">
-        <v>68.64659047442036</v>
+        <v>3.950618775172961</v>
       </c>
     </row>
     <row r="39">
@@ -7227,76 +7227,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>1.836760123504761</v>
+        <v>3.950618775172961</v>
       </c>
       <c r="C39" t="n">
-        <v>1.836760123504761</v>
+        <v>0.2899268041083196</v>
       </c>
       <c r="D39" t="n">
-        <v>1.836760123504761</v>
+        <v>0.2899268041083196</v>
       </c>
       <c r="E39" t="n">
-        <v>1.836760123504761</v>
+        <v>0.2899268041083196</v>
       </c>
       <c r="F39" t="n">
-        <v>1.836760123504761</v>
+        <v>0.2899268041083196</v>
       </c>
       <c r="G39" t="n">
-        <v>1.836760123504761</v>
+        <v>0.2899268041083196</v>
       </c>
       <c r="H39" t="n">
-        <v>1.836760123504761</v>
+        <v>0.2899268041083196</v>
       </c>
       <c r="I39" t="n">
-        <v>1.836760123504761</v>
+        <v>0.2899268041083196</v>
       </c>
       <c r="J39" t="n">
-        <v>1.836760123504761</v>
+        <v>0.2899268041083196</v>
       </c>
       <c r="K39" t="n">
-        <v>1.836760123504761</v>
+        <v>3.877771004948775</v>
       </c>
       <c r="L39" t="n">
-        <v>24.56666665187618</v>
+        <v>7.46561520578923</v>
       </c>
       <c r="M39" t="n">
-        <v>47.29657318024759</v>
+        <v>11.05345940662968</v>
       </c>
       <c r="N39" t="n">
-        <v>47.29657318024759</v>
+        <v>14.49634020541598</v>
       </c>
       <c r="O39" t="n">
-        <v>69.10809964686663</v>
+        <v>14.49634020541598</v>
       </c>
       <c r="P39" t="n">
-        <v>69.10809964686663</v>
+        <v>14.49634020541598</v>
       </c>
       <c r="Q39" t="n">
-        <v>91.83800617523805</v>
+        <v>14.49634020541598</v>
       </c>
       <c r="R39" t="n">
-        <v>91.83800617523805</v>
+        <v>14.49634020541598</v>
       </c>
       <c r="S39" t="n">
-        <v>68.64659047442036</v>
+        <v>14.49634020541598</v>
       </c>
       <c r="T39" t="n">
-        <v>45.45517477360268</v>
+        <v>14.49634020541598</v>
       </c>
       <c r="U39" t="n">
-        <v>45.45517477360268</v>
+        <v>14.49634020541598</v>
       </c>
       <c r="V39" t="n">
-        <v>45.45517477360268</v>
+        <v>14.49634020541598</v>
       </c>
       <c r="W39" t="n">
-        <v>22.26375907278499</v>
+        <v>14.49634020541598</v>
       </c>
       <c r="X39" t="n">
-        <v>22.26375907278499</v>
+        <v>11.27200271730224</v>
       </c>
       <c r="Y39" t="n">
-        <v>22.26375907278499</v>
+        <v>7.611310746237603</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.64659047442036</v>
+        <v>3.950618775172961</v>
       </c>
       <c r="C40" t="n">
-        <v>68.64659047442036</v>
+        <v>3.950618775172961</v>
       </c>
       <c r="D40" t="n">
-        <v>57.26077647946913</v>
+        <v>3.950618775172961</v>
       </c>
       <c r="E40" t="n">
-        <v>57.26077647946913</v>
+        <v>3.950618775172961</v>
       </c>
       <c r="F40" t="n">
-        <v>57.26077647946913</v>
+        <v>3.950618775172961</v>
       </c>
       <c r="G40" t="n">
-        <v>43.31803215164331</v>
+        <v>0.2899268041083196</v>
       </c>
       <c r="H40" t="n">
-        <v>20.12661645082562</v>
+        <v>0.2899268041083196</v>
       </c>
       <c r="I40" t="n">
-        <v>1.836760123504761</v>
+        <v>0.2899268041083196</v>
       </c>
       <c r="J40" t="n">
-        <v>1.836760123504761</v>
+        <v>0.2899268041083196</v>
       </c>
       <c r="K40" t="n">
-        <v>1.836760123504761</v>
+        <v>0.2899268041083196</v>
       </c>
       <c r="L40" t="n">
-        <v>23.6482865901238</v>
+        <v>3.877771004948775</v>
       </c>
       <c r="M40" t="n">
-        <v>46.37819311849522</v>
+        <v>7.46561520578923</v>
       </c>
       <c r="N40" t="n">
-        <v>69.10809964686663</v>
+        <v>11.05345940662968</v>
       </c>
       <c r="O40" t="n">
-        <v>91.83800617523805</v>
+        <v>14.49634020541598</v>
       </c>
       <c r="P40" t="n">
-        <v>91.83800617523805</v>
+        <v>14.49634020541598</v>
       </c>
       <c r="Q40" t="n">
-        <v>91.83800617523805</v>
+        <v>14.49634020541598</v>
       </c>
       <c r="R40" t="n">
-        <v>68.64659047442036</v>
+        <v>11.27200271730224</v>
       </c>
       <c r="S40" t="n">
-        <v>68.64659047442036</v>
+        <v>11.27200271730224</v>
       </c>
       <c r="T40" t="n">
-        <v>68.64659047442036</v>
+        <v>11.27200271730224</v>
       </c>
       <c r="U40" t="n">
-        <v>68.64659047442036</v>
+        <v>7.611310746237603</v>
       </c>
       <c r="V40" t="n">
-        <v>68.64659047442036</v>
+        <v>3.950618775172961</v>
       </c>
       <c r="W40" t="n">
-        <v>68.64659047442036</v>
+        <v>3.950618775172961</v>
       </c>
       <c r="X40" t="n">
-        <v>68.64659047442036</v>
+        <v>3.950618775172961</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.64659047442036</v>
+        <v>3.950618775172961</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>68.64659047442036</v>
+        <v>0.2899268041083196</v>
       </c>
       <c r="C41" t="n">
-        <v>68.64659047442036</v>
+        <v>0.2899268041083196</v>
       </c>
       <c r="D41" t="n">
-        <v>68.64659047442036</v>
+        <v>0.2899268041083196</v>
       </c>
       <c r="E41" t="n">
-        <v>48.21959152514014</v>
+        <v>0.2899268041083196</v>
       </c>
       <c r="F41" t="n">
-        <v>25.02817582432245</v>
+        <v>0.2899268041083196</v>
       </c>
       <c r="G41" t="n">
-        <v>1.836760123504761</v>
+        <v>0.2899268041083196</v>
       </c>
       <c r="H41" t="n">
-        <v>1.836760123504761</v>
+        <v>0.2899268041083196</v>
       </c>
       <c r="I41" t="n">
-        <v>1.836760123504761</v>
+        <v>0.2899268041083196</v>
       </c>
       <c r="J41" t="n">
-        <v>1.836760123504761</v>
+        <v>0.2899268041083196</v>
       </c>
       <c r="K41" t="n">
-        <v>1.836760123504761</v>
+        <v>0.2899268041083196</v>
       </c>
       <c r="L41" t="n">
-        <v>24.56666665187618</v>
+        <v>0.2899268041083196</v>
       </c>
       <c r="M41" t="n">
-        <v>47.29657318024759</v>
+        <v>3.732807602894615</v>
       </c>
       <c r="N41" t="n">
-        <v>69.10809964686663</v>
+        <v>7.32065180373507</v>
       </c>
       <c r="O41" t="n">
-        <v>91.83800617523805</v>
+        <v>10.90849600457553</v>
       </c>
       <c r="P41" t="n">
-        <v>91.83800617523805</v>
+        <v>14.49634020541598</v>
       </c>
       <c r="Q41" t="n">
-        <v>91.83800617523805</v>
+        <v>14.49634020541598</v>
       </c>
       <c r="R41" t="n">
-        <v>91.83800617523805</v>
+        <v>14.49634020541598</v>
       </c>
       <c r="S41" t="n">
-        <v>91.83800617523805</v>
+        <v>11.27200271730224</v>
       </c>
       <c r="T41" t="n">
-        <v>91.83800617523805</v>
+        <v>7.611310746237603</v>
       </c>
       <c r="U41" t="n">
-        <v>68.64659047442036</v>
+        <v>3.950618775172961</v>
       </c>
       <c r="V41" t="n">
-        <v>68.64659047442036</v>
+        <v>0.2899268041083196</v>
       </c>
       <c r="W41" t="n">
-        <v>68.64659047442036</v>
+        <v>0.2899268041083196</v>
       </c>
       <c r="X41" t="n">
-        <v>68.64659047442036</v>
+        <v>0.2899268041083196</v>
       </c>
       <c r="Y41" t="n">
-        <v>68.64659047442036</v>
+        <v>0.2899268041083196</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7464,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>25.02817582432245</v>
+        <v>0.2899268041083196</v>
       </c>
       <c r="C42" t="n">
-        <v>1.836760123504761</v>
+        <v>0.2899268041083196</v>
       </c>
       <c r="D42" t="n">
-        <v>1.836760123504761</v>
+        <v>0.2899268041083196</v>
       </c>
       <c r="E42" t="n">
-        <v>1.836760123504761</v>
+        <v>0.2899268041083196</v>
       </c>
       <c r="F42" t="n">
-        <v>1.836760123504761</v>
+        <v>0.2899268041083196</v>
       </c>
       <c r="G42" t="n">
-        <v>1.836760123504761</v>
+        <v>0.2899268041083196</v>
       </c>
       <c r="H42" t="n">
-        <v>1.836760123504761</v>
+        <v>0.2899268041083196</v>
       </c>
       <c r="I42" t="n">
-        <v>1.836760123504761</v>
+        <v>0.2899268041083196</v>
       </c>
       <c r="J42" t="n">
-        <v>1.836760123504761</v>
+        <v>0.2899268041083196</v>
       </c>
       <c r="K42" t="n">
-        <v>23.6482865901238</v>
+        <v>0.2899268041083196</v>
       </c>
       <c r="L42" t="n">
-        <v>46.37819311849522</v>
+        <v>0.2899268041083196</v>
       </c>
       <c r="M42" t="n">
-        <v>69.10809964686663</v>
+        <v>0.2899268041083196</v>
       </c>
       <c r="N42" t="n">
-        <v>69.10809964686663</v>
+        <v>3.732807602894615</v>
       </c>
       <c r="O42" t="n">
-        <v>69.10809964686663</v>
+        <v>7.32065180373507</v>
       </c>
       <c r="P42" t="n">
-        <v>91.83800617523805</v>
+        <v>10.90849600457553</v>
       </c>
       <c r="Q42" t="n">
-        <v>91.83800617523805</v>
+        <v>14.49634020541598</v>
       </c>
       <c r="R42" t="n">
-        <v>91.83800617523805</v>
+        <v>14.49634020541598</v>
       </c>
       <c r="S42" t="n">
-        <v>91.83800617523805</v>
+        <v>14.49634020541598</v>
       </c>
       <c r="T42" t="n">
-        <v>71.41100722595783</v>
+        <v>14.49634020541598</v>
       </c>
       <c r="U42" t="n">
-        <v>71.41100722595783</v>
+        <v>10.83564823435134</v>
       </c>
       <c r="V42" t="n">
-        <v>71.41100722595783</v>
+        <v>7.174956263286695</v>
       </c>
       <c r="W42" t="n">
-        <v>71.41100722595783</v>
+        <v>3.514264292222054</v>
       </c>
       <c r="X42" t="n">
-        <v>48.21959152514014</v>
+        <v>3.514264292222054</v>
       </c>
       <c r="Y42" t="n">
-        <v>48.21959152514014</v>
+        <v>0.2899268041083196</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>45.45517477360268</v>
+        <v>0.2899268041083196</v>
       </c>
       <c r="C43" t="n">
-        <v>45.45517477360268</v>
+        <v>0.2899268041083196</v>
       </c>
       <c r="D43" t="n">
-        <v>45.45517477360268</v>
+        <v>0.2899268041083196</v>
       </c>
       <c r="E43" t="n">
-        <v>45.45517477360268</v>
+        <v>0.2899268041083196</v>
       </c>
       <c r="F43" t="n">
-        <v>25.22606344599346</v>
+        <v>0.2899268041083196</v>
       </c>
       <c r="G43" t="n">
-        <v>25.22606344599346</v>
+        <v>0.2899268041083196</v>
       </c>
       <c r="H43" t="n">
-        <v>25.02817582432245</v>
+        <v>0.2899268041083196</v>
       </c>
       <c r="I43" t="n">
-        <v>1.836760123504761</v>
+        <v>0.2899268041083196</v>
       </c>
       <c r="J43" t="n">
-        <v>1.836760123504761</v>
+        <v>0.2899268041083196</v>
       </c>
       <c r="K43" t="n">
-        <v>1.836760123504761</v>
+        <v>0.2899268041083196</v>
       </c>
       <c r="L43" t="n">
-        <v>23.6482865901238</v>
+        <v>3.877771004948775</v>
       </c>
       <c r="M43" t="n">
-        <v>46.37819311849522</v>
+        <v>7.46561520578923</v>
       </c>
       <c r="N43" t="n">
-        <v>69.10809964686663</v>
+        <v>11.05345940662968</v>
       </c>
       <c r="O43" t="n">
-        <v>91.83800617523805</v>
+        <v>14.49634020541598</v>
       </c>
       <c r="P43" t="n">
-        <v>91.83800617523805</v>
+        <v>14.49634020541598</v>
       </c>
       <c r="Q43" t="n">
-        <v>91.83800617523805</v>
+        <v>14.49634020541598</v>
       </c>
       <c r="R43" t="n">
-        <v>68.64659047442036</v>
+        <v>11.27200271730224</v>
       </c>
       <c r="S43" t="n">
-        <v>68.64659047442036</v>
+        <v>7.611310746237603</v>
       </c>
       <c r="T43" t="n">
-        <v>68.64659047442036</v>
+        <v>3.950618775172961</v>
       </c>
       <c r="U43" t="n">
-        <v>68.64659047442036</v>
+        <v>0.2899268041083196</v>
       </c>
       <c r="V43" t="n">
-        <v>68.64659047442036</v>
+        <v>0.2899268041083196</v>
       </c>
       <c r="W43" t="n">
-        <v>68.64659047442036</v>
+        <v>0.2899268041083196</v>
       </c>
       <c r="X43" t="n">
-        <v>45.45517477360268</v>
+        <v>0.2899268041083196</v>
       </c>
       <c r="Y43" t="n">
-        <v>45.45517477360268</v>
+        <v>0.2899268041083196</v>
       </c>
     </row>
     <row r="44">
@@ -9401,22 +9401,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
-        <v>243.0493525887901</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L20" t="n">
-        <v>258.7259165137967</v>
+        <v>235.7664149699872</v>
       </c>
       <c r="M20" t="n">
-        <v>230.3462332272727</v>
+        <v>233.8238905997841</v>
       </c>
       <c r="N20" t="n">
-        <v>252.3725651404004</v>
+        <v>233.0371486479449</v>
       </c>
       <c r="O20" t="n">
-        <v>252.1300563374635</v>
+        <v>233.7222964730407</v>
       </c>
       <c r="P20" t="n">
-        <v>231.2329957552695</v>
+        <v>234.8570808066235</v>
       </c>
       <c r="Q20" t="n">
         <v>212.3149906599047</v>
@@ -9483,22 +9483,22 @@
         <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>160.586224695651</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
-        <v>165.0935354658278</v>
+        <v>145.7581189733723</v>
       </c>
       <c r="N21" t="n">
-        <v>154.3012136271428</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
-        <v>165.555745988254</v>
+        <v>146.2203294957984</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>137.4520647868416</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>143.6058591373755</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9562,16 +9562,16 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L22" t="n">
-        <v>157.8441778250478</v>
+        <v>138.5087613325923</v>
       </c>
       <c r="M22" t="n">
-        <v>161.8852854914146</v>
+        <v>142.5498689989591</v>
       </c>
       <c r="N22" t="n">
-        <v>150.6450460090427</v>
+        <v>131.3096295165872</v>
       </c>
       <c r="O22" t="n">
-        <v>160.4883833676196</v>
+        <v>141.9341958243542</v>
       </c>
       <c r="P22" t="n">
         <v>135.0065633140411</v>
@@ -9638,19 +9638,19 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
-        <v>243.0493525887901</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L23" t="n">
-        <v>258.7259165137967</v>
+        <v>239.2440723424986</v>
       </c>
       <c r="M23" t="n">
-        <v>253.3057347710823</v>
+        <v>233.9703182786267</v>
       </c>
       <c r="N23" t="n">
-        <v>251.4449085123677</v>
+        <v>233.0371486479449</v>
       </c>
       <c r="O23" t="n">
-        <v>230.0982114216867</v>
+        <v>233.7222964730407</v>
       </c>
       <c r="P23" t="n">
         <v>231.2329957552695</v>
@@ -9717,7 +9717,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>141.465524025713</v>
       </c>
       <c r="L24" t="n">
         <v>138.5543797798742</v>
@@ -9726,16 +9726,16 @@
         <v>142.1340339220183</v>
       </c>
       <c r="N24" t="n">
-        <v>153.3735569991101</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
-        <v>165.555745988254</v>
+        <v>146.0739018169558</v>
       </c>
       <c r="P24" t="n">
-        <v>156.9339089581398</v>
+        <v>137.5984924656842</v>
       </c>
       <c r="Q24" t="n">
-        <v>162.941275629831</v>
+        <v>143.6058591373755</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9799,16 +9799,16 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L25" t="n">
-        <v>157.8441778250478</v>
+        <v>138.5087613325923</v>
       </c>
       <c r="M25" t="n">
-        <v>161.8852854914146</v>
+        <v>142.5498689989591</v>
       </c>
       <c r="N25" t="n">
-        <v>150.6450460090427</v>
+        <v>131.3096295165872</v>
       </c>
       <c r="O25" t="n">
-        <v>160.4883833676196</v>
+        <v>141.9341958243542</v>
       </c>
       <c r="P25" t="n">
         <v>135.0065633140411</v>
@@ -9875,22 +9875,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
-        <v>220.0898510449805</v>
+        <v>223.7139360963345</v>
       </c>
       <c r="L26" t="n">
-        <v>235.7664149699872</v>
+        <v>239.3905000213412</v>
       </c>
       <c r="M26" t="n">
-        <v>252.3780781430495</v>
+        <v>233.9703182786267</v>
       </c>
       <c r="N26" t="n">
-        <v>252.3725651404004</v>
+        <v>232.8907209691023</v>
       </c>
       <c r="O26" t="n">
-        <v>253.0577129654963</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P26" t="n">
-        <v>254.1924972990791</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q26" t="n">
         <v>212.3149906599047</v>
@@ -9957,19 +9957,19 @@
         <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>142.1784648312282</v>
       </c>
       <c r="M27" t="n">
-        <v>165.0935354658278</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N27" t="n">
-        <v>154.3012136271428</v>
+        <v>134.9657971346873</v>
       </c>
       <c r="O27" t="n">
-        <v>165.555745988254</v>
+        <v>146.0739018169558</v>
       </c>
       <c r="P27" t="n">
-        <v>156.0062523301071</v>
+        <v>137.5984924656842</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -10036,16 +10036,16 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L28" t="n">
-        <v>156.9165211970151</v>
+        <v>138.5087613325923</v>
       </c>
       <c r="M28" t="n">
-        <v>161.8852854914146</v>
+        <v>142.5498689989591</v>
       </c>
       <c r="N28" t="n">
-        <v>150.6450460090427</v>
+        <v>131.1632018377446</v>
       </c>
       <c r="O28" t="n">
-        <v>161.4160399956523</v>
+        <v>142.0806235031968</v>
       </c>
       <c r="P28" t="n">
         <v>135.0065633140411</v>
@@ -10112,22 +10112,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
-        <v>242.1216959607574</v>
+        <v>223.567508417492</v>
       </c>
       <c r="L29" t="n">
-        <v>258.7259165137967</v>
+        <v>235.7664149699872</v>
       </c>
       <c r="M29" t="n">
-        <v>253.3057347710823</v>
+        <v>233.9703182786267</v>
       </c>
       <c r="N29" t="n">
-        <v>252.3725651404004</v>
+        <v>233.0371486479449</v>
       </c>
       <c r="O29" t="n">
         <v>230.0982114216867</v>
       </c>
       <c r="P29" t="n">
-        <v>231.2329957552695</v>
+        <v>234.8570808066235</v>
       </c>
       <c r="Q29" t="n">
         <v>212.3149906599047</v>
@@ -10197,19 +10197,19 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
-        <v>142.1340339220183</v>
+        <v>145.6116912945297</v>
       </c>
       <c r="N30" t="n">
-        <v>153.3735569991101</v>
+        <v>134.9657971346873</v>
       </c>
       <c r="O30" t="n">
-        <v>165.555745988254</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
-        <v>156.9339089581398</v>
+        <v>137.5984924656842</v>
       </c>
       <c r="Q30" t="n">
-        <v>162.941275629831</v>
+        <v>143.6058591373755</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10273,16 +10273,16 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L31" t="n">
-        <v>156.9165211970151</v>
+        <v>138.3623336537497</v>
       </c>
       <c r="M31" t="n">
-        <v>161.8852854914146</v>
+        <v>142.5498689989591</v>
       </c>
       <c r="N31" t="n">
-        <v>150.6450460090427</v>
+        <v>131.3096295165872</v>
       </c>
       <c r="O31" t="n">
-        <v>161.4160399956523</v>
+        <v>142.0806235031968</v>
       </c>
       <c r="P31" t="n">
         <v>135.0065633140411</v>
@@ -10349,16 +10349,16 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
-        <v>243.0493525887901</v>
+        <v>223.7139360963345</v>
       </c>
       <c r="L32" t="n">
-        <v>258.7259165137967</v>
+        <v>239.3905000213412</v>
       </c>
       <c r="M32" t="n">
-        <v>253.3057347710823</v>
+        <v>233.9703182786267</v>
       </c>
       <c r="N32" t="n">
-        <v>251.4449085123677</v>
+        <v>232.8907209691023</v>
       </c>
       <c r="O32" t="n">
         <v>230.0982114216867</v>
@@ -10428,7 +10428,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>141.3190963468704</v>
       </c>
       <c r="L33" t="n">
         <v>138.5543797798742</v>
@@ -10437,16 +10437,16 @@
         <v>142.1340339220183</v>
       </c>
       <c r="N33" t="n">
-        <v>153.3735569991101</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O33" t="n">
-        <v>165.555745988254</v>
+        <v>146.2203294957984</v>
       </c>
       <c r="P33" t="n">
-        <v>156.9339089581398</v>
+        <v>137.5984924656842</v>
       </c>
       <c r="Q33" t="n">
-        <v>162.941275629831</v>
+        <v>143.6058591373755</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10510,16 +10510,16 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L34" t="n">
-        <v>156.9165211970151</v>
+        <v>138.5087613325923</v>
       </c>
       <c r="M34" t="n">
-        <v>161.8852854914146</v>
+        <v>142.5498689989591</v>
       </c>
       <c r="N34" t="n">
-        <v>150.6450460090427</v>
+        <v>131.3096295165872</v>
       </c>
       <c r="O34" t="n">
-        <v>161.4160399956523</v>
+        <v>141.9341958243542</v>
       </c>
       <c r="P34" t="n">
         <v>135.0065633140411</v>
@@ -10589,16 +10589,16 @@
         <v>220.0898510449805</v>
       </c>
       <c r="L35" t="n">
-        <v>258.7259165137967</v>
+        <v>239.3905000213412</v>
       </c>
       <c r="M35" t="n">
-        <v>252.3780781430495</v>
+        <v>233.9703182786267</v>
       </c>
       <c r="N35" t="n">
-        <v>252.3725651404004</v>
+        <v>233.0371486479449</v>
       </c>
       <c r="O35" t="n">
-        <v>253.0577129654963</v>
+        <v>233.5758687941981</v>
       </c>
       <c r="P35" t="n">
         <v>231.2329957552695</v>
@@ -10665,22 +10665,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>141.465524025713</v>
       </c>
       <c r="L36" t="n">
-        <v>161.5138813236837</v>
+        <v>142.1784648312282</v>
       </c>
       <c r="M36" t="n">
-        <v>165.0935354658278</v>
+        <v>145.7581189733723</v>
       </c>
       <c r="N36" t="n">
-        <v>154.3012136271428</v>
+        <v>134.8193694558447</v>
       </c>
       <c r="O36" t="n">
         <v>142.5962444444444</v>
       </c>
       <c r="P36" t="n">
-        <v>156.0062523301071</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
@@ -10747,16 +10747,16 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L37" t="n">
-        <v>156.9165211970151</v>
+        <v>138.5087613325923</v>
       </c>
       <c r="M37" t="n">
-        <v>161.8852854914146</v>
+        <v>142.5498689989591</v>
       </c>
       <c r="N37" t="n">
-        <v>150.6450460090427</v>
+        <v>131.3096295165872</v>
       </c>
       <c r="O37" t="n">
-        <v>161.4160399956523</v>
+        <v>141.9341958243542</v>
       </c>
       <c r="P37" t="n">
         <v>135.0065633140411</v>
@@ -10823,22 +10823,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>243.0493525887901</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L38" t="n">
-        <v>258.7259165137967</v>
+        <v>235.7664149699872</v>
       </c>
       <c r="M38" t="n">
-        <v>230.3462332272727</v>
+        <v>233.8238905997841</v>
       </c>
       <c r="N38" t="n">
-        <v>251.4449085123677</v>
+        <v>233.0371486479449</v>
       </c>
       <c r="O38" t="n">
-        <v>253.0577129654963</v>
+        <v>233.7222964730407</v>
       </c>
       <c r="P38" t="n">
-        <v>231.2329957552695</v>
+        <v>234.8570808066235</v>
       </c>
       <c r="Q38" t="n">
         <v>212.3149906599047</v>
@@ -10902,25 +10902,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>141.465524025713</v>
       </c>
       <c r="L39" t="n">
-        <v>161.5138813236837</v>
+        <v>142.1784648312282</v>
       </c>
       <c r="M39" t="n">
-        <v>165.0935354658278</v>
+        <v>145.7581189733723</v>
       </c>
       <c r="N39" t="n">
-        <v>131.3417120833333</v>
+        <v>134.8193694558447</v>
       </c>
       <c r="O39" t="n">
-        <v>164.6280893602213</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>162.941275629831</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -10984,16 +10984,16 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L40" t="n">
-        <v>156.9165211970151</v>
+        <v>138.5087613325923</v>
       </c>
       <c r="M40" t="n">
-        <v>161.8852854914146</v>
+        <v>142.5498689989591</v>
       </c>
       <c r="N40" t="n">
-        <v>150.6450460090427</v>
+        <v>131.3096295165872</v>
       </c>
       <c r="O40" t="n">
-        <v>161.4160399956523</v>
+        <v>141.9341958243542</v>
       </c>
       <c r="P40" t="n">
         <v>135.0065633140411</v>
@@ -11063,19 +11063,19 @@
         <v>220.0898510449805</v>
       </c>
       <c r="L41" t="n">
-        <v>258.7259165137967</v>
+        <v>235.7664149699872</v>
       </c>
       <c r="M41" t="n">
-        <v>253.3057347710823</v>
+        <v>233.8238905997841</v>
       </c>
       <c r="N41" t="n">
-        <v>251.4449085123677</v>
+        <v>233.0371486479449</v>
       </c>
       <c r="O41" t="n">
-        <v>253.0577129654963</v>
+        <v>233.7222964730407</v>
       </c>
       <c r="P41" t="n">
-        <v>231.2329957552695</v>
+        <v>234.8570808066235</v>
       </c>
       <c r="Q41" t="n">
         <v>212.3149906599047</v>
@@ -11139,25 +11139,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>159.8732838901358</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>161.5138813236837</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
-        <v>165.0935354658278</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N42" t="n">
-        <v>131.3417120833333</v>
+        <v>134.8193694558447</v>
       </c>
       <c r="O42" t="n">
-        <v>142.5962444444444</v>
+        <v>146.2203294957984</v>
       </c>
       <c r="P42" t="n">
-        <v>156.9339089581398</v>
+        <v>137.5984924656842</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>143.6058591373755</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11221,16 +11221,16 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L43" t="n">
-        <v>156.9165211970151</v>
+        <v>138.5087613325923</v>
       </c>
       <c r="M43" t="n">
-        <v>161.8852854914146</v>
+        <v>142.5498689989591</v>
       </c>
       <c r="N43" t="n">
-        <v>150.6450460090427</v>
+        <v>131.3096295165872</v>
       </c>
       <c r="O43" t="n">
-        <v>161.4160399956523</v>
+        <v>141.9341958243542</v>
       </c>
       <c r="P43" t="n">
         <v>135.0065633140411</v>
@@ -23255,28 +23255,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>370.7845523088681</v>
+        <v>360.4643498375978</v>
       </c>
       <c r="C11" t="n">
-        <v>353.323602416395</v>
+        <v>343.0033999451247</v>
       </c>
       <c r="D11" t="n">
-        <v>342.7337522660704</v>
+        <v>332.4135497948001</v>
       </c>
       <c r="E11" t="n">
-        <v>369.9810807176493</v>
+        <v>359.660878246379</v>
       </c>
       <c r="F11" t="n">
-        <v>394.9267563870989</v>
+        <v>384.6065539158286</v>
       </c>
       <c r="G11" t="n">
-        <v>403.3534481605225</v>
+        <v>393.0332456892522</v>
       </c>
       <c r="H11" t="n">
-        <v>327.5255127611546</v>
+        <v>317.2053102898843</v>
       </c>
       <c r="I11" t="n">
-        <v>198.5266002157934</v>
+        <v>188.2063977445231</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23303,28 +23303,28 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>137.9198285865372</v>
+        <v>127.5996261152668</v>
       </c>
       <c r="S11" t="n">
-        <v>197.0707802316328</v>
+        <v>186.7505777603625</v>
       </c>
       <c r="T11" t="n">
-        <v>211.1465602095188</v>
+        <v>200.8263577382485</v>
       </c>
       <c r="U11" t="n">
-        <v>239.396363553224</v>
+        <v>229.0761610819536</v>
       </c>
       <c r="V11" t="n">
-        <v>315.8029691155224</v>
+        <v>305.482766644252</v>
       </c>
       <c r="W11" t="n">
-        <v>337.2916793628005</v>
+        <v>326.9714768915302</v>
       </c>
       <c r="X11" t="n">
-        <v>357.7818113238565</v>
+        <v>347.4616088525862</v>
       </c>
       <c r="Y11" t="n">
-        <v>374.2886493014411</v>
+        <v>363.9684468301707</v>
       </c>
     </row>
     <row r="12">
@@ -23334,28 +23334,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>154.5838942952548</v>
+        <v>144.2636918239845</v>
       </c>
       <c r="C12" t="n">
-        <v>160.7592096337032</v>
+        <v>150.4390071624329</v>
       </c>
       <c r="D12" t="n">
-        <v>135.4957762100262</v>
+        <v>125.1755737387559</v>
       </c>
       <c r="E12" t="n">
-        <v>145.6957911007884</v>
+        <v>135.3755886295181</v>
       </c>
       <c r="F12" t="n">
-        <v>133.1199230387714</v>
+        <v>122.799720567501</v>
       </c>
       <c r="G12" t="n">
-        <v>125.3942278085981</v>
+        <v>115.0740253373278</v>
       </c>
       <c r="H12" t="n">
-        <v>100.2861548818839</v>
+        <v>89.96595241061361</v>
       </c>
       <c r="I12" t="n">
-        <v>77.44734349680256</v>
+        <v>67.12714102553223</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23382,28 +23382,28 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>88.20854479803062</v>
+        <v>77.88834232676028</v>
       </c>
       <c r="S12" t="n">
-        <v>159.7338817492253</v>
+        <v>149.413679277955</v>
       </c>
       <c r="T12" t="n">
-        <v>188.2154393402091</v>
+        <v>177.8952368689388</v>
       </c>
       <c r="U12" t="n">
-        <v>213.9920927263623</v>
+        <v>203.671890255092</v>
       </c>
       <c r="V12" t="n">
-        <v>220.8512977948128</v>
+        <v>210.5310953235424</v>
       </c>
       <c r="W12" t="n">
-        <v>239.7456938063071</v>
+        <v>229.4254913350368</v>
       </c>
       <c r="X12" t="n">
-        <v>193.823695848865</v>
+        <v>183.5034933775946</v>
       </c>
       <c r="Y12" t="n">
-        <v>193.7334064226918</v>
+        <v>183.4132039514215</v>
       </c>
     </row>
     <row r="13">
@@ -23413,34 +23413,34 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>167.8826908273248</v>
+        <v>157.5624883560544</v>
       </c>
       <c r="C13" t="n">
-        <v>155.2975317440153</v>
+        <v>144.977329272745</v>
       </c>
       <c r="D13" t="n">
-        <v>136.6661836635998</v>
+        <v>126.3459811923295</v>
       </c>
       <c r="E13" t="n">
-        <v>134.4846732919567</v>
+        <v>124.1644708206863</v>
       </c>
       <c r="F13" t="n">
-        <v>133.4717586683187</v>
+        <v>123.1515561970484</v>
       </c>
       <c r="G13" t="n">
-        <v>156.0416900038462</v>
+        <v>145.7214875325759</v>
       </c>
       <c r="H13" t="n">
-        <v>150.2778831528271</v>
+        <v>139.9576806815567</v>
       </c>
       <c r="I13" t="n">
-        <v>143.5011855726458</v>
+        <v>133.1809831013754</v>
       </c>
       <c r="J13" t="n">
-        <v>81.40989076206026</v>
+        <v>71.08968829078992</v>
       </c>
       <c r="K13" t="n">
-        <v>10.32020247127033</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -23458,31 +23458,31 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>74.21275389708187</v>
+        <v>63.89255142581153</v>
       </c>
       <c r="R13" t="n">
-        <v>165.344102022557</v>
+        <v>155.0238995512866</v>
       </c>
       <c r="S13" t="n">
-        <v>212.0673086823597</v>
+        <v>201.7471062110894</v>
       </c>
       <c r="T13" t="n">
-        <v>215.996300073669</v>
+        <v>205.6760976023986</v>
       </c>
       <c r="U13" t="n">
-        <v>274.3697400018784</v>
+        <v>264.0495375306081</v>
       </c>
       <c r="V13" t="n">
-        <v>240.1883539692155</v>
+        <v>229.8681514979451</v>
       </c>
       <c r="W13" t="n">
-        <v>274.5737089819785</v>
+        <v>264.2535065107081</v>
       </c>
       <c r="X13" t="n">
-        <v>213.7603660344246</v>
+        <v>203.4401635631543</v>
       </c>
       <c r="Y13" t="n">
-        <v>206.6353639974823</v>
+        <v>196.3151615262119</v>
       </c>
     </row>
     <row r="14">
@@ -23492,28 +23492,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>293.3372088120655</v>
+        <v>289.3746615468078</v>
       </c>
       <c r="C14" t="n">
-        <v>275.8762589195925</v>
+        <v>271.9137116543347</v>
       </c>
       <c r="D14" t="n">
-        <v>265.2864087692679</v>
+        <v>261.3238615040102</v>
       </c>
       <c r="E14" t="n">
-        <v>292.5337372208467</v>
+        <v>288.571189955589</v>
       </c>
       <c r="F14" t="n">
-        <v>317.4794128902964</v>
+        <v>313.5168656250387</v>
       </c>
       <c r="G14" t="n">
-        <v>325.90610466372</v>
+        <v>321.9435573984623</v>
       </c>
       <c r="H14" t="n">
-        <v>250.0781692643521</v>
+        <v>246.1156219990944</v>
       </c>
       <c r="I14" t="n">
-        <v>121.0792567189908</v>
+        <v>117.1167094537331</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23540,28 +23540,28 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>60.4724850897346</v>
+        <v>56.50993782447691</v>
       </c>
       <c r="S14" t="n">
-        <v>119.6234367348303</v>
+        <v>115.6608894695726</v>
       </c>
       <c r="T14" t="n">
-        <v>133.6992167127163</v>
+        <v>129.7366694474586</v>
       </c>
       <c r="U14" t="n">
-        <v>161.9490200564214</v>
+        <v>157.9864727911637</v>
       </c>
       <c r="V14" t="n">
-        <v>238.3556256187198</v>
+        <v>234.3930783534621</v>
       </c>
       <c r="W14" t="n">
-        <v>259.8443358659979</v>
+        <v>255.8817886007402</v>
       </c>
       <c r="X14" t="n">
-        <v>280.334467827054</v>
+        <v>276.3719205617963</v>
       </c>
       <c r="Y14" t="n">
-        <v>296.8413058046385</v>
+        <v>292.8787585393808</v>
       </c>
     </row>
     <row r="15">
@@ -23571,25 +23571,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>77.13655079845226</v>
+        <v>73.17400353319456</v>
       </c>
       <c r="C15" t="n">
-        <v>83.31186613690066</v>
+        <v>79.34931887164296</v>
       </c>
       <c r="D15" t="n">
-        <v>58.04843271322368</v>
+        <v>54.08588544796598</v>
       </c>
       <c r="E15" t="n">
-        <v>68.24844760398587</v>
+        <v>64.28590033872817</v>
       </c>
       <c r="F15" t="n">
-        <v>55.6725795419688</v>
+        <v>51.7100322767111</v>
       </c>
       <c r="G15" t="n">
-        <v>47.94688431179556</v>
+        <v>43.98433704653786</v>
       </c>
       <c r="H15" t="n">
-        <v>22.83881138508139</v>
+        <v>18.87626411982369</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -23619,28 +23619,28 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>10.76120130122806</v>
+        <v>6.798654035970358</v>
       </c>
       <c r="S15" t="n">
-        <v>82.28653825242274</v>
+        <v>78.32399098716505</v>
       </c>
       <c r="T15" t="n">
-        <v>110.7680958434065</v>
+        <v>106.8055485781488</v>
       </c>
       <c r="U15" t="n">
-        <v>136.5447492295597</v>
+        <v>132.582201964302</v>
       </c>
       <c r="V15" t="n">
-        <v>143.4039542980102</v>
+        <v>139.4414070327525</v>
       </c>
       <c r="W15" t="n">
-        <v>162.2983503095045</v>
+        <v>158.3358030442468</v>
       </c>
       <c r="X15" t="n">
-        <v>116.3763523520624</v>
+        <v>112.4138050868047</v>
       </c>
       <c r="Y15" t="n">
-        <v>116.2860629258893</v>
+        <v>112.3235156606316</v>
       </c>
     </row>
     <row r="16">
@@ -23650,31 +23650,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>90.43534733052222</v>
+        <v>86.47280006526452</v>
       </c>
       <c r="C16" t="n">
-        <v>77.85018824721276</v>
+        <v>73.88764098195506</v>
       </c>
       <c r="D16" t="n">
-        <v>59.21884016679728</v>
+        <v>55.25629290153958</v>
       </c>
       <c r="E16" t="n">
-        <v>57.03732979515409</v>
+        <v>53.0747825298964</v>
       </c>
       <c r="F16" t="n">
-        <v>56.02441517151617</v>
+        <v>52.06186790625847</v>
       </c>
       <c r="G16" t="n">
-        <v>78.59434650704368</v>
+        <v>74.63179924178598</v>
       </c>
       <c r="H16" t="n">
-        <v>72.8305396560245</v>
+        <v>68.8679923907668</v>
       </c>
       <c r="I16" t="n">
-        <v>66.05384207584321</v>
+        <v>62.09129481058551</v>
       </c>
       <c r="J16" t="n">
-        <v>3.962547265257697</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23698,28 +23698,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>87.89675852575441</v>
+        <v>83.93421126049671</v>
       </c>
       <c r="S16" t="n">
-        <v>134.6199651855572</v>
+        <v>130.6574179202995</v>
       </c>
       <c r="T16" t="n">
-        <v>138.5489565768664</v>
+        <v>134.5864093116087</v>
       </c>
       <c r="U16" t="n">
-        <v>196.9223965050758</v>
+        <v>192.9598492398181</v>
       </c>
       <c r="V16" t="n">
-        <v>162.7410104724129</v>
+        <v>158.7784632071552</v>
       </c>
       <c r="W16" t="n">
-        <v>197.1263654851759</v>
+        <v>193.1638182199182</v>
       </c>
       <c r="X16" t="n">
-        <v>136.3130225376221</v>
+        <v>132.3504752723644</v>
       </c>
       <c r="Y16" t="n">
-        <v>129.1880205006797</v>
+        <v>125.225473235422</v>
       </c>
     </row>
     <row r="17">
@@ -23729,28 +23729,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>293.3372088120655</v>
+        <v>289.3746615468078</v>
       </c>
       <c r="C17" t="n">
-        <v>275.8762589195925</v>
+        <v>271.9137116543347</v>
       </c>
       <c r="D17" t="n">
-        <v>265.2864087692679</v>
+        <v>261.3238615040102</v>
       </c>
       <c r="E17" t="n">
-        <v>292.5337372208467</v>
+        <v>288.571189955589</v>
       </c>
       <c r="F17" t="n">
-        <v>317.4794128902964</v>
+        <v>313.5168656250387</v>
       </c>
       <c r="G17" t="n">
-        <v>325.90610466372</v>
+        <v>321.9435573984623</v>
       </c>
       <c r="H17" t="n">
-        <v>250.0781692643521</v>
+        <v>246.1156219990944</v>
       </c>
       <c r="I17" t="n">
-        <v>121.0792567189908</v>
+        <v>117.1167094537331</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23777,28 +23777,28 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>60.4724850897346</v>
+        <v>56.50993782447691</v>
       </c>
       <c r="S17" t="n">
-        <v>119.6234367348303</v>
+        <v>115.6608894695726</v>
       </c>
       <c r="T17" t="n">
-        <v>133.6992167127163</v>
+        <v>129.7366694474586</v>
       </c>
       <c r="U17" t="n">
-        <v>161.9490200564214</v>
+        <v>157.9864727911637</v>
       </c>
       <c r="V17" t="n">
-        <v>238.3556256187198</v>
+        <v>234.3930783534621</v>
       </c>
       <c r="W17" t="n">
-        <v>259.8443358659979</v>
+        <v>255.8817886007402</v>
       </c>
       <c r="X17" t="n">
-        <v>280.334467827054</v>
+        <v>276.3719205617963</v>
       </c>
       <c r="Y17" t="n">
-        <v>296.8413058046385</v>
+        <v>292.8787585393808</v>
       </c>
     </row>
     <row r="18">
@@ -23808,25 +23808,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>77.13655079845226</v>
+        <v>73.17400353319456</v>
       </c>
       <c r="C18" t="n">
-        <v>83.31186613690066</v>
+        <v>79.34931887164296</v>
       </c>
       <c r="D18" t="n">
-        <v>58.04843271322368</v>
+        <v>54.08588544796598</v>
       </c>
       <c r="E18" t="n">
-        <v>68.24844760398587</v>
+        <v>64.28590033872817</v>
       </c>
       <c r="F18" t="n">
-        <v>55.6725795419688</v>
+        <v>51.7100322767111</v>
       </c>
       <c r="G18" t="n">
-        <v>47.94688431179556</v>
+        <v>43.98433704653786</v>
       </c>
       <c r="H18" t="n">
-        <v>22.83881138508139</v>
+        <v>18.87626411982369</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -23856,28 +23856,28 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>10.76120130122806</v>
+        <v>6.798654035970358</v>
       </c>
       <c r="S18" t="n">
-        <v>82.28653825242274</v>
+        <v>78.32399098716505</v>
       </c>
       <c r="T18" t="n">
-        <v>110.7680958434065</v>
+        <v>106.8055485781488</v>
       </c>
       <c r="U18" t="n">
-        <v>136.5447492295597</v>
+        <v>132.582201964302</v>
       </c>
       <c r="V18" t="n">
-        <v>143.4039542980102</v>
+        <v>139.4414070327525</v>
       </c>
       <c r="W18" t="n">
-        <v>162.2983503095045</v>
+        <v>158.3358030442468</v>
       </c>
       <c r="X18" t="n">
-        <v>116.3763523520624</v>
+        <v>112.4138050868047</v>
       </c>
       <c r="Y18" t="n">
-        <v>116.2860629258893</v>
+        <v>112.3235156606316</v>
       </c>
     </row>
     <row r="19">
@@ -23887,31 +23887,31 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>90.43534733052222</v>
+        <v>86.47280006526452</v>
       </c>
       <c r="C19" t="n">
-        <v>77.85018824721276</v>
+        <v>73.88764098195506</v>
       </c>
       <c r="D19" t="n">
-        <v>59.21884016679728</v>
+        <v>55.25629290153958</v>
       </c>
       <c r="E19" t="n">
-        <v>57.03732979515409</v>
+        <v>53.0747825298964</v>
       </c>
       <c r="F19" t="n">
-        <v>56.02441517151617</v>
+        <v>52.06186790625847</v>
       </c>
       <c r="G19" t="n">
-        <v>78.59434650704368</v>
+        <v>74.63179924178598</v>
       </c>
       <c r="H19" t="n">
-        <v>72.8305396560245</v>
+        <v>68.8679923907668</v>
       </c>
       <c r="I19" t="n">
-        <v>66.05384207584321</v>
+        <v>62.09129481058551</v>
       </c>
       <c r="J19" t="n">
-        <v>3.962547265257697</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23935,28 +23935,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>87.89675852575441</v>
+        <v>83.93421126049671</v>
       </c>
       <c r="S19" t="n">
-        <v>134.6199651855572</v>
+        <v>130.6574179202995</v>
       </c>
       <c r="T19" t="n">
-        <v>138.5489565768664</v>
+        <v>134.5864093116087</v>
       </c>
       <c r="U19" t="n">
-        <v>196.9223965050758</v>
+        <v>192.9598492398181</v>
       </c>
       <c r="V19" t="n">
-        <v>162.7410104724129</v>
+        <v>158.7784632071552</v>
       </c>
       <c r="W19" t="n">
-        <v>197.1263654851759</v>
+        <v>193.1638182199182</v>
       </c>
       <c r="X19" t="n">
-        <v>136.3130225376221</v>
+        <v>132.3504752723644</v>
       </c>
       <c r="Y19" t="n">
-        <v>129.1880205006797</v>
+        <v>125.225473235422</v>
       </c>
     </row>
     <row r="20">
@@ -23966,28 +23966,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>270.377707268256</v>
+        <v>289.3746615468078</v>
       </c>
       <c r="C20" t="n">
-        <v>252.916757375783</v>
+        <v>271.9137116543347</v>
       </c>
       <c r="D20" t="n">
-        <v>245.0636798094805</v>
+        <v>261.3238615040102</v>
       </c>
       <c r="E20" t="n">
-        <v>292.5337372208467</v>
+        <v>284.9471049042351</v>
       </c>
       <c r="F20" t="n">
-        <v>317.4794128902964</v>
+        <v>309.8927805736847</v>
       </c>
       <c r="G20" t="n">
-        <v>325.90610466372</v>
+        <v>321.9435573984623</v>
       </c>
       <c r="H20" t="n">
-        <v>250.0781692643521</v>
+        <v>246.1156219990944</v>
       </c>
       <c r="I20" t="n">
-        <v>121.0792567189908</v>
+        <v>117.1167094537331</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24014,28 +24014,28 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>60.4724850897346</v>
+        <v>53.31784371124431</v>
       </c>
       <c r="S20" t="n">
-        <v>96.66393519102076</v>
+        <v>115.6608894695726</v>
       </c>
       <c r="T20" t="n">
-        <v>133.6992167127163</v>
+        <v>129.7366694474586</v>
       </c>
       <c r="U20" t="n">
-        <v>161.9490200564214</v>
+        <v>157.9864727911637</v>
       </c>
       <c r="V20" t="n">
-        <v>238.3556256187198</v>
+        <v>230.7689933021081</v>
       </c>
       <c r="W20" t="n">
-        <v>259.8443358659979</v>
+        <v>255.8817886007402</v>
       </c>
       <c r="X20" t="n">
-        <v>280.334467827054</v>
+        <v>276.3719205617963</v>
       </c>
       <c r="Y20" t="n">
-        <v>296.8413058046385</v>
+        <v>292.8787585393808</v>
       </c>
     </row>
     <row r="21">
@@ -24045,25 +24045,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>77.13655079845226</v>
+        <v>73.17400353319456</v>
       </c>
       <c r="C21" t="n">
-        <v>83.31186613690066</v>
+        <v>79.34931887164296</v>
       </c>
       <c r="D21" t="n">
-        <v>58.04843271322368</v>
+        <v>54.08588544796598</v>
       </c>
       <c r="E21" t="n">
-        <v>68.24844760398587</v>
+        <v>64.28590033872817</v>
       </c>
       <c r="F21" t="n">
-        <v>55.6725795419688</v>
+        <v>51.7100322767111</v>
       </c>
       <c r="G21" t="n">
-        <v>27.72415535200813</v>
+        <v>43.98433704653786</v>
       </c>
       <c r="H21" t="n">
-        <v>22.83881138508139</v>
+        <v>15.25217906846969</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -24093,28 +24093,28 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>10.76120130122806</v>
+        <v>6.798654035970358</v>
       </c>
       <c r="S21" t="n">
-        <v>59.32703670861324</v>
+        <v>74.69990593581105</v>
       </c>
       <c r="T21" t="n">
-        <v>87.80859429959702</v>
+        <v>103.6134544649162</v>
       </c>
       <c r="U21" t="n">
-        <v>136.5447492295597</v>
+        <v>132.582201964302</v>
       </c>
       <c r="V21" t="n">
-        <v>143.4039542980102</v>
+        <v>135.8173219813985</v>
       </c>
       <c r="W21" t="n">
-        <v>162.2983503095045</v>
+        <v>158.3358030442468</v>
       </c>
       <c r="X21" t="n">
-        <v>93.41685080825289</v>
+        <v>112.4138050868047</v>
       </c>
       <c r="Y21" t="n">
-        <v>116.2860629258893</v>
+        <v>112.3235156606316</v>
       </c>
     </row>
     <row r="22">
@@ -24124,31 +24124,31 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>90.43534733052222</v>
+        <v>86.47280006526452</v>
       </c>
       <c r="C22" t="n">
-        <v>77.85018824721276</v>
+        <v>70.26355593060106</v>
       </c>
       <c r="D22" t="n">
-        <v>59.21884016679728</v>
+        <v>55.25629290153958</v>
       </c>
       <c r="E22" t="n">
-        <v>57.03732979515409</v>
+        <v>53.0747825298964</v>
       </c>
       <c r="F22" t="n">
-        <v>56.02441517151617</v>
+        <v>52.06186790625847</v>
       </c>
       <c r="G22" t="n">
-        <v>78.59434650704368</v>
+        <v>71.00771419043198</v>
       </c>
       <c r="H22" t="n">
-        <v>72.8305396560245</v>
+        <v>68.8679923907668</v>
       </c>
       <c r="I22" t="n">
-        <v>66.05384207584321</v>
+        <v>58.46720975923152</v>
       </c>
       <c r="J22" t="n">
-        <v>3.962547265257697</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24172,28 +24172,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>87.89675852575441</v>
+        <v>83.93421126049671</v>
       </c>
       <c r="S22" t="n">
-        <v>134.6199651855572</v>
+        <v>130.6574179202995</v>
       </c>
       <c r="T22" t="n">
-        <v>138.5489565768664</v>
+        <v>134.5864093116087</v>
       </c>
       <c r="U22" t="n">
-        <v>196.9223965050758</v>
+        <v>192.9598492398181</v>
       </c>
       <c r="V22" t="n">
-        <v>142.5182815126255</v>
+        <v>158.7784632071552</v>
       </c>
       <c r="W22" t="n">
-        <v>174.1668639413664</v>
+        <v>193.1638182199182</v>
       </c>
       <c r="X22" t="n">
-        <v>113.3535209938126</v>
+        <v>132.3504752723644</v>
       </c>
       <c r="Y22" t="n">
-        <v>106.2285189568702</v>
+        <v>122.0333791221894</v>
       </c>
     </row>
     <row r="23">
@@ -24203,28 +24203,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>293.3372088120655</v>
+        <v>289.3746615468078</v>
       </c>
       <c r="C23" t="n">
-        <v>275.8762589195925</v>
+        <v>271.9137116543347</v>
       </c>
       <c r="D23" t="n">
-        <v>265.2864087692679</v>
+        <v>261.3238615040102</v>
       </c>
       <c r="E23" t="n">
-        <v>292.5337372208467</v>
+        <v>288.571189955589</v>
       </c>
       <c r="F23" t="n">
-        <v>317.4794128902964</v>
+        <v>313.5168656250387</v>
       </c>
       <c r="G23" t="n">
-        <v>325.90610466372</v>
+        <v>318.3194723471083</v>
       </c>
       <c r="H23" t="n">
-        <v>250.0781692643521</v>
+        <v>246.1156219990944</v>
       </c>
       <c r="I23" t="n">
-        <v>121.0792567189908</v>
+        <v>113.4926244023791</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24251,28 +24251,28 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>40.24975612994719</v>
+        <v>52.88585277312291</v>
       </c>
       <c r="S23" t="n">
-        <v>119.6234367348303</v>
+        <v>115.6608894695726</v>
       </c>
       <c r="T23" t="n">
-        <v>110.7397151689068</v>
+        <v>129.7366694474586</v>
       </c>
       <c r="U23" t="n">
-        <v>138.9895185126119</v>
+        <v>157.9864727911637</v>
       </c>
       <c r="V23" t="n">
-        <v>238.3556256187198</v>
+        <v>234.3930783534621</v>
       </c>
       <c r="W23" t="n">
-        <v>259.8443358659979</v>
+        <v>252.6896944875076</v>
       </c>
       <c r="X23" t="n">
-        <v>257.3749662832445</v>
+        <v>276.3719205617963</v>
       </c>
       <c r="Y23" t="n">
-        <v>296.8413058046385</v>
+        <v>292.8787585393808</v>
       </c>
     </row>
     <row r="24">
@@ -24282,25 +24282,25 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>77.13655079845226</v>
+        <v>73.17400353319456</v>
       </c>
       <c r="C24" t="n">
-        <v>83.31186613690066</v>
+        <v>79.34931887164296</v>
       </c>
       <c r="D24" t="n">
-        <v>58.04843271322368</v>
+        <v>54.08588544796598</v>
       </c>
       <c r="E24" t="n">
-        <v>68.24844760398587</v>
+        <v>60.66181528737417</v>
       </c>
       <c r="F24" t="n">
-        <v>32.71307799815929</v>
+        <v>51.7100322767111</v>
       </c>
       <c r="G24" t="n">
-        <v>47.94688431179556</v>
+        <v>43.98433704653786</v>
       </c>
       <c r="H24" t="n">
-        <v>2.616082425293961</v>
+        <v>18.87626411982369</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -24330,28 +24330,28 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>10.76120130122806</v>
+        <v>6.798654035970358</v>
       </c>
       <c r="S24" t="n">
-        <v>82.28653825242274</v>
+        <v>78.32399098716505</v>
       </c>
       <c r="T24" t="n">
-        <v>110.7680958434065</v>
+        <v>106.8055485781488</v>
       </c>
       <c r="U24" t="n">
-        <v>136.5447492295597</v>
+        <v>132.582201964302</v>
       </c>
       <c r="V24" t="n">
-        <v>120.4444527542007</v>
+        <v>135.8173219813985</v>
       </c>
       <c r="W24" t="n">
-        <v>139.338848765695</v>
+        <v>154.7117179928928</v>
       </c>
       <c r="X24" t="n">
-        <v>116.3763523520624</v>
+        <v>109.2217109735721</v>
       </c>
       <c r="Y24" t="n">
-        <v>116.2860629258893</v>
+        <v>112.3235156606316</v>
       </c>
     </row>
     <row r="25">
@@ -24361,31 +24361,31 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>90.43534733052222</v>
+        <v>86.47280006526452</v>
       </c>
       <c r="C25" t="n">
-        <v>77.85018824721276</v>
+        <v>73.88764098195506</v>
       </c>
       <c r="D25" t="n">
-        <v>59.21884016679728</v>
+        <v>55.25629290153958</v>
       </c>
       <c r="E25" t="n">
-        <v>57.03732979515409</v>
+        <v>53.0747825298964</v>
       </c>
       <c r="F25" t="n">
-        <v>56.02441517151617</v>
+        <v>48.86977379302587</v>
       </c>
       <c r="G25" t="n">
-        <v>78.59434650704368</v>
+        <v>74.63179924178598</v>
       </c>
       <c r="H25" t="n">
-        <v>72.8305396560245</v>
+        <v>68.8679923907668</v>
       </c>
       <c r="I25" t="n">
-        <v>66.05384207584321</v>
+        <v>62.09129481058551</v>
       </c>
       <c r="J25" t="n">
-        <v>3.962547265257697</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -24409,28 +24409,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>87.89675852575441</v>
+        <v>83.93421126049671</v>
       </c>
       <c r="S25" t="n">
-        <v>134.6199651855572</v>
+        <v>130.6574179202995</v>
       </c>
       <c r="T25" t="n">
-        <v>115.5894550330569</v>
+        <v>130.9623242602547</v>
       </c>
       <c r="U25" t="n">
-        <v>173.9628949612663</v>
+        <v>189.3357641884641</v>
       </c>
       <c r="V25" t="n">
-        <v>139.7815089286034</v>
+        <v>158.7784632071552</v>
       </c>
       <c r="W25" t="n">
-        <v>197.1263654851759</v>
+        <v>193.1638182199182</v>
       </c>
       <c r="X25" t="n">
-        <v>136.3130225376221</v>
+        <v>128.7263902210104</v>
       </c>
       <c r="Y25" t="n">
-        <v>108.9652915408923</v>
+        <v>125.225473235422</v>
       </c>
     </row>
     <row r="26">
@@ -24440,10 +24440,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>293.3372088120655</v>
+        <v>290.1451146988329</v>
       </c>
       <c r="C26" t="n">
-        <v>275.8762589195925</v>
+        <v>272.2521738682385</v>
       </c>
       <c r="D26" t="n">
         <v>265.2864087692679</v>
@@ -24452,13 +24452,13 @@
         <v>292.5337372208467</v>
       </c>
       <c r="F26" t="n">
-        <v>297.2566839305089</v>
+        <v>317.4794128902964</v>
       </c>
       <c r="G26" t="n">
         <v>325.90610466372</v>
       </c>
       <c r="H26" t="n">
-        <v>250.0781692643521</v>
+        <v>246.4540842129981</v>
       </c>
       <c r="I26" t="n">
         <v>121.0792567189908</v>
@@ -24491,13 +24491,13 @@
         <v>60.4724850897346</v>
       </c>
       <c r="S26" t="n">
-        <v>96.66393519102076</v>
+        <v>119.6234367348303</v>
       </c>
       <c r="T26" t="n">
-        <v>110.7397151689068</v>
+        <v>133.6992167127163</v>
       </c>
       <c r="U26" t="n">
-        <v>161.9490200564214</v>
+        <v>158.3249350050674</v>
       </c>
       <c r="V26" t="n">
         <v>238.3556256187198</v>
@@ -24509,7 +24509,7 @@
         <v>280.334467827054</v>
       </c>
       <c r="Y26" t="n">
-        <v>273.881804260829</v>
+        <v>296.8413058046385</v>
       </c>
     </row>
     <row r="27">
@@ -24519,25 +24519,25 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>77.13655079845226</v>
+        <v>73.51246574709826</v>
       </c>
       <c r="C27" t="n">
-        <v>83.31186613690066</v>
+        <v>80.11977202366806</v>
       </c>
       <c r="D27" t="n">
         <v>58.04843271322368</v>
       </c>
       <c r="E27" t="n">
-        <v>45.28894606017636</v>
+        <v>68.24844760398587</v>
       </c>
       <c r="F27" t="n">
         <v>55.6725795419688</v>
       </c>
       <c r="G27" t="n">
-        <v>27.60346519328001</v>
+        <v>47.94688431179556</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>22.83881138508139</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -24570,13 +24570,13 @@
         <v>10.76120130122806</v>
       </c>
       <c r="S27" t="n">
-        <v>59.32703670861324</v>
+        <v>82.28653825242274</v>
       </c>
       <c r="T27" t="n">
-        <v>110.7680958434065</v>
+        <v>107.1440107920525</v>
       </c>
       <c r="U27" t="n">
-        <v>136.5447492295597</v>
+        <v>132.9206641782057</v>
       </c>
       <c r="V27" t="n">
         <v>143.4039542980102</v>
@@ -24601,7 +24601,7 @@
         <v>90.43534733052222</v>
       </c>
       <c r="C28" t="n">
-        <v>77.85018824721276</v>
+        <v>74.22610319585876</v>
       </c>
       <c r="D28" t="n">
         <v>59.21884016679728</v>
@@ -24610,13 +24610,13 @@
         <v>57.03732979515409</v>
       </c>
       <c r="F28" t="n">
-        <v>35.80168621172874</v>
+        <v>56.02441517151617</v>
       </c>
       <c r="G28" t="n">
-        <v>78.59434650704368</v>
+        <v>75.40225239381108</v>
       </c>
       <c r="H28" t="n">
-        <v>72.8305396560245</v>
+        <v>69.2064546046705</v>
       </c>
       <c r="I28" t="n">
         <v>66.05384207584321</v>
@@ -24646,10 +24646,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>64.9372569819449</v>
+        <v>87.89675852575441</v>
       </c>
       <c r="S28" t="n">
-        <v>111.6604636417477</v>
+        <v>134.6199651855572</v>
       </c>
       <c r="T28" t="n">
         <v>138.5489565768664</v>
@@ -24658,10 +24658,10 @@
         <v>196.9223965050758</v>
       </c>
       <c r="V28" t="n">
-        <v>139.7815089286034</v>
+        <v>162.7410104724129</v>
       </c>
       <c r="W28" t="n">
-        <v>197.1263654851759</v>
+        <v>193.5022804338219</v>
       </c>
       <c r="X28" t="n">
         <v>136.3130225376221</v>
@@ -24677,28 +24677,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>225.1675955404825</v>
+        <v>245.3903245002699</v>
       </c>
       <c r="C29" t="n">
-        <v>227.9293746077969</v>
+        <v>224.3052895564429</v>
       </c>
       <c r="D29" t="n">
         <v>217.3395244574723</v>
       </c>
       <c r="E29" t="n">
-        <v>221.6273513652416</v>
+        <v>244.5868529090511</v>
       </c>
       <c r="F29" t="n">
-        <v>246.5730270346913</v>
+        <v>269.5325285785008</v>
       </c>
       <c r="G29" t="n">
-        <v>277.9592203519244</v>
+        <v>274.3351353005704</v>
       </c>
       <c r="H29" t="n">
         <v>202.1312849525565</v>
       </c>
       <c r="I29" t="n">
-        <v>73.13237240719528</v>
+        <v>69.50828735584128</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24731,7 +24731,7 @@
         <v>71.67655242303471</v>
       </c>
       <c r="T29" t="n">
-        <v>85.75233240092072</v>
+        <v>82.56023828768812</v>
       </c>
       <c r="U29" t="n">
         <v>114.0021357446259</v>
@@ -24746,7 +24746,7 @@
         <v>232.3875835152584</v>
       </c>
       <c r="Y29" t="n">
-        <v>225.9349199490334</v>
+        <v>248.894421492843</v>
       </c>
     </row>
     <row r="30">
@@ -24756,10 +24756,10 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>29.18966648665671</v>
+        <v>25.99757237342411</v>
       </c>
       <c r="C30" t="n">
-        <v>15.14225286531768</v>
+        <v>35.3649818251051</v>
       </c>
       <c r="D30" t="n">
         <v>10.10154840142812</v>
@@ -24810,22 +24810,22 @@
         <v>34.33965394062719</v>
       </c>
       <c r="T30" t="n">
-        <v>39.86170998780146</v>
+        <v>62.82121153161097</v>
       </c>
       <c r="U30" t="n">
-        <v>65.63836337395468</v>
+        <v>84.97377986641018</v>
       </c>
       <c r="V30" t="n">
-        <v>95.45706998621463</v>
+        <v>91.83298493486063</v>
       </c>
       <c r="W30" t="n">
-        <v>114.351465997709</v>
+        <v>110.727380946355</v>
       </c>
       <c r="X30" t="n">
         <v>68.42946804026684</v>
       </c>
       <c r="Y30" t="n">
-        <v>45.37967707028422</v>
+        <v>68.33917861409373</v>
       </c>
     </row>
     <row r="31">
@@ -24847,13 +24847,13 @@
         <v>9.090445483358536</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>8.077530859720611</v>
       </c>
       <c r="G31" t="n">
         <v>30.64746219524812</v>
       </c>
       <c r="H31" t="n">
-        <v>12.73845724416213</v>
+        <v>24.88365534422894</v>
       </c>
       <c r="I31" t="n">
         <v>18.10695776404765</v>
@@ -24886,25 +24886,25 @@
         <v>39.94987421395885</v>
       </c>
       <c r="S31" t="n">
-        <v>63.71357932995211</v>
+        <v>86.67308087376162</v>
       </c>
       <c r="T31" t="n">
-        <v>90.60207226507086</v>
+        <v>86.97798721371686</v>
       </c>
       <c r="U31" t="n">
-        <v>126.0160106494707</v>
+        <v>148.9755121932803</v>
       </c>
       <c r="V31" t="n">
         <v>114.7941261606174</v>
       </c>
       <c r="W31" t="n">
-        <v>149.1794811733804</v>
+        <v>145.5553961220264</v>
       </c>
       <c r="X31" t="n">
-        <v>65.40663668201701</v>
+        <v>84.74205317447252</v>
       </c>
       <c r="Y31" t="n">
-        <v>81.24113618888416</v>
+        <v>78.04904207565156</v>
       </c>
     </row>
     <row r="32">
@@ -24914,7 +24914,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>245.3903245002699</v>
+        <v>241.7662394489159</v>
       </c>
       <c r="C32" t="n">
         <v>227.9293746077969</v>
@@ -24932,10 +24932,10 @@
         <v>277.9592203519244</v>
       </c>
       <c r="H32" t="n">
-        <v>179.171783408747</v>
+        <v>202.1312849525565</v>
       </c>
       <c r="I32" t="n">
-        <v>65.43524422534689</v>
+        <v>73.13237240719528</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24962,7 +24962,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>9.33350666470645</v>
       </c>
       <c r="S32" t="n">
         <v>71.67655242303471</v>
@@ -24971,19 +24971,19 @@
         <v>85.75233240092072</v>
       </c>
       <c r="U32" t="n">
-        <v>91.04263420081635</v>
+        <v>114.0021357446259</v>
       </c>
       <c r="V32" t="n">
-        <v>167.4492397631147</v>
+        <v>190.4087413069243</v>
       </c>
       <c r="W32" t="n">
         <v>211.8974515542024</v>
       </c>
       <c r="X32" t="n">
-        <v>232.3875835152584</v>
+        <v>228.7634984639044</v>
       </c>
       <c r="Y32" t="n">
-        <v>248.894421492843</v>
+        <v>245.270336441489</v>
       </c>
     </row>
     <row r="33">
@@ -25044,19 +25044,19 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>11.38015239681767</v>
+        <v>34.33965394062719</v>
       </c>
       <c r="T33" t="n">
-        <v>39.86170998780146</v>
+        <v>59.62911741837837</v>
       </c>
       <c r="U33" t="n">
-        <v>65.63836337395468</v>
+        <v>84.97377986641018</v>
       </c>
       <c r="V33" t="n">
-        <v>95.45706998621463</v>
+        <v>91.83298493486063</v>
       </c>
       <c r="W33" t="n">
-        <v>94.12873703792155</v>
+        <v>110.727380946355</v>
       </c>
       <c r="X33" t="n">
         <v>68.42946804026684</v>
@@ -25093,7 +25093,7 @@
         <v>24.88365534422894</v>
       </c>
       <c r="I34" t="n">
-        <v>18.10695776404765</v>
+        <v>14.91486365081505</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,22 +25120,22 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>16.99037267014934</v>
+        <v>39.94987421395885</v>
       </c>
       <c r="S34" t="n">
-        <v>66.4503519139742</v>
+        <v>83.04899582240762</v>
       </c>
       <c r="T34" t="n">
-        <v>67.64257072126135</v>
+        <v>90.60207226507086</v>
       </c>
       <c r="U34" t="n">
         <v>148.9755121932803</v>
       </c>
       <c r="V34" t="n">
-        <v>114.7941261606174</v>
+        <v>111.1700411092634</v>
       </c>
       <c r="W34" t="n">
-        <v>126.2199796295709</v>
+        <v>145.5553961220264</v>
       </c>
       <c r="X34" t="n">
         <v>88.36613822582652</v>
@@ -25151,7 +25151,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>222.4308229564604</v>
+        <v>241.7662394489159</v>
       </c>
       <c r="C35" t="n">
         <v>227.9293746077969</v>
@@ -25199,22 +25199,22 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>12.52560077793905</v>
+        <v>8.901515726585053</v>
       </c>
       <c r="S35" t="n">
-        <v>71.67655242303471</v>
+        <v>68.05246737168071</v>
       </c>
       <c r="T35" t="n">
-        <v>65.5296034411333</v>
+        <v>85.75233240092072</v>
       </c>
       <c r="U35" t="n">
-        <v>91.04263420081635</v>
+        <v>114.0021357446259</v>
       </c>
       <c r="V35" t="n">
         <v>190.4087413069243</v>
       </c>
       <c r="W35" t="n">
-        <v>188.9379500103929</v>
+        <v>208.7053574409698</v>
       </c>
       <c r="X35" t="n">
         <v>232.3875835152584</v>
@@ -25239,10 +25239,10 @@
         <v>10.10154840142812</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>20.30156329219031</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>7.725695230173244</v>
       </c>
       <c r="G36" t="n">
         <v>0</v>
@@ -25281,22 +25281,22 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>34.33965394062719</v>
+        <v>30.71556888927319</v>
       </c>
       <c r="T36" t="n">
-        <v>39.86170998780146</v>
+        <v>59.19712648025698</v>
       </c>
       <c r="U36" t="n">
         <v>88.59786491776418</v>
       </c>
       <c r="V36" t="n">
-        <v>95.45706998621463</v>
+        <v>92.26497587298203</v>
       </c>
       <c r="W36" t="n">
-        <v>99.1964940164756</v>
+        <v>110.727380946355</v>
       </c>
       <c r="X36" t="n">
-        <v>45.46996649645733</v>
+        <v>68.42946804026684</v>
       </c>
       <c r="Y36" t="n">
         <v>68.33917861409373</v>
@@ -25309,10 +25309,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>22.26573405893924</v>
+        <v>42.48846301872666</v>
       </c>
       <c r="C37" t="n">
-        <v>6.943802391607687</v>
+        <v>29.9033039354172</v>
       </c>
       <c r="D37" t="n">
         <v>11.27195585500172</v>
@@ -25324,7 +25324,7 @@
         <v>8.077530859720611</v>
       </c>
       <c r="G37" t="n">
-        <v>7.687960651438612</v>
+        <v>30.64746219524812</v>
       </c>
       <c r="H37" t="n">
         <v>24.88365534422894</v>
@@ -25357,16 +25357,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>16.99037267014934</v>
+        <v>36.75778010072625</v>
       </c>
       <c r="S37" t="n">
-        <v>86.67308087376162</v>
+        <v>83.04899582240762</v>
       </c>
       <c r="T37" t="n">
-        <v>90.60207226507086</v>
+        <v>86.97798721371686</v>
       </c>
       <c r="U37" t="n">
-        <v>148.9755121932803</v>
+        <v>145.3514271419263</v>
       </c>
       <c r="V37" t="n">
         <v>114.7941261606174</v>
@@ -25388,10 +25388,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>225.1675955404825</v>
+        <v>245.3903245002699</v>
       </c>
       <c r="C38" t="n">
-        <v>204.9698730639874</v>
+        <v>227.9293746077969</v>
       </c>
       <c r="D38" t="n">
         <v>217.3395244574723</v>
@@ -25400,7 +25400,7 @@
         <v>244.5868529090511</v>
       </c>
       <c r="F38" t="n">
-        <v>246.5730270346913</v>
+        <v>265.9084435271468</v>
       </c>
       <c r="G38" t="n">
         <v>277.9592203519244</v>
@@ -25439,13 +25439,13 @@
         <v>12.52560077793905</v>
       </c>
       <c r="S38" t="n">
-        <v>71.67655242303471</v>
+        <v>68.48445830980211</v>
       </c>
       <c r="T38" t="n">
-        <v>85.75233240092072</v>
+        <v>82.12824734956672</v>
       </c>
       <c r="U38" t="n">
-        <v>114.0021357446259</v>
+        <v>110.3780506932719</v>
       </c>
       <c r="V38" t="n">
         <v>190.4087413069243</v>
@@ -25457,7 +25457,7 @@
         <v>232.3875835152584</v>
       </c>
       <c r="Y38" t="n">
-        <v>225.9349199490334</v>
+        <v>248.894421492843</v>
       </c>
     </row>
     <row r="39">
@@ -25467,10 +25467,10 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>8.96693752686928</v>
+        <v>25.56558143530271</v>
       </c>
       <c r="C39" t="n">
-        <v>35.3649818251051</v>
+        <v>31.74089677375111</v>
       </c>
       <c r="D39" t="n">
         <v>10.10154840142812</v>
@@ -25518,10 +25518,10 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>11.38015239681767</v>
+        <v>34.33965394062719</v>
       </c>
       <c r="T39" t="n">
-        <v>39.86170998780146</v>
+        <v>62.82121153161097</v>
       </c>
       <c r="U39" t="n">
         <v>88.59786491776418</v>
@@ -25530,13 +25530,13 @@
         <v>95.45706998621463</v>
       </c>
       <c r="W39" t="n">
-        <v>91.39196445389946</v>
+        <v>114.351465997709</v>
       </c>
       <c r="X39" t="n">
-        <v>68.42946804026684</v>
+        <v>65.23737392703424</v>
       </c>
       <c r="Y39" t="n">
-        <v>68.33917861409373</v>
+        <v>64.71509356273972</v>
       </c>
     </row>
     <row r="40">
@@ -25552,7 +25552,7 @@
         <v>29.9033039354172</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>11.27195585500172</v>
       </c>
       <c r="E40" t="n">
         <v>9.090445483358536</v>
@@ -25561,13 +25561,13 @@
         <v>8.077530859720611</v>
       </c>
       <c r="G40" t="n">
-        <v>16.84414531070056</v>
+        <v>27.02337714389413</v>
       </c>
       <c r="H40" t="n">
-        <v>1.924153800419429</v>
+        <v>24.88365534422894</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>18.10695776404765</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,7 +25594,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>16.99037267014934</v>
+        <v>36.75778010072625</v>
       </c>
       <c r="S40" t="n">
         <v>86.67308087376162</v>
@@ -25603,10 +25603,10 @@
         <v>90.60207226507086</v>
       </c>
       <c r="U40" t="n">
-        <v>148.9755121932803</v>
+        <v>145.3514271419263</v>
       </c>
       <c r="V40" t="n">
-        <v>114.7941261606174</v>
+        <v>111.1700411092634</v>
       </c>
       <c r="W40" t="n">
         <v>149.1794811733804</v>
@@ -25625,28 +25625,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>257.3396138548825</v>
+        <v>263.6972690608951</v>
       </c>
       <c r="C41" t="n">
-        <v>239.8786639624094</v>
+        <v>246.2363191684221</v>
       </c>
       <c r="D41" t="n">
-        <v>229.2888138120848</v>
+        <v>235.6464690180975</v>
       </c>
       <c r="E41" t="n">
-        <v>236.3134133038763</v>
+        <v>262.8937974696763</v>
       </c>
       <c r="F41" t="n">
-        <v>258.5223163893039</v>
+        <v>287.839473139126</v>
       </c>
       <c r="G41" t="n">
-        <v>266.9490081627275</v>
+        <v>296.2661649125496</v>
       </c>
       <c r="H41" t="n">
-        <v>214.080574307169</v>
+        <v>220.4382295131817</v>
       </c>
       <c r="I41" t="n">
-        <v>85.08166176180779</v>
+        <v>91.43931696782043</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25673,28 +25673,28 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>24.47489013255156</v>
+        <v>30.8325453385642</v>
       </c>
       <c r="S41" t="n">
-        <v>83.62584177764722</v>
+        <v>86.79140287042726</v>
       </c>
       <c r="T41" t="n">
-        <v>97.70162175553324</v>
+        <v>100.4351919101919</v>
       </c>
       <c r="U41" t="n">
-        <v>102.9919235554289</v>
+        <v>128.684995253897</v>
       </c>
       <c r="V41" t="n">
-        <v>202.3580306615368</v>
+        <v>205.0916008161954</v>
       </c>
       <c r="W41" t="n">
-        <v>223.8467409088149</v>
+        <v>230.2043961148275</v>
       </c>
       <c r="X41" t="n">
-        <v>244.3368728698709</v>
+        <v>250.6945280758836</v>
       </c>
       <c r="Y41" t="n">
-        <v>260.8437108474554</v>
+        <v>267.2013660534681</v>
       </c>
     </row>
     <row r="42">
@@ -25704,22 +25704,22 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>18.17945429745971</v>
+        <v>47.49661104728186</v>
       </c>
       <c r="C42" t="n">
-        <v>24.35476963590811</v>
+        <v>53.67192638573026</v>
       </c>
       <c r="D42" t="n">
-        <v>22.05083775604064</v>
+        <v>28.40849296205327</v>
       </c>
       <c r="E42" t="n">
-        <v>32.25085264680283</v>
+        <v>38.60850785281546</v>
       </c>
       <c r="F42" t="n">
-        <v>19.67498458478576</v>
+        <v>26.0326397907984</v>
       </c>
       <c r="G42" t="n">
-        <v>11.94928935461252</v>
+        <v>18.30694456062515</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -25755,25 +25755,25 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>46.2889432952397</v>
+        <v>52.64659850125234</v>
       </c>
       <c r="T42" t="n">
-        <v>54.54777192643607</v>
+        <v>81.12815609223613</v>
       </c>
       <c r="U42" t="n">
-        <v>100.5471542723767</v>
+        <v>103.2807244270353</v>
       </c>
       <c r="V42" t="n">
-        <v>107.4063593408272</v>
+        <v>110.1399294954858</v>
       </c>
       <c r="W42" t="n">
-        <v>126.3007553523215</v>
+        <v>129.0343255069801</v>
       </c>
       <c r="X42" t="n">
-        <v>57.41925585106985</v>
+        <v>86.736412600892</v>
       </c>
       <c r="Y42" t="n">
-        <v>80.28846796870624</v>
+        <v>83.45402906148628</v>
       </c>
     </row>
     <row r="43">
@@ -25783,28 +25783,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>54.43775237333918</v>
+        <v>60.79540757935182</v>
       </c>
       <c r="C43" t="n">
-        <v>41.85259329002972</v>
+        <v>48.21024849604235</v>
       </c>
       <c r="D43" t="n">
-        <v>23.22124520961424</v>
+        <v>29.57890041562688</v>
       </c>
       <c r="E43" t="n">
-        <v>21.03973483797105</v>
+        <v>27.39739004398369</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>26.38447542034577</v>
       </c>
       <c r="G43" t="n">
-        <v>42.59675154986064</v>
+        <v>48.95440675587328</v>
       </c>
       <c r="H43" t="n">
-        <v>36.63703595338716</v>
+        <v>43.1905999048541</v>
       </c>
       <c r="I43" t="n">
-        <v>7.096745574850654</v>
+        <v>36.4139023246728</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,28 +25831,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>28.93966202476186</v>
+        <v>55.06472466135141</v>
       </c>
       <c r="S43" t="n">
-        <v>98.62237022837414</v>
+        <v>101.3559403830328</v>
       </c>
       <c r="T43" t="n">
-        <v>102.5513616196834</v>
+        <v>105.284931774342</v>
       </c>
       <c r="U43" t="n">
-        <v>160.9248015478928</v>
+        <v>163.6583717025514</v>
       </c>
       <c r="V43" t="n">
-        <v>126.7434155152299</v>
+        <v>133.1010707212425</v>
       </c>
       <c r="W43" t="n">
-        <v>161.1287705279929</v>
+        <v>167.4864257340055</v>
       </c>
       <c r="X43" t="n">
-        <v>77.35592603662953</v>
+        <v>106.6730827864517</v>
       </c>
       <c r="Y43" t="n">
-        <v>93.19042554349667</v>
+        <v>99.54808074950931</v>
       </c>
     </row>
     <row r="44">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>310153.8822306904</v>
+        <v>330655.9964601161</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>462617.6125550583</v>
+        <v>470194.0821771765</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>462617.6125550583</v>
+        <v>470194.0821771765</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>479986.3116580664</v>
+        <v>472935.6766608619</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>479986.3116580665</v>
+        <v>472935.6766608622</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>479986.3116580665</v>
+        <v>465359.2070387439</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>568611.7879436982</v>
+        <v>553984.6833243759</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>568611.7879436982</v>
+        <v>553984.6833243759</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>568611.7879436982</v>
+        <v>553984.6833243759</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>568611.7879436982</v>
+        <v>553984.683324376</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>546837.0759243623</v>
+        <v>520624.6705293312</v>
       </c>
     </row>
     <row r="16">
@@ -26314,43 +26314,43 @@
         <v>757830.6133132605</v>
       </c>
       <c r="C2" t="n">
-        <v>757830.6133132604</v>
+        <v>757830.6133132603</v>
       </c>
       <c r="D2" t="n">
         <v>757830.6133132603</v>
       </c>
       <c r="E2" t="n">
-        <v>227209.6859961221</v>
+        <v>250196.9049806296</v>
       </c>
       <c r="F2" t="n">
-        <v>398153.8684810193</v>
+        <v>406648.6980573338</v>
       </c>
       <c r="G2" t="n">
-        <v>398153.8684810193</v>
+        <v>406648.6980573338</v>
       </c>
       <c r="H2" t="n">
-        <v>410186.990077513</v>
+        <v>408548.0884258813</v>
       </c>
       <c r="I2" t="n">
-        <v>410186.990077513</v>
+        <v>408548.0884258812</v>
       </c>
       <c r="J2" t="n">
-        <v>410186.990077513</v>
+        <v>400053.2588495673</v>
       </c>
       <c r="K2" t="n">
-        <v>509554.9483371609</v>
+        <v>499421.2171092152</v>
       </c>
       <c r="L2" t="n">
-        <v>509554.9483371608</v>
+        <v>499421.2171092153</v>
       </c>
       <c r="M2" t="n">
-        <v>509554.9483371608</v>
+        <v>499421.2171092151</v>
       </c>
       <c r="N2" t="n">
-        <v>509554.9483371609</v>
+        <v>499421.2171092152</v>
       </c>
       <c r="O2" t="n">
-        <v>485140.8772851778</v>
+        <v>462017.5663996197</v>
       </c>
       <c r="P2" t="n">
         <v>198888.7002331758</v>
@@ -26372,25 +26372,25 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>9559.431483690014</v>
+        <v>17815.59346070628</v>
       </c>
       <c r="F3" t="n">
-        <v>61957.87479744205</v>
+        <v>56871.75063263194</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>6194.680152033701</v>
+        <v>977.8107636207701</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>9559.431483690014</v>
+        <v>14645.55564850012</v>
       </c>
       <c r="K3" t="n">
-        <v>100315.3822468785</v>
+        <v>95229.25808206838</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>451872.6453349188</v>
+        <v>452399.9905489652</v>
       </c>
       <c r="C4" t="n">
-        <v>451872.6453349188</v>
+        <v>452399.9905489652</v>
       </c>
       <c r="D4" t="n">
-        <v>451872.6453349188</v>
+        <v>452399.9905489652</v>
       </c>
       <c r="E4" t="n">
-        <v>124455.3967726702</v>
+        <v>139166.9017221033</v>
       </c>
       <c r="F4" t="n">
-        <v>229935.7331211011</v>
+        <v>235704.7745889019</v>
       </c>
       <c r="G4" t="n">
-        <v>229935.733121101</v>
+        <v>235704.7745889019</v>
       </c>
       <c r="H4" t="n">
-        <v>236559.5448698832</v>
+        <v>236755.4608341851</v>
       </c>
       <c r="I4" t="n">
-        <v>236559.5448698832</v>
+        <v>236755.4608341851</v>
       </c>
       <c r="J4" t="n">
-        <v>236559.5448698832</v>
+        <v>231513.7645804306</v>
       </c>
       <c r="K4" t="n">
-        <v>297874.0950764132</v>
+        <v>292828.3147869606</v>
       </c>
       <c r="L4" t="n">
-        <v>297874.0950764132</v>
+        <v>292828.3147869607</v>
       </c>
       <c r="M4" t="n">
-        <v>297874.0950764132</v>
+        <v>292828.3147869606</v>
       </c>
       <c r="N4" t="n">
-        <v>297874.0950764132</v>
+        <v>292828.3147869606</v>
       </c>
       <c r="O4" t="n">
-        <v>282809.5027120303</v>
+        <v>269748.5609155124</v>
       </c>
       <c r="P4" t="n">
-        <v>106980.0603174001</v>
+        <v>107507.4055314464</v>
       </c>
     </row>
     <row r="5">
@@ -26476,37 +26476,37 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>1004.56480675292</v>
+        <v>1872.173908310146</v>
       </c>
       <c r="F5" t="n">
-        <v>7515.485527185614</v>
+        <v>7848.612913228564</v>
       </c>
       <c r="G5" t="n">
-        <v>7515.485527185614</v>
+        <v>7848.612913228564</v>
       </c>
       <c r="H5" t="n">
-        <v>8911.423221049232</v>
+        <v>8068.957284350887</v>
       </c>
       <c r="I5" t="n">
-        <v>8911.423221049232</v>
+        <v>8068.957284350887</v>
       </c>
       <c r="J5" t="n">
-        <v>8911.423221049232</v>
+        <v>7735.829898307937</v>
       </c>
       <c r="K5" t="n">
-        <v>12942.26983825757</v>
+        <v>11766.67651551628</v>
       </c>
       <c r="L5" t="n">
-        <v>12942.26983825757</v>
+        <v>11766.67651551628</v>
       </c>
       <c r="M5" t="n">
-        <v>12942.26983825757</v>
+        <v>11766.67651551628</v>
       </c>
       <c r="N5" t="n">
-        <v>12942.26983825757</v>
+        <v>11766.67651551628</v>
       </c>
       <c r="O5" t="n">
-        <v>11937.70503150465</v>
+        <v>10227.62999324908</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>272330.3679783417</v>
+        <v>271803.0227642953</v>
       </c>
       <c r="C6" t="n">
-        <v>272330.3679783416</v>
+        <v>271803.0227642951</v>
       </c>
       <c r="D6" t="n">
-        <v>272330.3679783415</v>
+        <v>271803.0227642951</v>
       </c>
       <c r="E6" t="n">
-        <v>92190.29293300894</v>
+        <v>91342.2358895098</v>
       </c>
       <c r="F6" t="n">
-        <v>98744.7750352906</v>
+        <v>106223.5599225714</v>
       </c>
       <c r="G6" t="n">
-        <v>160702.6498327327</v>
+        <v>163095.3105552033</v>
       </c>
       <c r="H6" t="n">
-        <v>158521.341834547</v>
+        <v>162745.8595437246</v>
       </c>
       <c r="I6" t="n">
-        <v>164716.0219865806</v>
+        <v>163723.6703073453</v>
       </c>
       <c r="J6" t="n">
-        <v>155156.5905028906</v>
+        <v>146158.1087223286</v>
       </c>
       <c r="K6" t="n">
-        <v>98423.20117561158</v>
+        <v>99596.96772466996</v>
       </c>
       <c r="L6" t="n">
-        <v>198738.58342249</v>
+        <v>194826.2258067383</v>
       </c>
       <c r="M6" t="n">
-        <v>198738.58342249</v>
+        <v>194826.2258067382</v>
       </c>
       <c r="N6" t="n">
-        <v>198738.5834224901</v>
+        <v>194826.2258067383</v>
       </c>
       <c r="O6" t="n">
-        <v>190393.6695416428</v>
+        <v>182041.3754908582</v>
       </c>
       <c r="P6" t="n">
-        <v>91908.63991577574</v>
+        <v>91381.29470172939</v>
       </c>
     </row>
   </sheetData>
@@ -26692,19 +26692,19 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>11.94928935461252</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="F2" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="G2" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="H2" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="I2" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="J2" t="n">
         <v>89.39663285141508</v>
@@ -26722,7 +26722,7 @@
         <v>137.3435171632106</v>
       </c>
       <c r="O2" t="n">
-        <v>125.3942278085981</v>
+        <v>119.0365726025855</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26805,28 +26805,28 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>22.95950154380951</v>
+        <v>3.624085051353995</v>
       </c>
       <c r="I4" t="n">
-        <v>22.95950154380951</v>
+        <v>3.624085051353995</v>
       </c>
       <c r="J4" t="n">
-        <v>22.95950154380951</v>
+        <v>3.624085051353995</v>
       </c>
       <c r="K4" t="n">
-        <v>22.95950154380951</v>
+        <v>3.624085051353995</v>
       </c>
       <c r="L4" t="n">
-        <v>22.95950154380951</v>
+        <v>3.624085051353995</v>
       </c>
       <c r="M4" t="n">
-        <v>22.95950154380951</v>
+        <v>3.624085051353995</v>
       </c>
       <c r="N4" t="n">
-        <v>22.95950154380951</v>
+        <v>3.624085051353995</v>
       </c>
       <c r="O4" t="n">
-        <v>22.95950154380951</v>
+        <v>3.624085051353995</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -26914,10 +26914,10 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>11.94928935461252</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="F2" t="n">
-        <v>77.44734349680256</v>
+        <v>71.08968829078992</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -26929,10 +26929,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>11.94928935461252</v>
+        <v>18.30694456062515</v>
       </c>
       <c r="K2" t="n">
-        <v>125.3942278085981</v>
+        <v>119.0365726025855</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -27027,7 +27027,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>22.95950154380951</v>
+        <v>3.624085051353995</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27151,10 +27151,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>11.94928935461252</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="K2" t="n">
-        <v>77.44734349680256</v>
+        <v>71.08968829078992</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -27166,10 +27166,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>11.94928935461252</v>
+        <v>18.30694456062515</v>
       </c>
       <c r="P2" t="n">
-        <v>125.3942278085981</v>
+        <v>119.0365726025855</v>
       </c>
     </row>
     <row r="3">
@@ -27273,7 +27273,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>22.95950154380951</v>
+        <v>3.624085051353995</v>
       </c>
     </row>
   </sheetData>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>11.94928935461252</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="C11" t="n">
-        <v>11.94928935461252</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="D11" t="n">
-        <v>11.94928935461252</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="E11" t="n">
-        <v>11.94928935461252</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="F11" t="n">
-        <v>11.94928935461252</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="G11" t="n">
-        <v>11.94928935461252</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="H11" t="n">
-        <v>11.94928935461252</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="I11" t="n">
-        <v>11.94928935461252</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="J11" t="n">
         <v>11.94928935461252</v>
@@ -28135,28 +28135,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R11" t="n">
-        <v>11.94928935461252</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="S11" t="n">
-        <v>11.94928935461252</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="T11" t="n">
-        <v>11.94928935461252</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="U11" t="n">
-        <v>11.94928935461252</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="V11" t="n">
-        <v>11.94928935461252</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="W11" t="n">
-        <v>11.94928935461252</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="X11" t="n">
-        <v>11.94928935461252</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="Y11" t="n">
-        <v>11.94928935461252</v>
+        <v>22.26949182588285</v>
       </c>
     </row>
     <row r="12">
@@ -28166,28 +28166,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>11.94928935461252</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="C12" t="n">
-        <v>11.94928935461252</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="D12" t="n">
-        <v>11.94928935461252</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="E12" t="n">
-        <v>11.94928935461252</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="F12" t="n">
-        <v>11.94928935461252</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="G12" t="n">
-        <v>11.94928935461252</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="H12" t="n">
-        <v>11.94928935461252</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="I12" t="n">
-        <v>11.94928935461252</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="J12" t="n">
         <v>0.7465913262578567</v>
@@ -28214,28 +28214,28 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>11.94928935461252</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="S12" t="n">
-        <v>11.94928935461252</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="T12" t="n">
-        <v>11.94928935461252</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="U12" t="n">
-        <v>11.94928935461252</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="V12" t="n">
-        <v>11.94928935461252</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="W12" t="n">
-        <v>11.94928935461252</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="X12" t="n">
-        <v>11.94928935461252</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="Y12" t="n">
-        <v>11.94928935461252</v>
+        <v>22.26949182588285</v>
       </c>
     </row>
     <row r="13">
@@ -28245,34 +28245,34 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>11.94928935461252</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="C13" t="n">
-        <v>11.94928935461252</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="D13" t="n">
-        <v>11.94928935461252</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="E13" t="n">
-        <v>11.94928935461252</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="F13" t="n">
-        <v>11.94928935461252</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="G13" t="n">
-        <v>11.94928935461252</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="H13" t="n">
-        <v>11.94928935461252</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="I13" t="n">
-        <v>11.94928935461252</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="J13" t="n">
-        <v>11.94928935461252</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="K13" t="n">
-        <v>11.94928935461252</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -28290,31 +28290,31 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q13" t="n">
-        <v>11.94928935461252</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="R13" t="n">
-        <v>11.94928935461252</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="S13" t="n">
-        <v>11.94928935461252</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="T13" t="n">
-        <v>11.94928935461252</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="U13" t="n">
-        <v>11.94928935461252</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="V13" t="n">
-        <v>11.94928935461252</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="W13" t="n">
-        <v>11.94928935461252</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="X13" t="n">
-        <v>11.94928935461252</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="Y13" t="n">
-        <v>11.94928935461252</v>
+        <v>22.26949182588285</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="C14" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="D14" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="E14" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="F14" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="G14" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="H14" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="I14" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="J14" t="n">
         <v>11.94928935461252</v>
@@ -28372,28 +28372,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R14" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="S14" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="T14" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="U14" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="V14" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="W14" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="X14" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="Y14" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
     </row>
     <row r="15">
@@ -28403,25 +28403,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="C15" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="D15" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="E15" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="F15" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="G15" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="H15" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="I15" t="n">
         <v>89.39663285141508</v>
@@ -28451,28 +28451,28 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="S15" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="T15" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="U15" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="V15" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="W15" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="X15" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="Y15" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
     </row>
     <row r="16">
@@ -28482,31 +28482,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="C16" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="D16" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="E16" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="F16" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="G16" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="H16" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="I16" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="J16" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K16" t="n">
         <v>22.26949182588285</v>
@@ -28530,28 +28530,28 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R16" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="S16" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="T16" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="U16" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="V16" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="W16" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="X16" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="Y16" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
     </row>
     <row r="17">
@@ -28561,28 +28561,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="C17" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="D17" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="E17" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="F17" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="G17" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="H17" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="I17" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="J17" t="n">
         <v>11.94928935461252</v>
@@ -28609,28 +28609,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R17" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="S17" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="T17" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="U17" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="V17" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="W17" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="X17" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="Y17" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
     </row>
     <row r="18">
@@ -28640,25 +28640,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="C18" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="D18" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="E18" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="F18" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="G18" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="H18" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="I18" t="n">
         <v>89.39663285141508</v>
@@ -28688,28 +28688,28 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="S18" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="T18" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="U18" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="V18" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="W18" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="X18" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="Y18" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
     </row>
     <row r="19">
@@ -28719,31 +28719,31 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="C19" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="D19" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="E19" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="F19" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="G19" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="H19" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="I19" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="J19" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K19" t="n">
         <v>22.26949182588285</v>
@@ -28767,28 +28767,28 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R19" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="S19" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="T19" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="U19" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="V19" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="W19" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="X19" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="Y19" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
     </row>
     <row r="20">
@@ -28798,28 +28798,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="C20" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="D20" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="E20" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="F20" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="G20" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="H20" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="I20" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="J20" t="n">
         <v>11.94928935461252</v>
@@ -28846,28 +28846,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R20" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="S20" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="T20" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="U20" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="V20" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="W20" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="X20" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="Y20" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
     </row>
     <row r="21">
@@ -28877,25 +28877,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="C21" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="D21" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="E21" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="F21" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="G21" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="H21" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="I21" t="n">
         <v>89.39663285141508</v>
@@ -28925,28 +28925,28 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="S21" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="T21" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="U21" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="V21" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="W21" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="X21" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="Y21" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
     </row>
     <row r="22">
@@ -28956,31 +28956,31 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="C22" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="D22" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="E22" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="F22" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="G22" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="H22" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="I22" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="J22" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K22" t="n">
         <v>22.26949182588285</v>
@@ -29004,28 +29004,28 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R22" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="S22" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="T22" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="U22" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="V22" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="W22" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="X22" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="Y22" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
     </row>
     <row r="23">
@@ -29035,28 +29035,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="C23" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="D23" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="E23" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="F23" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="G23" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="H23" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="I23" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="J23" t="n">
         <v>11.94928935461252</v>
@@ -29083,28 +29083,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R23" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="S23" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="T23" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="U23" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="V23" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="W23" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="X23" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="Y23" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
     </row>
     <row r="24">
@@ -29114,25 +29114,25 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="C24" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="D24" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="E24" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="F24" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="G24" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="H24" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="I24" t="n">
         <v>89.39663285141508</v>
@@ -29162,28 +29162,28 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="S24" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="T24" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="U24" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="V24" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="W24" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="X24" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="Y24" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
     </row>
     <row r="25">
@@ -29193,31 +29193,31 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="C25" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="D25" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="E25" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="F25" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="G25" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="H25" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="I25" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="J25" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K25" t="n">
         <v>22.26949182588285</v>
@@ -29241,28 +29241,28 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R25" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="S25" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="T25" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="U25" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="V25" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="W25" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="X25" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="Y25" t="n">
-        <v>89.39663285141508</v>
+        <v>93.35918011667277</v>
       </c>
     </row>
     <row r="26">
@@ -30457,28 +30457,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>125.3942278085981</v>
+        <v>119.0365726025855</v>
       </c>
       <c r="C41" t="n">
-        <v>125.3942278085981</v>
+        <v>119.0365726025855</v>
       </c>
       <c r="D41" t="n">
-        <v>125.3942278085981</v>
+        <v>119.0365726025855</v>
       </c>
       <c r="E41" t="n">
-        <v>125.3942278085981</v>
+        <v>119.0365726025855</v>
       </c>
       <c r="F41" t="n">
-        <v>125.3942278085981</v>
+        <v>119.0365726025855</v>
       </c>
       <c r="G41" t="n">
-        <v>125.3942278085981</v>
+        <v>119.0365726025855</v>
       </c>
       <c r="H41" t="n">
-        <v>125.3942278085981</v>
+        <v>119.0365726025855</v>
       </c>
       <c r="I41" t="n">
-        <v>125.3942278085981</v>
+        <v>119.0365726025855</v>
       </c>
       <c r="J41" t="n">
         <v>11.94928935461252</v>
@@ -30505,28 +30505,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R41" t="n">
-        <v>125.3942278085981</v>
+        <v>119.0365726025855</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3942278085981</v>
+        <v>119.0365726025855</v>
       </c>
       <c r="T41" t="n">
-        <v>125.3942278085981</v>
+        <v>119.0365726025855</v>
       </c>
       <c r="U41" t="n">
-        <v>125.3942278085981</v>
+        <v>119.0365726025855</v>
       </c>
       <c r="V41" t="n">
-        <v>125.3942278085981</v>
+        <v>119.0365726025855</v>
       </c>
       <c r="W41" t="n">
-        <v>125.3942278085981</v>
+        <v>119.0365726025855</v>
       </c>
       <c r="X41" t="n">
-        <v>125.3942278085981</v>
+        <v>119.0365726025855</v>
       </c>
       <c r="Y41" t="n">
-        <v>125.3942278085981</v>
+        <v>119.0365726025855</v>
       </c>
     </row>
     <row r="42">
@@ -30536,22 +30536,22 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>125.3942278085981</v>
+        <v>119.0365726025855</v>
       </c>
       <c r="C42" t="n">
-        <v>125.3942278085981</v>
+        <v>119.0365726025855</v>
       </c>
       <c r="D42" t="n">
-        <v>125.3942278085981</v>
+        <v>119.0365726025855</v>
       </c>
       <c r="E42" t="n">
-        <v>125.3942278085981</v>
+        <v>119.0365726025855</v>
       </c>
       <c r="F42" t="n">
-        <v>125.3942278085981</v>
+        <v>119.0365726025855</v>
       </c>
       <c r="G42" t="n">
-        <v>125.3942278085981</v>
+        <v>119.0365726025855</v>
       </c>
       <c r="H42" t="n">
         <v>112.2354442364965</v>
@@ -30587,25 +30587,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S42" t="n">
-        <v>125.3942278085981</v>
+        <v>119.0365726025855</v>
       </c>
       <c r="T42" t="n">
-        <v>125.3942278085981</v>
+        <v>119.0365726025855</v>
       </c>
       <c r="U42" t="n">
-        <v>125.3942278085981</v>
+        <v>119.0365726025855</v>
       </c>
       <c r="V42" t="n">
-        <v>125.3942278085981</v>
+        <v>119.0365726025855</v>
       </c>
       <c r="W42" t="n">
-        <v>125.3942278085981</v>
+        <v>119.0365726025855</v>
       </c>
       <c r="X42" t="n">
-        <v>125.3942278085981</v>
+        <v>119.0365726025855</v>
       </c>
       <c r="Y42" t="n">
-        <v>125.3942278085981</v>
+        <v>119.0365726025855</v>
       </c>
     </row>
     <row r="43">
@@ -30615,28 +30615,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>125.3942278085981</v>
+        <v>119.0365726025855</v>
       </c>
       <c r="C43" t="n">
-        <v>125.3942278085981</v>
+        <v>119.0365726025855</v>
       </c>
       <c r="D43" t="n">
-        <v>125.3942278085981</v>
+        <v>119.0365726025855</v>
       </c>
       <c r="E43" t="n">
-        <v>125.3942278085981</v>
+        <v>119.0365726025855</v>
       </c>
       <c r="F43" t="n">
-        <v>125.3942278085981</v>
+        <v>119.0365726025855</v>
       </c>
       <c r="G43" t="n">
-        <v>125.3942278085981</v>
+        <v>119.0365726025855</v>
       </c>
       <c r="H43" t="n">
-        <v>125.3942278085981</v>
+        <v>119.0365726025855</v>
       </c>
       <c r="I43" t="n">
-        <v>125.3942278085981</v>
+        <v>119.0365726025855</v>
       </c>
       <c r="J43" t="n">
         <v>93.35918011667277</v>
@@ -30663,28 +30663,28 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R43" t="n">
-        <v>125.3942278085981</v>
+        <v>119.0365726025855</v>
       </c>
       <c r="S43" t="n">
-        <v>125.3942278085981</v>
+        <v>119.0365726025855</v>
       </c>
       <c r="T43" t="n">
-        <v>125.3942278085981</v>
+        <v>119.0365726025855</v>
       </c>
       <c r="U43" t="n">
-        <v>125.3942278085981</v>
+        <v>119.0365726025855</v>
       </c>
       <c r="V43" t="n">
-        <v>125.3942278085981</v>
+        <v>119.0365726025855</v>
       </c>
       <c r="W43" t="n">
-        <v>125.3942278085981</v>
+        <v>119.0365726025855</v>
       </c>
       <c r="X43" t="n">
-        <v>125.3942278085981</v>
+        <v>119.0365726025855</v>
       </c>
       <c r="Y43" t="n">
-        <v>125.3942278085981</v>
+        <v>119.0365726025855</v>
       </c>
     </row>
     <row r="44">
@@ -36121,22 +36121,22 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>22.95950154380951</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>22.95950154380951</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>3.477657372511409</v>
       </c>
       <c r="N20" t="n">
-        <v>22.95950154380951</v>
+        <v>3.624085051353995</v>
       </c>
       <c r="O20" t="n">
-        <v>22.03184491577681</v>
+        <v>3.624085051353995</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>3.624085051353995</v>
       </c>
       <c r="Q20" t="n">
         <v>0</v>
@@ -36203,22 +36203,22 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>22.03184491577681</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>22.95950154380951</v>
+        <v>3.624085051353995</v>
       </c>
       <c r="N21" t="n">
-        <v>22.95950154380951</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>22.95950154380951</v>
+        <v>3.624085051353995</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>3.477657372511409</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>3.624085051353995</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36282,16 +36282,16 @@
         <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>22.95950154380951</v>
+        <v>3.624085051353995</v>
       </c>
       <c r="M22" t="n">
-        <v>22.95950154380951</v>
+        <v>3.624085051353995</v>
       </c>
       <c r="N22" t="n">
-        <v>22.95950154380951</v>
+        <v>3.624085051353995</v>
       </c>
       <c r="O22" t="n">
-        <v>22.03184491577681</v>
+        <v>3.477657372511409</v>
       </c>
       <c r="P22" t="n">
         <v>0</v>
@@ -36358,19 +36358,19 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>22.95950154380951</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>22.95950154380951</v>
+        <v>3.477657372511409</v>
       </c>
       <c r="M23" t="n">
-        <v>22.95950154380951</v>
+        <v>3.624085051353995</v>
       </c>
       <c r="N23" t="n">
-        <v>22.03184491577681</v>
+        <v>3.624085051353995</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>3.624085051353995</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
@@ -36437,7 +36437,7 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>3.624085051353995</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -36446,16 +36446,16 @@
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>22.03184491577681</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>22.95950154380951</v>
+        <v>3.477657372511409</v>
       </c>
       <c r="P24" t="n">
-        <v>22.95950154380951</v>
+        <v>3.624085051353995</v>
       </c>
       <c r="Q24" t="n">
-        <v>22.95950154380951</v>
+        <v>3.624085051353995</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36519,16 +36519,16 @@
         <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>22.95950154380951</v>
+        <v>3.624085051353995</v>
       </c>
       <c r="M25" t="n">
-        <v>22.95950154380951</v>
+        <v>3.624085051353995</v>
       </c>
       <c r="N25" t="n">
-        <v>22.95950154380951</v>
+        <v>3.624085051353995</v>
       </c>
       <c r="O25" t="n">
-        <v>22.03184491577681</v>
+        <v>3.477657372511409</v>
       </c>
       <c r="P25" t="n">
         <v>0</v>
@@ -36595,22 +36595,22 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>3.624085051353995</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>3.624085051353995</v>
       </c>
       <c r="M26" t="n">
-        <v>22.03184491577681</v>
+        <v>3.624085051353995</v>
       </c>
       <c r="N26" t="n">
-        <v>22.95950154380951</v>
+        <v>3.477657372511409</v>
       </c>
       <c r="O26" t="n">
-        <v>22.95950154380951</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>22.95950154380951</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
@@ -36677,19 +36677,19 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>3.624085051353995</v>
       </c>
       <c r="M27" t="n">
-        <v>22.95950154380951</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>22.95950154380951</v>
+        <v>3.624085051353995</v>
       </c>
       <c r="O27" t="n">
-        <v>22.95950154380951</v>
+        <v>3.477657372511409</v>
       </c>
       <c r="P27" t="n">
-        <v>22.03184491577681</v>
+        <v>3.624085051353995</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36756,16 +36756,16 @@
         <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>22.03184491577681</v>
+        <v>3.624085051353995</v>
       </c>
       <c r="M28" t="n">
-        <v>22.95950154380951</v>
+        <v>3.624085051353995</v>
       </c>
       <c r="N28" t="n">
-        <v>22.95950154380951</v>
+        <v>3.477657372511409</v>
       </c>
       <c r="O28" t="n">
-        <v>22.95950154380951</v>
+        <v>3.624085051353995</v>
       </c>
       <c r="P28" t="n">
         <v>0</v>
@@ -36832,22 +36832,22 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>22.03184491577681</v>
+        <v>3.477657372511409</v>
       </c>
       <c r="L29" t="n">
-        <v>22.95950154380951</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>22.95950154380951</v>
+        <v>3.624085051353995</v>
       </c>
       <c r="N29" t="n">
-        <v>22.95950154380951</v>
+        <v>3.624085051353995</v>
       </c>
       <c r="O29" t="n">
         <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>3.624085051353995</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
@@ -36917,19 +36917,19 @@
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>3.477657372511409</v>
       </c>
       <c r="N30" t="n">
-        <v>22.03184491577681</v>
+        <v>3.624085051353995</v>
       </c>
       <c r="O30" t="n">
-        <v>22.95950154380951</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>22.95950154380951</v>
+        <v>3.624085051353995</v>
       </c>
       <c r="Q30" t="n">
-        <v>22.95950154380951</v>
+        <v>3.624085051353995</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36993,16 +36993,16 @@
         <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>22.03184491577681</v>
+        <v>3.477657372511409</v>
       </c>
       <c r="M31" t="n">
-        <v>22.95950154380951</v>
+        <v>3.624085051353995</v>
       </c>
       <c r="N31" t="n">
-        <v>22.95950154380951</v>
+        <v>3.624085051353995</v>
       </c>
       <c r="O31" t="n">
-        <v>22.95950154380951</v>
+        <v>3.624085051353995</v>
       </c>
       <c r="P31" t="n">
         <v>0</v>
@@ -37069,16 +37069,16 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>22.95950154380951</v>
+        <v>3.624085051353995</v>
       </c>
       <c r="L32" t="n">
-        <v>22.95950154380951</v>
+        <v>3.624085051353995</v>
       </c>
       <c r="M32" t="n">
-        <v>22.95950154380951</v>
+        <v>3.624085051353995</v>
       </c>
       <c r="N32" t="n">
-        <v>22.03184491577681</v>
+        <v>3.477657372511409</v>
       </c>
       <c r="O32" t="n">
         <v>0</v>
@@ -37148,7 +37148,7 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>3.477657372511409</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -37157,16 +37157,16 @@
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>22.03184491577681</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>22.95950154380951</v>
+        <v>3.624085051353995</v>
       </c>
       <c r="P33" t="n">
-        <v>22.95950154380951</v>
+        <v>3.624085051353995</v>
       </c>
       <c r="Q33" t="n">
-        <v>22.95950154380951</v>
+        <v>3.624085051353995</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37230,16 +37230,16 @@
         <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>22.03184491577681</v>
+        <v>3.624085051353995</v>
       </c>
       <c r="M34" t="n">
-        <v>22.95950154380951</v>
+        <v>3.624085051353995</v>
       </c>
       <c r="N34" t="n">
-        <v>22.95950154380951</v>
+        <v>3.624085051353995</v>
       </c>
       <c r="O34" t="n">
-        <v>22.95950154380951</v>
+        <v>3.477657372511409</v>
       </c>
       <c r="P34" t="n">
         <v>0</v>
@@ -37309,16 +37309,16 @@
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>22.95950154380951</v>
+        <v>3.624085051353995</v>
       </c>
       <c r="M35" t="n">
-        <v>22.03184491577681</v>
+        <v>3.624085051353995</v>
       </c>
       <c r="N35" t="n">
-        <v>22.95950154380951</v>
+        <v>3.624085051353995</v>
       </c>
       <c r="O35" t="n">
-        <v>22.95950154380951</v>
+        <v>3.477657372511409</v>
       </c>
       <c r="P35" t="n">
         <v>0</v>
@@ -37385,22 +37385,22 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>3.624085051353995</v>
       </c>
       <c r="L36" t="n">
-        <v>22.95950154380951</v>
+        <v>3.624085051353995</v>
       </c>
       <c r="M36" t="n">
-        <v>22.95950154380951</v>
+        <v>3.624085051353995</v>
       </c>
       <c r="N36" t="n">
-        <v>22.95950154380951</v>
+        <v>3.477657372511409</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>22.03184491577681</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37467,16 +37467,16 @@
         <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>22.03184491577681</v>
+        <v>3.624085051353995</v>
       </c>
       <c r="M37" t="n">
-        <v>22.95950154380951</v>
+        <v>3.624085051353995</v>
       </c>
       <c r="N37" t="n">
-        <v>22.95950154380951</v>
+        <v>3.624085051353995</v>
       </c>
       <c r="O37" t="n">
-        <v>22.95950154380951</v>
+        <v>3.477657372511409</v>
       </c>
       <c r="P37" t="n">
         <v>0</v>
@@ -37543,22 +37543,22 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>22.95950154380951</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>22.95950154380951</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>3.477657372511409</v>
       </c>
       <c r="N38" t="n">
-        <v>22.03184491577681</v>
+        <v>3.624085051353995</v>
       </c>
       <c r="O38" t="n">
-        <v>22.95950154380951</v>
+        <v>3.624085051353995</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>3.624085051353995</v>
       </c>
       <c r="Q38" t="n">
         <v>0</v>
@@ -37622,25 +37622,25 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>3.624085051353995</v>
       </c>
       <c r="L39" t="n">
-        <v>22.95950154380951</v>
+        <v>3.624085051353995</v>
       </c>
       <c r="M39" t="n">
-        <v>22.95950154380951</v>
+        <v>3.624085051353995</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>3.477657372511409</v>
       </c>
       <c r="O39" t="n">
-        <v>22.03184491577681</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>22.95950154380951</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37704,16 +37704,16 @@
         <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>22.03184491577681</v>
+        <v>3.624085051353995</v>
       </c>
       <c r="M40" t="n">
-        <v>22.95950154380951</v>
+        <v>3.624085051353995</v>
       </c>
       <c r="N40" t="n">
-        <v>22.95950154380951</v>
+        <v>3.624085051353995</v>
       </c>
       <c r="O40" t="n">
-        <v>22.95950154380951</v>
+        <v>3.477657372511409</v>
       </c>
       <c r="P40" t="n">
         <v>0</v>
@@ -37783,19 +37783,19 @@
         <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>22.95950154380951</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>22.95950154380951</v>
+        <v>3.477657372511409</v>
       </c>
       <c r="N41" t="n">
-        <v>22.03184491577681</v>
+        <v>3.624085051353995</v>
       </c>
       <c r="O41" t="n">
-        <v>22.95950154380951</v>
+        <v>3.624085051353995</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>3.624085051353995</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
@@ -37859,25 +37859,25 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>22.03184491577681</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>22.95950154380951</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>22.95950154380951</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>3.477657372511409</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>3.624085051353995</v>
       </c>
       <c r="P42" t="n">
-        <v>22.95950154380951</v>
+        <v>3.624085051353995</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>3.624085051353995</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37941,16 +37941,16 @@
         <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>22.03184491577681</v>
+        <v>3.624085051353995</v>
       </c>
       <c r="M43" t="n">
-        <v>22.95950154380951</v>
+        <v>3.624085051353995</v>
       </c>
       <c r="N43" t="n">
-        <v>22.95950154380951</v>
+        <v>3.624085051353995</v>
       </c>
       <c r="O43" t="n">
-        <v>22.95950154380951</v>
+        <v>3.477657372511409</v>
       </c>
       <c r="P43" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_20_37.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_20_37.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1557502.236600147</v>
+        <v>1503386.430193027</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5117489.517676651</v>
+        <v>5095622.684065031</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>11743522.64553508</v>
+        <v>11746303.32766476</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6337168.507315137</v>
+        <v>6339801.715238842</v>
       </c>
     </row>
     <row r="11">
@@ -2326,16 +2326,16 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>22.56635248423083</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2365,7 +2365,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>24.30129424928645</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -2380,13 +2380,13 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
     </row>
     <row r="24">
@@ -2402,19 +2402,19 @@
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>10.4887424003775</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>25.62029119463083</v>
+        <v>24.30129424928645</v>
       </c>
       <c r="H24" t="n">
-        <v>12.07761008385333</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2447,16 +2447,16 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="T24" t="n">
         <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="W24" t="n">
         <v>0</v>
@@ -2481,10 +2481,10 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>22.56635248423083</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2523,22 +2523,22 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>25.62029119463083</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>24.30129424928645</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2560,19 +2560,19 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>25.62029119463083</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>25.62029119463083</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>24.30129424928645</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2602,7 +2602,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>22.56635248423083</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -2614,7 +2614,7 @@
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -2623,7 +2623,7 @@
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2633,10 +2633,10 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
@@ -2645,10 +2645,10 @@
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="G27" t="n">
-        <v>25.34783229378028</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="H27" t="n">
         <v>22.83881138508139</v>
@@ -2696,7 +2696,7 @@
         <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>25.62029119463083</v>
+        <v>1.46248286420506</v>
       </c>
       <c r="X27" t="n">
         <v>0</v>
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -2727,16 +2727,16 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>3.962547265257697</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -2763,7 +2763,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>18.60380521897314</v>
+        <v>24.30129424928645</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -2778,10 +2778,10 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>25.62029119463083</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
     </row>
     <row r="29">
@@ -2791,22 +2791,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>24.30129424928645</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2842,16 +2842,16 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>22.56635248423083</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -2870,25 +2870,25 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>22.56635248423083</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>1.46248286420506</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="F30" t="n">
-        <v>25.62029119463083</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>22.83881138508139</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2936,7 +2936,7 @@
         <v>0</v>
       </c>
       <c r="X30" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
         <v>0</v>
@@ -2949,13 +2949,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2997,16 +2997,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>25.62029119463083</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="S31" t="n">
-        <v>22.56635248423083</v>
+        <v>24.30129424928645</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -3040,10 +3040,10 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>24.30129424928645</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3085,19 +3085,19 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="V32" t="n">
-        <v>22.56635248423083</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>25.62029119463083</v>
+        <v>27.59002526031614</v>
       </c>
     </row>
     <row r="33">
@@ -3110,16 +3110,16 @@
         <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>25.62029119463083</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="E33" t="n">
-        <v>22.56635248423083</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="F33" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
@@ -3161,7 +3161,7 @@
         <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
         <v>0</v>
@@ -3176,7 +3176,7 @@
         <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>24.30129424928645</v>
       </c>
     </row>
     <row r="34">
@@ -3186,16 +3186,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="D34" t="n">
-        <v>22.56635248423083</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -3240,7 +3240,7 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>24.30129424928645</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -3249,10 +3249,10 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>25.62029119463083</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3265,10 +3265,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>25.62029119463083</v>
+        <v>24.30129424928645</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -3313,10 +3313,10 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="S35" t="n">
-        <v>22.56635248423083</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -3328,13 +3328,13 @@
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>25.62029119463083</v>
+        <v>27.59002526031614</v>
       </c>
     </row>
     <row r="36">
@@ -3350,16 +3350,16 @@
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>24.30129424928645</v>
       </c>
       <c r="F36" t="n">
-        <v>25.62029119463083</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="G36" t="n">
-        <v>25.62029119463083</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -3404,10 +3404,10 @@
         <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>22.56635248423083</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="X36" t="n">
         <v>0</v>
@@ -3426,22 +3426,22 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>22.56635248423083</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3471,10 +3471,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>24.30129424928645</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -3514,16 +3514,16 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>24.30129424928645</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3556,13 +3556,13 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>22.56635248423083</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -3571,7 +3571,7 @@
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3581,25 +3581,25 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>15.16042112171082</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="F39" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>7.405931362520008</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3641,13 +3641,13 @@
         <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>24.30129424928645</v>
       </c>
       <c r="W39" t="n">
         <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="Y39" t="n">
         <v>0</v>
@@ -3675,10 +3675,10 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>24.30129424928645</v>
       </c>
       <c r="H40" t="n">
-        <v>22.56635248423083</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3708,16 +3708,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>25.62029119463083</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="U40" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -3739,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>22.56635248423083</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -3751,13 +3751,13 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>24.30129424928645</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3787,7 +3787,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -3802,13 +3802,13 @@
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3839,7 +3839,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>22.56635248423083</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3866,22 +3866,22 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>24.30129424928645</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="U42" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>25.62029119463083</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="X42" t="n">
         <v>0</v>
@@ -3918,7 +3918,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3954,19 +3954,19 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="V43" t="n">
-        <v>22.56635248423083</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="W43" t="n">
-        <v>25.62029119463083</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>24.30129424928645</v>
       </c>
       <c r="Y43" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3988,13 +3988,13 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>24.30129424928645</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4024,22 +4024,22 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>22.56635248423083</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -4103,22 +4103,22 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="S45" t="n">
-        <v>25.62029119463083</v>
+        <v>24.30129424928645</v>
       </c>
       <c r="T45" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>22.56635248423083</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>25.62029119463083</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="X45" t="n">
         <v>0</v>
@@ -4158,7 +4158,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>22.56635248423083</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -4182,22 +4182,22 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>25.62029119463083</v>
+        <v>24.30129424928645</v>
       </c>
       <c r="U46" t="n">
-        <v>25.62029119463083</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="V46" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>102.4811647785233</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="C23" t="n">
-        <v>102.4811647785233</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="D23" t="n">
-        <v>102.4811647785233</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="E23" t="n">
-        <v>79.68686933990632</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="F23" t="n">
-        <v>53.80778732512771</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="G23" t="n">
-        <v>27.92870531034908</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="H23" t="n">
-        <v>2.049623295570466</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="I23" t="n">
-        <v>2.049623295570466</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="J23" t="n">
-        <v>2.049623295570466</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="K23" t="n">
-        <v>26.38889993046976</v>
+        <v>28.41772601812563</v>
       </c>
       <c r="L23" t="n">
-        <v>26.38889993046976</v>
+        <v>55.73185102583861</v>
       </c>
       <c r="M23" t="n">
-        <v>26.38889993046976</v>
+        <v>83.04597603355158</v>
       </c>
       <c r="N23" t="n">
-        <v>51.75298821315428</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="O23" t="n">
-        <v>77.1170764958388</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="P23" t="n">
-        <v>102.4811647785233</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="Q23" t="n">
-        <v>102.4811647785233</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="R23" t="n">
-        <v>102.4811647785233</v>
+        <v>85.81333917329844</v>
       </c>
       <c r="S23" t="n">
-        <v>102.4811647785233</v>
+        <v>85.81333917329844</v>
       </c>
       <c r="T23" t="n">
-        <v>102.4811647785233</v>
+        <v>85.81333917329844</v>
       </c>
       <c r="U23" t="n">
-        <v>102.4811647785233</v>
+        <v>85.81333917329844</v>
       </c>
       <c r="V23" t="n">
-        <v>102.4811647785233</v>
+        <v>85.81333917329844</v>
       </c>
       <c r="W23" t="n">
-        <v>102.4811647785233</v>
+        <v>57.94462678914073</v>
       </c>
       <c r="X23" t="n">
-        <v>102.4811647785233</v>
+        <v>30.07591440498301</v>
       </c>
       <c r="Y23" t="n">
-        <v>102.4811647785233</v>
+        <v>2.207202020825291</v>
       </c>
     </row>
     <row r="24">
@@ -6044,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>102.4811647785233</v>
+        <v>26.7539638887914</v>
       </c>
       <c r="C24" t="n">
-        <v>102.4811647785233</v>
+        <v>26.7539638887914</v>
       </c>
       <c r="D24" t="n">
-        <v>91.88647548521271</v>
+        <v>26.7539638887914</v>
       </c>
       <c r="E24" t="n">
-        <v>66.0073934704341</v>
+        <v>26.7539638887914</v>
       </c>
       <c r="F24" t="n">
-        <v>40.12831145565548</v>
+        <v>26.7539638887914</v>
       </c>
       <c r="G24" t="n">
-        <v>14.24922944087686</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="H24" t="n">
-        <v>2.049623295570466</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="I24" t="n">
-        <v>2.049623295570466</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="J24" t="n">
-        <v>2.049623295570466</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="K24" t="n">
-        <v>26.38889993046976</v>
+        <v>29.52132702853827</v>
       </c>
       <c r="L24" t="n">
-        <v>51.75298821315428</v>
+        <v>29.52132702853827</v>
       </c>
       <c r="M24" t="n">
-        <v>51.75298821315428</v>
+        <v>56.83545203625125</v>
       </c>
       <c r="N24" t="n">
-        <v>51.75298821315428</v>
+        <v>56.83545203625125</v>
       </c>
       <c r="O24" t="n">
-        <v>51.75298821315428</v>
+        <v>56.83545203625125</v>
       </c>
       <c r="P24" t="n">
-        <v>77.1170764958388</v>
+        <v>84.14957704396423</v>
       </c>
       <c r="Q24" t="n">
-        <v>102.4811647785233</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="R24" t="n">
-        <v>102.4811647785233</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="S24" t="n">
-        <v>102.4811647785233</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="T24" t="n">
-        <v>102.4811647785233</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="U24" t="n">
-        <v>102.4811647785233</v>
+        <v>54.62267627294912</v>
       </c>
       <c r="V24" t="n">
-        <v>102.4811647785233</v>
+        <v>26.7539638887914</v>
       </c>
       <c r="W24" t="n">
-        <v>102.4811647785233</v>
+        <v>26.7539638887914</v>
       </c>
       <c r="X24" t="n">
-        <v>102.4811647785233</v>
+        <v>26.7539638887914</v>
       </c>
       <c r="Y24" t="n">
-        <v>102.4811647785233</v>
+        <v>26.7539638887914</v>
       </c>
     </row>
     <row r="25">
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>50.72300074896609</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="C25" t="n">
-        <v>50.72300074896609</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="D25" t="n">
-        <v>27.92870531034908</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="E25" t="n">
-        <v>2.049623295570466</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="F25" t="n">
-        <v>2.049623295570466</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="G25" t="n">
-        <v>2.049623295570466</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="H25" t="n">
-        <v>2.049623295570466</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="I25" t="n">
-        <v>2.049623295570466</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="J25" t="n">
-        <v>2.049623295570466</v>
+        <v>4.078449383226349</v>
       </c>
       <c r="K25" t="n">
-        <v>2.049623295570466</v>
+        <v>4.078449383226349</v>
       </c>
       <c r="L25" t="n">
-        <v>27.41371157825499</v>
+        <v>31.39257439093933</v>
       </c>
       <c r="M25" t="n">
-        <v>52.77779986093951</v>
+        <v>58.7066993986523</v>
       </c>
       <c r="N25" t="n">
-        <v>78.14188814362403</v>
+        <v>86.02082440636528</v>
       </c>
       <c r="O25" t="n">
-        <v>102.4811647785233</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="P25" t="n">
-        <v>102.4811647785233</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="Q25" t="n">
-        <v>102.4811647785233</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="R25" t="n">
-        <v>76.6020827637447</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="S25" t="n">
-        <v>76.6020827637447</v>
+        <v>54.62267627294912</v>
       </c>
       <c r="T25" t="n">
-        <v>76.6020827637447</v>
+        <v>30.07591440498301</v>
       </c>
       <c r="U25" t="n">
-        <v>76.6020827637447</v>
+        <v>30.07591440498301</v>
       </c>
       <c r="V25" t="n">
-        <v>50.72300074896609</v>
+        <v>30.07591440498301</v>
       </c>
       <c r="W25" t="n">
-        <v>50.72300074896609</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="X25" t="n">
-        <v>50.72300074896609</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="Y25" t="n">
-        <v>50.72300074896609</v>
+        <v>2.207202020825291</v>
       </c>
     </row>
     <row r="26">
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>53.80778732512771</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="C26" t="n">
-        <v>53.80778732512771</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="D26" t="n">
-        <v>27.92870531034908</v>
+        <v>54.62267627294912</v>
       </c>
       <c r="E26" t="n">
-        <v>27.92870531034908</v>
+        <v>54.62267627294912</v>
       </c>
       <c r="F26" t="n">
-        <v>2.049623295570466</v>
+        <v>26.7539638887914</v>
       </c>
       <c r="G26" t="n">
-        <v>2.049623295570466</v>
+        <v>26.7539638887914</v>
       </c>
       <c r="H26" t="n">
-        <v>2.049623295570466</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="I26" t="n">
-        <v>2.049623295570466</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="J26" t="n">
-        <v>2.049623295570466</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="K26" t="n">
-        <v>27.41371157825499</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="L26" t="n">
-        <v>52.77779986093951</v>
+        <v>28.41772601812563</v>
       </c>
       <c r="M26" t="n">
-        <v>78.14188814362403</v>
+        <v>55.73185102583861</v>
       </c>
       <c r="N26" t="n">
-        <v>102.4811647785233</v>
+        <v>83.04597603355158</v>
       </c>
       <c r="O26" t="n">
-        <v>102.4811647785233</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="P26" t="n">
-        <v>102.4811647785233</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="Q26" t="n">
-        <v>102.4811647785233</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="R26" t="n">
-        <v>79.68686933990632</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="S26" t="n">
-        <v>79.68686933990632</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="T26" t="n">
-        <v>79.68686933990632</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="U26" t="n">
-        <v>79.68686933990632</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="V26" t="n">
-        <v>79.68686933990632</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="W26" t="n">
-        <v>79.68686933990632</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="X26" t="n">
-        <v>79.68686933990632</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="Y26" t="n">
-        <v>53.80778732512771</v>
+        <v>82.49138865710684</v>
       </c>
     </row>
     <row r="27">
@@ -6281,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>50.72300074896609</v>
+        <v>108.8828456228756</v>
       </c>
       <c r="C27" t="n">
-        <v>50.72300074896609</v>
+        <v>81.01413323871789</v>
       </c>
       <c r="D27" t="n">
-        <v>50.72300074896609</v>
+        <v>81.01413323871789</v>
       </c>
       <c r="E27" t="n">
-        <v>50.72300074896609</v>
+        <v>81.01413323871789</v>
       </c>
       <c r="F27" t="n">
-        <v>50.72300074896609</v>
+        <v>53.14542085456017</v>
       </c>
       <c r="G27" t="n">
-        <v>25.11912974514762</v>
+        <v>25.27670847040245</v>
       </c>
       <c r="H27" t="n">
-        <v>2.049623295570466</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="I27" t="n">
-        <v>2.049623295570466</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="J27" t="n">
-        <v>2.049623295570466</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="K27" t="n">
-        <v>26.38889993046976</v>
+        <v>29.52132702853827</v>
       </c>
       <c r="L27" t="n">
-        <v>51.75298821315428</v>
+        <v>56.83545203625125</v>
       </c>
       <c r="M27" t="n">
-        <v>77.1170764958388</v>
+        <v>83.04597603355158</v>
       </c>
       <c r="N27" t="n">
-        <v>102.4811647785233</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="O27" t="n">
-        <v>102.4811647785233</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="P27" t="n">
-        <v>102.4811647785233</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="Q27" t="n">
-        <v>102.4811647785233</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="R27" t="n">
-        <v>102.4811647785233</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="S27" t="n">
-        <v>102.4811647785233</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="T27" t="n">
-        <v>102.4811647785233</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="U27" t="n">
-        <v>102.4811647785233</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="V27" t="n">
-        <v>102.4811647785233</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="W27" t="n">
-        <v>76.6020827637447</v>
+        <v>108.8828456228756</v>
       </c>
       <c r="X27" t="n">
-        <v>76.6020827637447</v>
+        <v>108.8828456228756</v>
       </c>
       <c r="Y27" t="n">
-        <v>76.6020827637447</v>
+        <v>108.8828456228756</v>
       </c>
     </row>
     <row r="28">
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>31.93127830555888</v>
+        <v>30.07591440498301</v>
       </c>
       <c r="C28" t="n">
-        <v>31.93127830555888</v>
+        <v>30.07591440498301</v>
       </c>
       <c r="D28" t="n">
-        <v>31.93127830555888</v>
+        <v>30.07591440498301</v>
       </c>
       <c r="E28" t="n">
-        <v>31.93127830555888</v>
+        <v>30.07591440498301</v>
       </c>
       <c r="F28" t="n">
-        <v>31.93127830555888</v>
+        <v>30.07591440498301</v>
       </c>
       <c r="G28" t="n">
-        <v>6.052196290780262</v>
+        <v>30.07591440498301</v>
       </c>
       <c r="H28" t="n">
-        <v>6.052196290780262</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="I28" t="n">
-        <v>6.052196290780262</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="J28" t="n">
-        <v>2.049623295570466</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="K28" t="n">
-        <v>2.049623295570477</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="L28" t="n">
-        <v>27.413711578255</v>
+        <v>29.52132702853827</v>
       </c>
       <c r="M28" t="n">
-        <v>52.77779986093952</v>
+        <v>56.83545203625125</v>
       </c>
       <c r="N28" t="n">
-        <v>78.14188814362404</v>
+        <v>84.14957704396423</v>
       </c>
       <c r="O28" t="n">
-        <v>102.4811647785233</v>
+        <v>108.4888536788635</v>
       </c>
       <c r="P28" t="n">
-        <v>102.4811647785233</v>
+        <v>108.4888536788635</v>
       </c>
       <c r="Q28" t="n">
-        <v>102.4811647785233</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="R28" t="n">
-        <v>102.4811647785233</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="S28" t="n">
-        <v>83.68944233511611</v>
+        <v>85.81333917329844</v>
       </c>
       <c r="T28" t="n">
-        <v>83.68944233511611</v>
+        <v>85.81333917329844</v>
       </c>
       <c r="U28" t="n">
-        <v>83.68944233511611</v>
+        <v>85.81333917329844</v>
       </c>
       <c r="V28" t="n">
-        <v>83.68944233511611</v>
+        <v>85.81333917329844</v>
       </c>
       <c r="W28" t="n">
-        <v>83.68944233511611</v>
+        <v>85.81333917329844</v>
       </c>
       <c r="X28" t="n">
-        <v>57.81036032033749</v>
+        <v>57.94462678914073</v>
       </c>
       <c r="Y28" t="n">
-        <v>57.81036032033749</v>
+        <v>30.07591440498301</v>
       </c>
     </row>
     <row r="29">
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>27.92870531034908</v>
+        <v>85.81333917329844</v>
       </c>
       <c r="C29" t="n">
-        <v>27.92870531034908</v>
+        <v>85.81333917329844</v>
       </c>
       <c r="D29" t="n">
-        <v>2.049623295570466</v>
+        <v>85.81333917329844</v>
       </c>
       <c r="E29" t="n">
-        <v>2.049623295570466</v>
+        <v>57.94462678914073</v>
       </c>
       <c r="F29" t="n">
-        <v>2.049623295570466</v>
+        <v>30.07591440498301</v>
       </c>
       <c r="G29" t="n">
-        <v>2.049623295570466</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="H29" t="n">
-        <v>2.049623295570466</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="I29" t="n">
-        <v>2.049623295570466</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="J29" t="n">
-        <v>2.049623295570466</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="K29" t="n">
-        <v>26.38889993046976</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="L29" t="n">
-        <v>26.38889993046976</v>
+        <v>29.52132702853827</v>
       </c>
       <c r="M29" t="n">
-        <v>26.38889993046976</v>
+        <v>56.83545203625125</v>
       </c>
       <c r="N29" t="n">
-        <v>51.75298821315428</v>
+        <v>84.14957704396423</v>
       </c>
       <c r="O29" t="n">
-        <v>77.1170764958388</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="P29" t="n">
-        <v>102.4811647785233</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="Q29" t="n">
-        <v>102.4811647785233</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="R29" t="n">
-        <v>102.4811647785233</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="S29" t="n">
-        <v>79.68686933990632</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="T29" t="n">
-        <v>79.68686933990632</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="U29" t="n">
-        <v>53.80778732512771</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="V29" t="n">
-        <v>27.92870531034908</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="W29" t="n">
-        <v>27.92870531034908</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="X29" t="n">
-        <v>27.92870531034908</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="Y29" t="n">
-        <v>27.92870531034908</v>
+        <v>110.3601010412646</v>
       </c>
     </row>
     <row r="30">
@@ -6518,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>53.80778732512771</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="C30" t="n">
-        <v>27.92870531034908</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="D30" t="n">
-        <v>27.92870531034908</v>
+        <v>108.8828456228756</v>
       </c>
       <c r="E30" t="n">
-        <v>27.92870531034908</v>
+        <v>81.01413323871789</v>
       </c>
       <c r="F30" t="n">
-        <v>2.049623295570466</v>
+        <v>53.14542085456017</v>
       </c>
       <c r="G30" t="n">
-        <v>2.049623295570466</v>
+        <v>25.27670847040245</v>
       </c>
       <c r="H30" t="n">
-        <v>2.049623295570466</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="I30" t="n">
-        <v>2.049623295570466</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="J30" t="n">
-        <v>2.049623295570466</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="K30" t="n">
-        <v>2.049623295570466</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="L30" t="n">
-        <v>26.38889993046976</v>
+        <v>28.41772601812563</v>
       </c>
       <c r="M30" t="n">
-        <v>51.75298821315428</v>
+        <v>55.73185102583861</v>
       </c>
       <c r="N30" t="n">
-        <v>77.1170764958388</v>
+        <v>55.73185102583861</v>
       </c>
       <c r="O30" t="n">
-        <v>77.1170764958388</v>
+        <v>83.04597603355158</v>
       </c>
       <c r="P30" t="n">
-        <v>102.4811647785233</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="Q30" t="n">
-        <v>102.4811647785233</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="R30" t="n">
-        <v>102.4811647785233</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="S30" t="n">
-        <v>102.4811647785233</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="T30" t="n">
-        <v>102.4811647785233</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="U30" t="n">
-        <v>102.4811647785233</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="V30" t="n">
-        <v>102.4811647785233</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="W30" t="n">
-        <v>102.4811647785233</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="X30" t="n">
-        <v>76.6020827637447</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="Y30" t="n">
-        <v>76.6020827637447</v>
+        <v>110.3601010412646</v>
       </c>
     </row>
     <row r="31">
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>27.92870531034908</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="C31" t="n">
-        <v>27.92870531034908</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="D31" t="n">
-        <v>2.049623295570466</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="E31" t="n">
-        <v>2.049623295570466</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="F31" t="n">
-        <v>2.049623295570466</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="G31" t="n">
-        <v>2.049623295570466</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="H31" t="n">
-        <v>2.049623295570466</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="I31" t="n">
-        <v>2.049623295570466</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="J31" t="n">
-        <v>2.049623295570466</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="K31" t="n">
-        <v>2.049623295570466</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="L31" t="n">
-        <v>27.41371157825499</v>
+        <v>29.52132702853827</v>
       </c>
       <c r="M31" t="n">
-        <v>52.77779986093951</v>
+        <v>56.83545203625125</v>
       </c>
       <c r="N31" t="n">
-        <v>78.14188814362403</v>
+        <v>84.14957704396423</v>
       </c>
       <c r="O31" t="n">
-        <v>102.4811647785233</v>
+        <v>108.4888536788635</v>
       </c>
       <c r="P31" t="n">
-        <v>102.4811647785233</v>
+        <v>108.4888536788635</v>
       </c>
       <c r="Q31" t="n">
-        <v>102.4811647785233</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="R31" t="n">
-        <v>76.6020827637447</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="S31" t="n">
-        <v>53.80778732512771</v>
+        <v>57.94462678914073</v>
       </c>
       <c r="T31" t="n">
-        <v>53.80778732512771</v>
+        <v>30.07591440498301</v>
       </c>
       <c r="U31" t="n">
-        <v>53.80778732512771</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="V31" t="n">
-        <v>53.80778732512771</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="W31" t="n">
-        <v>53.80778732512771</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="X31" t="n">
-        <v>53.80778732512771</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="Y31" t="n">
-        <v>53.80778732512771</v>
+        <v>2.207202020825291</v>
       </c>
     </row>
     <row r="32">
@@ -6676,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2.049623295570466</v>
+        <v>54.62267627294912</v>
       </c>
       <c r="C32" t="n">
-        <v>2.049623295570466</v>
+        <v>54.62267627294912</v>
       </c>
       <c r="D32" t="n">
-        <v>2.049623295570466</v>
+        <v>54.62267627294912</v>
       </c>
       <c r="E32" t="n">
-        <v>2.049623295570466</v>
+        <v>54.62267627294912</v>
       </c>
       <c r="F32" t="n">
-        <v>2.049623295570466</v>
+        <v>26.7539638887914</v>
       </c>
       <c r="G32" t="n">
-        <v>2.049623295570466</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="H32" t="n">
-        <v>2.049623295570466</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="I32" t="n">
-        <v>2.049623295570466</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="J32" t="n">
-        <v>2.049623295570466</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="K32" t="n">
-        <v>2.049623295570466</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="L32" t="n">
-        <v>2.049623295570466</v>
+        <v>29.52132702853827</v>
       </c>
       <c r="M32" t="n">
-        <v>26.38889993046976</v>
+        <v>56.83545203625125</v>
       </c>
       <c r="N32" t="n">
-        <v>51.75298821315428</v>
+        <v>83.04597603355158</v>
       </c>
       <c r="O32" t="n">
-        <v>77.1170764958388</v>
+        <v>83.04597603355158</v>
       </c>
       <c r="P32" t="n">
-        <v>102.4811647785233</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="Q32" t="n">
-        <v>102.4811647785233</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="R32" t="n">
-        <v>102.4811647785233</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="S32" t="n">
-        <v>102.4811647785233</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="T32" t="n">
-        <v>102.4811647785233</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="U32" t="n">
-        <v>102.4811647785233</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="V32" t="n">
-        <v>79.68686933990632</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="W32" t="n">
-        <v>53.80778732512771</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="X32" t="n">
-        <v>27.92870531034908</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="Y32" t="n">
-        <v>2.049623295570466</v>
+        <v>54.62267627294912</v>
       </c>
     </row>
     <row r="33">
@@ -6755,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>76.6020827637447</v>
+        <v>85.81333917329844</v>
       </c>
       <c r="C33" t="n">
-        <v>50.72300074896609</v>
+        <v>57.94462678914073</v>
       </c>
       <c r="D33" t="n">
-        <v>50.72300074896609</v>
+        <v>30.07591440498301</v>
       </c>
       <c r="E33" t="n">
-        <v>27.92870531034908</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="F33" t="n">
-        <v>2.049623295570466</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="G33" t="n">
-        <v>2.049623295570466</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="H33" t="n">
-        <v>2.049623295570466</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="I33" t="n">
-        <v>2.049623295570466</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="J33" t="n">
-        <v>2.049623295570466</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="K33" t="n">
-        <v>26.38889993046976</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="L33" t="n">
-        <v>51.75298821315428</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="M33" t="n">
-        <v>77.1170764958388</v>
+        <v>29.52132702853827</v>
       </c>
       <c r="N33" t="n">
-        <v>77.1170764958388</v>
+        <v>56.83545203625125</v>
       </c>
       <c r="O33" t="n">
-        <v>77.1170764958388</v>
+        <v>84.14957704396423</v>
       </c>
       <c r="P33" t="n">
-        <v>77.1170764958388</v>
+        <v>84.14957704396423</v>
       </c>
       <c r="Q33" t="n">
-        <v>102.4811647785233</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="R33" t="n">
-        <v>102.4811647785233</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="S33" t="n">
-        <v>102.4811647785233</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="T33" t="n">
-        <v>76.6020827637447</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="U33" t="n">
-        <v>76.6020827637447</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="V33" t="n">
-        <v>76.6020827637447</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="W33" t="n">
-        <v>76.6020827637447</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="X33" t="n">
-        <v>76.6020827637447</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="Y33" t="n">
-        <v>76.6020827637447</v>
+        <v>85.81333917329844</v>
       </c>
     </row>
     <row r="34">
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>50.72300074896609</v>
+        <v>30.07591440498301</v>
       </c>
       <c r="C34" t="n">
-        <v>50.72300074896609</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="D34" t="n">
-        <v>27.92870531034908</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="E34" t="n">
-        <v>2.049623295570466</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="F34" t="n">
-        <v>2.049623295570466</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="G34" t="n">
-        <v>2.049623295570466</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="H34" t="n">
-        <v>2.049623295570466</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="I34" t="n">
-        <v>2.049623295570466</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="J34" t="n">
-        <v>2.049623295570466</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="K34" t="n">
-        <v>2.049623295570477</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="L34" t="n">
-        <v>27.413711578255</v>
+        <v>29.52132702853827</v>
       </c>
       <c r="M34" t="n">
-        <v>52.77779986093952</v>
+        <v>56.83545203625125</v>
       </c>
       <c r="N34" t="n">
-        <v>78.14188814362404</v>
+        <v>84.14957704396423</v>
       </c>
       <c r="O34" t="n">
-        <v>102.4811647785233</v>
+        <v>108.4888536788635</v>
       </c>
       <c r="P34" t="n">
-        <v>102.4811647785233</v>
+        <v>108.4888536788635</v>
       </c>
       <c r="Q34" t="n">
-        <v>102.4811647785233</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="R34" t="n">
-        <v>102.4811647785233</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="S34" t="n">
-        <v>102.4811647785233</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="T34" t="n">
-        <v>102.4811647785233</v>
+        <v>85.81333917329844</v>
       </c>
       <c r="U34" t="n">
-        <v>102.4811647785233</v>
+        <v>85.81333917329844</v>
       </c>
       <c r="V34" t="n">
-        <v>102.4811647785233</v>
+        <v>85.81333917329844</v>
       </c>
       <c r="W34" t="n">
-        <v>76.6020827637447</v>
+        <v>85.81333917329844</v>
       </c>
       <c r="X34" t="n">
-        <v>50.72300074896609</v>
+        <v>57.94462678914073</v>
       </c>
       <c r="Y34" t="n">
-        <v>50.72300074896609</v>
+        <v>57.94462678914073</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2.049623295570466</v>
+        <v>30.07591440498301</v>
       </c>
       <c r="C35" t="n">
-        <v>2.049623295570466</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="D35" t="n">
-        <v>2.049623295570466</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="E35" t="n">
-        <v>2.049623295570466</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="F35" t="n">
-        <v>2.049623295570466</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="G35" t="n">
-        <v>2.049623295570466</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="H35" t="n">
-        <v>2.049623295570466</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="I35" t="n">
-        <v>2.049623295570466</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="J35" t="n">
-        <v>2.049623295570466</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="K35" t="n">
-        <v>2.049623295570466</v>
+        <v>29.52132702853827</v>
       </c>
       <c r="L35" t="n">
-        <v>27.41371157825499</v>
+        <v>56.83545203625125</v>
       </c>
       <c r="M35" t="n">
-        <v>52.77779986093951</v>
+        <v>84.14957704396423</v>
       </c>
       <c r="N35" t="n">
-        <v>78.14188814362403</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="O35" t="n">
-        <v>102.4811647785233</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="P35" t="n">
-        <v>102.4811647785233</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="Q35" t="n">
-        <v>102.4811647785233</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="R35" t="n">
-        <v>102.4811647785233</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="S35" t="n">
-        <v>79.68686933990632</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="T35" t="n">
-        <v>79.68686933990632</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="U35" t="n">
-        <v>79.68686933990632</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="V35" t="n">
-        <v>79.68686933990632</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="W35" t="n">
-        <v>53.80778732512771</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="X35" t="n">
-        <v>53.80778732512771</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="Y35" t="n">
-        <v>27.92870531034908</v>
+        <v>54.62267627294912</v>
       </c>
     </row>
     <row r="36">
@@ -6992,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>79.68686933990632</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="C36" t="n">
-        <v>79.68686933990632</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="D36" t="n">
-        <v>53.80778732512771</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="E36" t="n">
-        <v>53.80778732512771</v>
+        <v>57.94462678914073</v>
       </c>
       <c r="F36" t="n">
-        <v>27.92870531034908</v>
+        <v>30.07591440498301</v>
       </c>
       <c r="G36" t="n">
-        <v>2.049623295570466</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="H36" t="n">
-        <v>2.049623295570466</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="I36" t="n">
-        <v>2.049623295570466</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="J36" t="n">
-        <v>2.049623295570466</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="K36" t="n">
-        <v>2.049623295570466</v>
+        <v>28.41772601812563</v>
       </c>
       <c r="L36" t="n">
-        <v>2.049623295570466</v>
+        <v>28.41772601812563</v>
       </c>
       <c r="M36" t="n">
-        <v>26.38889993046976</v>
+        <v>28.41772601812563</v>
       </c>
       <c r="N36" t="n">
-        <v>26.38889993046976</v>
+        <v>55.73185102583861</v>
       </c>
       <c r="O36" t="n">
-        <v>51.75298821315428</v>
+        <v>83.04597603355158</v>
       </c>
       <c r="P36" t="n">
-        <v>77.1170764958388</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="Q36" t="n">
-        <v>102.4811647785233</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="R36" t="n">
-        <v>102.4811647785233</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="S36" t="n">
-        <v>102.4811647785233</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="T36" t="n">
-        <v>102.4811647785233</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="U36" t="n">
-        <v>102.4811647785233</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="V36" t="n">
-        <v>79.68686933990632</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="W36" t="n">
-        <v>79.68686933990632</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="X36" t="n">
-        <v>79.68686933990632</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="Y36" t="n">
-        <v>79.68686933990632</v>
+        <v>82.49138865710684</v>
       </c>
     </row>
     <row r="37">
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>102.4811647785233</v>
+        <v>57.94462678914073</v>
       </c>
       <c r="C37" t="n">
-        <v>79.68686933990632</v>
+        <v>57.94462678914073</v>
       </c>
       <c r="D37" t="n">
-        <v>53.80778732512771</v>
+        <v>57.94462678914073</v>
       </c>
       <c r="E37" t="n">
-        <v>27.92870531034908</v>
+        <v>57.94462678914073</v>
       </c>
       <c r="F37" t="n">
-        <v>2.049623295570466</v>
+        <v>57.94462678914073</v>
       </c>
       <c r="G37" t="n">
-        <v>2.049623295570466</v>
+        <v>30.07591440498301</v>
       </c>
       <c r="H37" t="n">
-        <v>2.049623295570466</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="I37" t="n">
-        <v>2.049623295570466</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="J37" t="n">
-        <v>2.049623295570466</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="K37" t="n">
-        <v>2.049623295570466</v>
+        <v>4.078449383226349</v>
       </c>
       <c r="L37" t="n">
-        <v>27.41371157825499</v>
+        <v>31.39257439093933</v>
       </c>
       <c r="M37" t="n">
-        <v>52.77779986093952</v>
+        <v>58.7066993986523</v>
       </c>
       <c r="N37" t="n">
-        <v>78.14188814362404</v>
+        <v>86.02082440636528</v>
       </c>
       <c r="O37" t="n">
-        <v>102.4811647785233</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="P37" t="n">
-        <v>102.4811647785233</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="Q37" t="n">
-        <v>102.4811647785233</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="R37" t="n">
-        <v>102.4811647785233</v>
+        <v>85.81333917329844</v>
       </c>
       <c r="S37" t="n">
-        <v>102.4811647785233</v>
+        <v>57.94462678914073</v>
       </c>
       <c r="T37" t="n">
-        <v>102.4811647785233</v>
+        <v>57.94462678914073</v>
       </c>
       <c r="U37" t="n">
-        <v>102.4811647785233</v>
+        <v>57.94462678914073</v>
       </c>
       <c r="V37" t="n">
-        <v>102.4811647785233</v>
+        <v>57.94462678914073</v>
       </c>
       <c r="W37" t="n">
-        <v>102.4811647785233</v>
+        <v>57.94462678914073</v>
       </c>
       <c r="X37" t="n">
-        <v>102.4811647785233</v>
+        <v>57.94462678914073</v>
       </c>
       <c r="Y37" t="n">
-        <v>102.4811647785233</v>
+        <v>57.94462678914073</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>27.92870531034908</v>
+        <v>54.62267627294912</v>
       </c>
       <c r="C38" t="n">
-        <v>27.92870531034908</v>
+        <v>54.62267627294912</v>
       </c>
       <c r="D38" t="n">
-        <v>27.92870531034908</v>
+        <v>54.62267627294912</v>
       </c>
       <c r="E38" t="n">
-        <v>27.92870531034908</v>
+        <v>54.62267627294912</v>
       </c>
       <c r="F38" t="n">
-        <v>2.049623295570466</v>
+        <v>54.62267627294912</v>
       </c>
       <c r="G38" t="n">
-        <v>2.049623295570466</v>
+        <v>54.62267627294912</v>
       </c>
       <c r="H38" t="n">
-        <v>2.049623295570466</v>
+        <v>26.7539638887914</v>
       </c>
       <c r="I38" t="n">
-        <v>2.049623295570466</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="J38" t="n">
-        <v>2.049623295570466</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="K38" t="n">
-        <v>2.049623295570466</v>
+        <v>29.52132702853827</v>
       </c>
       <c r="L38" t="n">
-        <v>2.049623295570466</v>
+        <v>29.52132702853827</v>
       </c>
       <c r="M38" t="n">
-        <v>26.38889993046976</v>
+        <v>56.83545203625125</v>
       </c>
       <c r="N38" t="n">
-        <v>51.75298821315428</v>
+        <v>84.14957704396423</v>
       </c>
       <c r="O38" t="n">
-        <v>77.1170764958388</v>
+        <v>84.14957704396423</v>
       </c>
       <c r="P38" t="n">
-        <v>102.4811647785233</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="Q38" t="n">
-        <v>102.4811647785233</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="R38" t="n">
-        <v>102.4811647785233</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="S38" t="n">
-        <v>102.4811647785233</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="T38" t="n">
-        <v>79.68686933990632</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="U38" t="n">
-        <v>79.68686933990632</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="V38" t="n">
-        <v>79.68686933990632</v>
+        <v>54.62267627294912</v>
       </c>
       <c r="W38" t="n">
-        <v>79.68686933990632</v>
+        <v>54.62267627294912</v>
       </c>
       <c r="X38" t="n">
-        <v>79.68686933990632</v>
+        <v>54.62267627294912</v>
       </c>
       <c r="Y38" t="n">
-        <v>53.80778732512771</v>
+        <v>54.62267627294912</v>
       </c>
     </row>
     <row r="39">
@@ -7229,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>87.16760808992653</v>
+        <v>30.07591440498301</v>
       </c>
       <c r="C39" t="n">
-        <v>87.16760808992653</v>
+        <v>30.07591440498301</v>
       </c>
       <c r="D39" t="n">
-        <v>61.28852607514791</v>
+        <v>30.07591440498301</v>
       </c>
       <c r="E39" t="n">
-        <v>61.28852607514791</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="F39" t="n">
-        <v>35.4094440603693</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="G39" t="n">
-        <v>9.530362045590676</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="H39" t="n">
-        <v>2.049623295570466</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="I39" t="n">
-        <v>2.049623295570466</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="J39" t="n">
-        <v>2.049623295570466</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="K39" t="n">
-        <v>2.049623295570466</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="L39" t="n">
-        <v>26.38889993046976</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="M39" t="n">
-        <v>51.75298821315428</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="N39" t="n">
-        <v>77.1170764958388</v>
+        <v>28.41772601812563</v>
       </c>
       <c r="O39" t="n">
-        <v>102.4811647785233</v>
+        <v>55.73185102583861</v>
       </c>
       <c r="P39" t="n">
-        <v>102.4811647785233</v>
+        <v>83.04597603355158</v>
       </c>
       <c r="Q39" t="n">
-        <v>102.4811647785233</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="R39" t="n">
-        <v>102.4811647785233</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="S39" t="n">
-        <v>102.4811647785233</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="T39" t="n">
-        <v>102.4811647785233</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="U39" t="n">
-        <v>102.4811647785233</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="V39" t="n">
-        <v>102.4811647785233</v>
+        <v>85.81333917329844</v>
       </c>
       <c r="W39" t="n">
-        <v>102.4811647785233</v>
+        <v>85.81333917329844</v>
       </c>
       <c r="X39" t="n">
-        <v>102.4811647785233</v>
+        <v>57.94462678914073</v>
       </c>
       <c r="Y39" t="n">
-        <v>102.4811647785233</v>
+        <v>57.94462678914073</v>
       </c>
     </row>
     <row r="40">
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.84391873418747</v>
+        <v>54.62267627294912</v>
       </c>
       <c r="C40" t="n">
-        <v>24.84391873418747</v>
+        <v>54.62267627294912</v>
       </c>
       <c r="D40" t="n">
-        <v>24.84391873418747</v>
+        <v>54.62267627294912</v>
       </c>
       <c r="E40" t="n">
-        <v>24.84391873418747</v>
+        <v>54.62267627294912</v>
       </c>
       <c r="F40" t="n">
-        <v>24.84391873418747</v>
+        <v>54.62267627294912</v>
       </c>
       <c r="G40" t="n">
-        <v>24.84391873418747</v>
+        <v>30.07591440498301</v>
       </c>
       <c r="H40" t="n">
-        <v>2.049623295570466</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="I40" t="n">
-        <v>2.049623295570466</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="J40" t="n">
-        <v>2.049623295570466</v>
+        <v>4.078449383226349</v>
       </c>
       <c r="K40" t="n">
-        <v>2.049623295570466</v>
+        <v>4.078449383226349</v>
       </c>
       <c r="L40" t="n">
-        <v>27.41371157825499</v>
+        <v>31.39257439093933</v>
       </c>
       <c r="M40" t="n">
-        <v>52.77779986093951</v>
+        <v>58.7066993986523</v>
       </c>
       <c r="N40" t="n">
-        <v>78.14188814362403</v>
+        <v>86.02082440636528</v>
       </c>
       <c r="O40" t="n">
-        <v>102.4811647785233</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="P40" t="n">
-        <v>102.4811647785233</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="Q40" t="n">
-        <v>102.4811647785233</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="R40" t="n">
-        <v>76.6020827637447</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="S40" t="n">
-        <v>50.72300074896609</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="T40" t="n">
-        <v>50.72300074896609</v>
+        <v>54.62267627294912</v>
       </c>
       <c r="U40" t="n">
-        <v>24.84391873418747</v>
+        <v>54.62267627294912</v>
       </c>
       <c r="V40" t="n">
-        <v>24.84391873418747</v>
+        <v>54.62267627294912</v>
       </c>
       <c r="W40" t="n">
-        <v>24.84391873418747</v>
+        <v>54.62267627294912</v>
       </c>
       <c r="X40" t="n">
-        <v>24.84391873418747</v>
+        <v>54.62267627294912</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.84391873418747</v>
+        <v>54.62267627294912</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2.049623295570466</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="C41" t="n">
-        <v>2.049623295570466</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="D41" t="n">
-        <v>2.049623295570466</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="E41" t="n">
-        <v>2.049623295570466</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="F41" t="n">
-        <v>2.049623295570466</v>
+        <v>54.62267627294912</v>
       </c>
       <c r="G41" t="n">
-        <v>2.049623295570466</v>
+        <v>26.7539638887914</v>
       </c>
       <c r="H41" t="n">
-        <v>2.049623295570466</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="I41" t="n">
-        <v>2.049623295570466</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="J41" t="n">
-        <v>2.049623295570466</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="K41" t="n">
-        <v>26.38889993046976</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="L41" t="n">
-        <v>26.38889993046976</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="M41" t="n">
-        <v>26.38889993046976</v>
+        <v>29.52132702853827</v>
       </c>
       <c r="N41" t="n">
-        <v>51.75298821315428</v>
+        <v>55.73185102583861</v>
       </c>
       <c r="O41" t="n">
-        <v>77.1170764958388</v>
+        <v>83.04597603355158</v>
       </c>
       <c r="P41" t="n">
-        <v>102.4811647785233</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="Q41" t="n">
-        <v>102.4811647785233</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="R41" t="n">
-        <v>102.4811647785233</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="S41" t="n">
-        <v>102.4811647785233</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="T41" t="n">
-        <v>102.4811647785233</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="U41" t="n">
-        <v>102.4811647785233</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="V41" t="n">
-        <v>102.4811647785233</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="W41" t="n">
-        <v>76.6020827637447</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="X41" t="n">
-        <v>50.72300074896609</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="Y41" t="n">
-        <v>24.84391873418747</v>
+        <v>82.49138865710684</v>
       </c>
     </row>
     <row r="42">
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>24.84391873418747</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="C42" t="n">
-        <v>24.84391873418747</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="D42" t="n">
-        <v>24.84391873418747</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="E42" t="n">
-        <v>24.84391873418747</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="F42" t="n">
-        <v>24.84391873418747</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="G42" t="n">
-        <v>24.84391873418747</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="H42" t="n">
-        <v>24.84391873418747</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="I42" t="n">
-        <v>2.049623295570466</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="J42" t="n">
-        <v>2.049623295570466</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="K42" t="n">
-        <v>2.049623295570466</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="L42" t="n">
-        <v>2.049623295570466</v>
+        <v>29.52132702853827</v>
       </c>
       <c r="M42" t="n">
-        <v>27.41371157825499</v>
+        <v>56.83545203625125</v>
       </c>
       <c r="N42" t="n">
-        <v>52.77779986093951</v>
+        <v>84.14957704396423</v>
       </c>
       <c r="O42" t="n">
-        <v>78.14188814362403</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="P42" t="n">
-        <v>102.4811647785233</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="Q42" t="n">
-        <v>102.4811647785233</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="R42" t="n">
-        <v>102.4811647785233</v>
+        <v>85.81333917329844</v>
       </c>
       <c r="S42" t="n">
-        <v>102.4811647785233</v>
+        <v>57.94462678914073</v>
       </c>
       <c r="T42" t="n">
-        <v>102.4811647785233</v>
+        <v>30.07591440498301</v>
       </c>
       <c r="U42" t="n">
-        <v>76.6020827637447</v>
+        <v>30.07591440498301</v>
       </c>
       <c r="V42" t="n">
-        <v>50.72300074896609</v>
+        <v>30.07591440498301</v>
       </c>
       <c r="W42" t="n">
-        <v>24.84391873418747</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="X42" t="n">
-        <v>24.84391873418747</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="Y42" t="n">
-        <v>24.84391873418747</v>
+        <v>2.207202020825291</v>
       </c>
     </row>
     <row r="43">
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>27.92870531034908</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="C43" t="n">
-        <v>27.92870531034908</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="D43" t="n">
-        <v>27.92870531034908</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="E43" t="n">
-        <v>27.92870531034908</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="F43" t="n">
-        <v>27.92870531034908</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="G43" t="n">
-        <v>27.92870531034908</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="H43" t="n">
-        <v>27.92870531034908</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="I43" t="n">
-        <v>2.049623295570466</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="J43" t="n">
-        <v>2.049623295570466</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="K43" t="n">
-        <v>2.049623295570466</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="L43" t="n">
-        <v>27.41371157825499</v>
+        <v>29.52132702853827</v>
       </c>
       <c r="M43" t="n">
-        <v>52.77779986093951</v>
+        <v>56.83545203625125</v>
       </c>
       <c r="N43" t="n">
-        <v>78.14188814362404</v>
+        <v>84.14957704396423</v>
       </c>
       <c r="O43" t="n">
-        <v>102.4811647785233</v>
+        <v>108.4888536788635</v>
       </c>
       <c r="P43" t="n">
-        <v>102.4811647785233</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="Q43" t="n">
-        <v>102.4811647785233</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="R43" t="n">
-        <v>102.4811647785233</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="S43" t="n">
-        <v>102.4811647785233</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="T43" t="n">
-        <v>102.4811647785233</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="U43" t="n">
-        <v>102.4811647785233</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="V43" t="n">
-        <v>79.68686933990632</v>
+        <v>54.62267627294912</v>
       </c>
       <c r="W43" t="n">
-        <v>53.80778732512771</v>
+        <v>26.7539638887914</v>
       </c>
       <c r="X43" t="n">
-        <v>53.80778732512771</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="Y43" t="n">
-        <v>27.92870531034908</v>
+        <v>2.207202020825291</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2.049623295570466</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="C44" t="n">
-        <v>2.049623295570466</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="D44" t="n">
-        <v>2.049623295570466</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="E44" t="n">
-        <v>2.049623295570466</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="F44" t="n">
-        <v>2.049623295570466</v>
+        <v>57.94462678914073</v>
       </c>
       <c r="G44" t="n">
-        <v>2.049623295570466</v>
+        <v>30.07591440498301</v>
       </c>
       <c r="H44" t="n">
-        <v>2.049623295570466</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="I44" t="n">
-        <v>2.049623295570466</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="J44" t="n">
-        <v>2.049623295570466</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="K44" t="n">
-        <v>2.049623295570466</v>
+        <v>29.52132702853827</v>
       </c>
       <c r="L44" t="n">
-        <v>27.41371157825499</v>
+        <v>56.83545203625125</v>
       </c>
       <c r="M44" t="n">
-        <v>52.77779986093951</v>
+        <v>84.14957704396423</v>
       </c>
       <c r="N44" t="n">
-        <v>78.14188814362403</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="O44" t="n">
-        <v>102.4811647785233</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="P44" t="n">
-        <v>102.4811647785233</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="Q44" t="n">
-        <v>102.4811647785233</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="R44" t="n">
-        <v>102.4811647785233</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="S44" t="n">
-        <v>102.4811647785233</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="T44" t="n">
-        <v>76.6020827637447</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="U44" t="n">
-        <v>50.72300074896609</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="V44" t="n">
-        <v>24.84391873418747</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="W44" t="n">
-        <v>2.049623295570466</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="X44" t="n">
-        <v>2.049623295570466</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="Y44" t="n">
-        <v>2.049623295570466</v>
+        <v>82.49138865710684</v>
       </c>
     </row>
     <row r="45">
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>2.049623295570466</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="C45" t="n">
-        <v>2.049623295570466</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="D45" t="n">
-        <v>2.049623295570466</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="E45" t="n">
-        <v>2.049623295570466</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="F45" t="n">
-        <v>2.049623295570466</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="G45" t="n">
-        <v>2.049623295570466</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="H45" t="n">
-        <v>2.049623295570466</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="I45" t="n">
-        <v>2.049623295570466</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="J45" t="n">
-        <v>2.049623295570466</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="K45" t="n">
-        <v>2.049623295570466</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="L45" t="n">
-        <v>2.049623295570466</v>
+        <v>28.41772601812563</v>
       </c>
       <c r="M45" t="n">
-        <v>2.049623295570466</v>
+        <v>28.41772601812563</v>
       </c>
       <c r="N45" t="n">
-        <v>26.38889993046976</v>
+        <v>28.41772601812563</v>
       </c>
       <c r="O45" t="n">
-        <v>51.75298821315428</v>
+        <v>55.73185102583861</v>
       </c>
       <c r="P45" t="n">
-        <v>77.1170764958388</v>
+        <v>83.04597603355158</v>
       </c>
       <c r="Q45" t="n">
-        <v>102.4811647785233</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="R45" t="n">
-        <v>102.4811647785233</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="S45" t="n">
-        <v>76.6020827637447</v>
+        <v>57.94462678914073</v>
       </c>
       <c r="T45" t="n">
-        <v>50.72300074896609</v>
+        <v>57.94462678914073</v>
       </c>
       <c r="U45" t="n">
-        <v>27.92870531034908</v>
+        <v>30.07591440498301</v>
       </c>
       <c r="V45" t="n">
-        <v>27.92870531034908</v>
+        <v>30.07591440498301</v>
       </c>
       <c r="W45" t="n">
-        <v>2.049623295570466</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="X45" t="n">
-        <v>2.049623295570466</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="Y45" t="n">
-        <v>2.049623295570466</v>
+        <v>2.207202020825291</v>
       </c>
     </row>
     <row r="46">
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.84391873418747</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="C46" t="n">
-        <v>24.84391873418747</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="D46" t="n">
-        <v>24.84391873418747</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="E46" t="n">
-        <v>24.84391873418747</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="F46" t="n">
-        <v>24.84391873418747</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="G46" t="n">
-        <v>24.84391873418747</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="H46" t="n">
-        <v>24.84391873418747</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="I46" t="n">
-        <v>24.84391873418747</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="J46" t="n">
-        <v>2.049623295570466</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="K46" t="n">
-        <v>2.049623295570466</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="L46" t="n">
-        <v>27.41371157825499</v>
+        <v>29.52132702853827</v>
       </c>
       <c r="M46" t="n">
-        <v>52.77779986093951</v>
+        <v>56.83545203625125</v>
       </c>
       <c r="N46" t="n">
-        <v>78.14188814362404</v>
+        <v>84.14957704396423</v>
       </c>
       <c r="O46" t="n">
-        <v>102.4811647785233</v>
+        <v>108.4888536788635</v>
       </c>
       <c r="P46" t="n">
-        <v>102.4811647785233</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="Q46" t="n">
-        <v>102.4811647785233</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="R46" t="n">
-        <v>102.4811647785233</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="S46" t="n">
-        <v>102.4811647785233</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="T46" t="n">
-        <v>76.6020827637447</v>
+        <v>57.94462678914073</v>
       </c>
       <c r="U46" t="n">
-        <v>50.72300074896609</v>
+        <v>30.07591440498301</v>
       </c>
       <c r="V46" t="n">
-        <v>24.84391873418747</v>
+        <v>30.07591440498301</v>
       </c>
       <c r="W46" t="n">
-        <v>24.84391873418747</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="X46" t="n">
-        <v>24.84391873418747</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.84391873418747</v>
+        <v>2.207202020825291</v>
       </c>
     </row>
   </sheetData>
@@ -9640,22 +9640,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
-        <v>244.6749789590202</v>
+        <v>246.5651278099304</v>
       </c>
       <c r="L23" t="n">
-        <v>235.7664149699872</v>
+        <v>263.3564402303034</v>
       </c>
       <c r="M23" t="n">
-        <v>230.3462332272727</v>
+        <v>257.9362584875889</v>
       </c>
       <c r="N23" t="n">
-        <v>255.0333547912217</v>
+        <v>257.0030888569071</v>
       </c>
       <c r="O23" t="n">
-        <v>255.7185026163176</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P23" t="n">
-        <v>256.8532869499004</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q23" t="n">
         <v>212.3149906599047</v>
@@ -9719,13 +9719,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>162.4265668883987</v>
+        <v>165.4314642346751</v>
       </c>
       <c r="L24" t="n">
-        <v>164.174670974505</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M24" t="n">
-        <v>142.1340339220183</v>
+        <v>169.7240591823345</v>
       </c>
       <c r="N24" t="n">
         <v>131.3417120833333</v>
@@ -9734,10 +9734,10 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
-        <v>159.5946986089611</v>
+        <v>161.5644326746464</v>
       </c>
       <c r="Q24" t="n">
-        <v>165.6020652806523</v>
+        <v>166.4570508509713</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9801,13 +9801,13 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L25" t="n">
-        <v>160.5049674758691</v>
+        <v>162.4747015415544</v>
       </c>
       <c r="M25" t="n">
-        <v>164.5460751422359</v>
+        <v>166.5158092079212</v>
       </c>
       <c r="N25" t="n">
-        <v>153.305835659864</v>
+        <v>155.2755697255493</v>
       </c>
       <c r="O25" t="n">
         <v>163.0416663658825</v>
@@ -9877,19 +9877,19 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
-        <v>245.7101422396114</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L26" t="n">
-        <v>261.3867061646181</v>
+        <v>262.2416917349371</v>
       </c>
       <c r="M26" t="n">
-        <v>255.9665244219036</v>
+        <v>257.9362584875889</v>
       </c>
       <c r="N26" t="n">
-        <v>253.9981915106306</v>
+        <v>257.0030888569071</v>
       </c>
       <c r="O26" t="n">
-        <v>230.0982114216867</v>
+        <v>257.6882366820029</v>
       </c>
       <c r="P26" t="n">
         <v>231.2329957552695</v>
@@ -9956,16 +9956,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>162.4265668883987</v>
+        <v>165.4314642346751</v>
       </c>
       <c r="L27" t="n">
-        <v>164.174670974505</v>
+        <v>166.1444050401903</v>
       </c>
       <c r="M27" t="n">
-        <v>167.7543251166491</v>
+        <v>168.6093106869681</v>
       </c>
       <c r="N27" t="n">
-        <v>156.9620032779641</v>
+        <v>158.9317373436494</v>
       </c>
       <c r="O27" t="n">
         <v>142.5962444444444</v>
@@ -10038,13 +10038,13 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L28" t="n">
-        <v>160.5049674758691</v>
+        <v>162.4747015415544</v>
       </c>
       <c r="M28" t="n">
-        <v>164.5460751422359</v>
+        <v>166.5158092079212</v>
       </c>
       <c r="N28" t="n">
-        <v>153.305835659864</v>
+        <v>155.2755697255493</v>
       </c>
       <c r="O28" t="n">
         <v>163.0416663658825</v>
@@ -10114,22 +10114,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
-        <v>244.6749789590202</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L29" t="n">
-        <v>235.7664149699872</v>
+        <v>263.3564402303034</v>
       </c>
       <c r="M29" t="n">
-        <v>230.3462332272727</v>
+        <v>257.9362584875889</v>
       </c>
       <c r="N29" t="n">
-        <v>255.0333547912217</v>
+        <v>257.0030888569071</v>
       </c>
       <c r="O29" t="n">
-        <v>255.7185026163176</v>
+        <v>256.5734881866366</v>
       </c>
       <c r="P29" t="n">
-        <v>256.8532869499004</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q29" t="n">
         <v>212.3149906599047</v>
@@ -10196,19 +10196,19 @@
         <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>163.1395076939139</v>
+        <v>165.029656544824</v>
       </c>
       <c r="M30" t="n">
-        <v>167.7543251166491</v>
+        <v>169.7240591823345</v>
       </c>
       <c r="N30" t="n">
-        <v>156.9620032779641</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
-        <v>142.5962444444444</v>
+        <v>170.1862697047606</v>
       </c>
       <c r="P30" t="n">
-        <v>159.5946986089611</v>
+        <v>161.5644326746464</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
@@ -10275,13 +10275,13 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L31" t="n">
-        <v>160.5049674758691</v>
+        <v>162.4747015415544</v>
       </c>
       <c r="M31" t="n">
-        <v>164.5460751422359</v>
+        <v>166.5158092079212</v>
       </c>
       <c r="N31" t="n">
-        <v>153.305835659864</v>
+        <v>155.2755697255493</v>
       </c>
       <c r="O31" t="n">
         <v>163.0416663658825</v>
@@ -10354,19 +10354,19 @@
         <v>220.0898510449805</v>
       </c>
       <c r="L32" t="n">
-        <v>235.7664149699872</v>
+        <v>263.3564402303034</v>
       </c>
       <c r="M32" t="n">
-        <v>254.9313611413124</v>
+        <v>257.9362584875889</v>
       </c>
       <c r="N32" t="n">
-        <v>255.0333547912217</v>
+        <v>255.8883403615407</v>
       </c>
       <c r="O32" t="n">
-        <v>255.7185026163176</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P32" t="n">
-        <v>256.8532869499004</v>
+        <v>258.8230210155857</v>
       </c>
       <c r="Q32" t="n">
         <v>212.3149906599047</v>
@@ -10430,25 +10430,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>162.4265668883987</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>164.174670974505</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
-        <v>167.7543251166491</v>
+        <v>169.7240591823345</v>
       </c>
       <c r="N33" t="n">
-        <v>131.3417120833333</v>
+        <v>158.9317373436494</v>
       </c>
       <c r="O33" t="n">
-        <v>142.5962444444444</v>
+        <v>170.1862697047606</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>165.6020652806523</v>
+        <v>166.4570508509713</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10512,13 +10512,13 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L34" t="n">
-        <v>160.5049674758691</v>
+        <v>162.4747015415544</v>
       </c>
       <c r="M34" t="n">
-        <v>164.5460751422359</v>
+        <v>166.5158092079212</v>
       </c>
       <c r="N34" t="n">
-        <v>153.305835659864</v>
+        <v>155.2755697255493</v>
       </c>
       <c r="O34" t="n">
         <v>163.0416663658825</v>
@@ -10588,19 +10588,19 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
-        <v>220.0898510449805</v>
+        <v>247.6798763052967</v>
       </c>
       <c r="L35" t="n">
-        <v>261.3867061646181</v>
+        <v>263.3564402303034</v>
       </c>
       <c r="M35" t="n">
-        <v>255.9665244219036</v>
+        <v>257.9362584875889</v>
       </c>
       <c r="N35" t="n">
-        <v>255.0333547912217</v>
+        <v>255.8883403615407</v>
       </c>
       <c r="O35" t="n">
-        <v>254.6833393357264</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P35" t="n">
         <v>231.2329957552695</v>
@@ -10667,25 +10667,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>164.3167157393088</v>
       </c>
       <c r="L36" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M36" t="n">
-        <v>166.719161836058</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N36" t="n">
-        <v>131.3417120833333</v>
+        <v>158.9317373436494</v>
       </c>
       <c r="O36" t="n">
-        <v>168.2165356390753</v>
+        <v>170.1862697047606</v>
       </c>
       <c r="P36" t="n">
-        <v>159.5946986089611</v>
+        <v>161.5644326746464</v>
       </c>
       <c r="Q36" t="n">
-        <v>165.6020652806523</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10749,13 +10749,13 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L37" t="n">
-        <v>160.5049674758691</v>
+        <v>162.4747015415544</v>
       </c>
       <c r="M37" t="n">
-        <v>164.5460751422359</v>
+        <v>166.5158092079212</v>
       </c>
       <c r="N37" t="n">
-        <v>153.305835659864</v>
+        <v>155.2755697255493</v>
       </c>
       <c r="O37" t="n">
         <v>163.0416663658825</v>
@@ -10825,22 +10825,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>220.0898510449805</v>
+        <v>247.6798763052967</v>
       </c>
       <c r="L38" t="n">
         <v>235.7664149699872</v>
       </c>
       <c r="M38" t="n">
-        <v>254.9313611413124</v>
+        <v>257.9362584875889</v>
       </c>
       <c r="N38" t="n">
-        <v>255.0333547912217</v>
+        <v>257.0030888569071</v>
       </c>
       <c r="O38" t="n">
-        <v>255.7185026163176</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P38" t="n">
-        <v>256.8532869499004</v>
+        <v>257.7082725202194</v>
       </c>
       <c r="Q38" t="n">
         <v>212.3149906599047</v>
@@ -10907,22 +10907,22 @@
         <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>163.1395076939139</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
-        <v>167.7543251166491</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N39" t="n">
-        <v>156.9620032779641</v>
+        <v>157.8169888482831</v>
       </c>
       <c r="O39" t="n">
-        <v>168.2165356390753</v>
+        <v>170.1862697047606</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>161.5644326746464</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>167.5717993463377</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -10986,13 +10986,13 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L40" t="n">
-        <v>160.5049674758691</v>
+        <v>162.4747015415544</v>
       </c>
       <c r="M40" t="n">
-        <v>164.5460751422359</v>
+        <v>166.5158092079212</v>
       </c>
       <c r="N40" t="n">
-        <v>153.305835659864</v>
+        <v>155.2755697255493</v>
       </c>
       <c r="O40" t="n">
         <v>163.0416663658825</v>
@@ -11062,22 +11062,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>244.6749789590202</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L41" t="n">
         <v>235.7664149699872</v>
       </c>
       <c r="M41" t="n">
-        <v>230.3462332272727</v>
+        <v>257.9362584875889</v>
       </c>
       <c r="N41" t="n">
-        <v>255.0333547912217</v>
+        <v>255.8883403615407</v>
       </c>
       <c r="O41" t="n">
-        <v>255.7185026163176</v>
+        <v>257.6882366820029</v>
       </c>
       <c r="P41" t="n">
-        <v>256.8532869499004</v>
+        <v>258.8230210155857</v>
       </c>
       <c r="Q41" t="n">
         <v>212.3149906599047</v>
@@ -11144,19 +11144,19 @@
         <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>166.1444050401903</v>
       </c>
       <c r="M42" t="n">
-        <v>167.7543251166491</v>
+        <v>169.7240591823345</v>
       </c>
       <c r="N42" t="n">
-        <v>156.9620032779641</v>
+        <v>158.9317373436494</v>
       </c>
       <c r="O42" t="n">
-        <v>168.2165356390753</v>
+        <v>169.0715212093943</v>
       </c>
       <c r="P42" t="n">
-        <v>158.5595353283699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
@@ -11223,13 +11223,13 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L43" t="n">
-        <v>160.5049674758691</v>
+        <v>162.4747015415544</v>
       </c>
       <c r="M43" t="n">
-        <v>164.5460751422359</v>
+        <v>166.5158092079212</v>
       </c>
       <c r="N43" t="n">
-        <v>153.305835659864</v>
+        <v>155.2755697255493</v>
       </c>
       <c r="O43" t="n">
         <v>163.0416663658825</v>
@@ -11299,19 +11299,19 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>220.0898510449805</v>
+        <v>247.6798763052967</v>
       </c>
       <c r="L44" t="n">
-        <v>261.3867061646181</v>
+        <v>263.3564402303034</v>
       </c>
       <c r="M44" t="n">
-        <v>255.9665244219036</v>
+        <v>257.9362584875889</v>
       </c>
       <c r="N44" t="n">
-        <v>255.0333547912217</v>
+        <v>255.8883403615407</v>
       </c>
       <c r="O44" t="n">
-        <v>254.6833393357264</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P44" t="n">
         <v>231.2329957552695</v>
@@ -11381,22 +11381,22 @@
         <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>165.029656544824</v>
       </c>
       <c r="M45" t="n">
         <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
-        <v>155.926839997373</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O45" t="n">
-        <v>168.2165356390753</v>
+        <v>170.1862697047606</v>
       </c>
       <c r="P45" t="n">
-        <v>159.5946986089611</v>
+        <v>161.5644326746464</v>
       </c>
       <c r="Q45" t="n">
-        <v>165.6020652806523</v>
+        <v>167.5717993463377</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -11460,13 +11460,13 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L46" t="n">
-        <v>160.5049674758691</v>
+        <v>162.4747015415544</v>
       </c>
       <c r="M46" t="n">
-        <v>164.5460751422359</v>
+        <v>166.5158092079212</v>
       </c>
       <c r="N46" t="n">
-        <v>153.305835659864</v>
+        <v>155.2755697255493</v>
       </c>
       <c r="O46" t="n">
         <v>163.0416663658825</v>
@@ -24214,16 +24214,16 @@
         <v>254.5252074680398</v>
       </c>
       <c r="E23" t="n">
-        <v>259.2061834353878</v>
+        <v>281.7725359196186</v>
       </c>
       <c r="F23" t="n">
-        <v>281.0979203944374</v>
+        <v>306.7182115890683</v>
       </c>
       <c r="G23" t="n">
-        <v>289.5246121678611</v>
+        <v>315.1449033624919</v>
       </c>
       <c r="H23" t="n">
-        <v>213.6966767684932</v>
+        <v>239.316967963124</v>
       </c>
       <c r="I23" t="n">
         <v>110.3180554177628</v>
@@ -24253,7 +24253,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>49.71128378850655</v>
+        <v>25.4099895392201</v>
       </c>
       <c r="S23" t="n">
         <v>108.8622354336022</v>
@@ -24268,13 +24268,13 @@
         <v>227.5944243174918</v>
       </c>
       <c r="W23" t="n">
-        <v>249.0831345647699</v>
+        <v>221.4931093044537</v>
       </c>
       <c r="X23" t="n">
-        <v>269.5732665258259</v>
+        <v>241.9832412655097</v>
       </c>
       <c r="Y23" t="n">
-        <v>286.0801045034104</v>
+        <v>258.4900792430943</v>
       </c>
     </row>
     <row r="24">
@@ -24290,19 +24290,19 @@
         <v>72.55066483567261</v>
       </c>
       <c r="D24" t="n">
-        <v>36.79848901161812</v>
+        <v>47.28723141199562</v>
       </c>
       <c r="E24" t="n">
-        <v>31.86695510812698</v>
+        <v>57.48724630275781</v>
       </c>
       <c r="F24" t="n">
-        <v>19.29108704610992</v>
+        <v>44.91137824074075</v>
       </c>
       <c r="G24" t="n">
-        <v>11.56539181593667</v>
+        <v>12.88438876128105</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>12.07761008385333</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -24335,16 +24335,16 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>71.52533695119469</v>
+        <v>43.93531169087855</v>
       </c>
       <c r="T24" t="n">
         <v>100.0068945421785</v>
       </c>
       <c r="U24" t="n">
-        <v>125.7835479283317</v>
+        <v>98.19352266801555</v>
       </c>
       <c r="V24" t="n">
-        <v>132.6427529967821</v>
+        <v>105.052727736466</v>
       </c>
       <c r="W24" t="n">
         <v>151.5371490082765</v>
@@ -24369,10 +24369,10 @@
         <v>67.0889869459847</v>
       </c>
       <c r="D25" t="n">
-        <v>25.89128638133839</v>
+        <v>48.45763886556922</v>
       </c>
       <c r="E25" t="n">
-        <v>20.65583729929521</v>
+        <v>46.27612849392604</v>
       </c>
       <c r="F25" t="n">
         <v>45.26321387028811</v>
@@ -24411,22 +24411,22 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>51.51526602989552</v>
+        <v>49.54553196421021</v>
       </c>
       <c r="S25" t="n">
-        <v>123.8587638843291</v>
+        <v>96.26873862401298</v>
       </c>
       <c r="T25" t="n">
-        <v>127.7877552756384</v>
+        <v>103.4864610263519</v>
       </c>
       <c r="U25" t="n">
         <v>186.1611952038477</v>
       </c>
       <c r="V25" t="n">
-        <v>126.359517976554</v>
+        <v>151.9798091711849</v>
       </c>
       <c r="W25" t="n">
-        <v>186.3651641839479</v>
+        <v>158.7751389236317</v>
       </c>
       <c r="X25" t="n">
         <v>125.551821236394</v>
@@ -24448,19 +24448,19 @@
         <v>275.8762589195925</v>
       </c>
       <c r="D26" t="n">
-        <v>239.6661175746371</v>
+        <v>237.6963835089518</v>
       </c>
       <c r="E26" t="n">
         <v>292.5337372208467</v>
       </c>
       <c r="F26" t="n">
-        <v>291.8591216956655</v>
+        <v>289.8893876299802</v>
       </c>
       <c r="G26" t="n">
         <v>325.90610466372</v>
       </c>
       <c r="H26" t="n">
-        <v>250.0781692643521</v>
+        <v>225.7768750150656</v>
       </c>
       <c r="I26" t="n">
         <v>121.0792567189908</v>
@@ -24490,7 +24490,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>37.90613260550378</v>
+        <v>60.4724850897346</v>
       </c>
       <c r="S26" t="n">
         <v>119.6234367348303</v>
@@ -24502,7 +24502,7 @@
         <v>161.9490200564214</v>
       </c>
       <c r="V26" t="n">
-        <v>238.3556256187198</v>
+        <v>210.7656003584037</v>
       </c>
       <c r="W26" t="n">
         <v>259.8443358659979</v>
@@ -24511,7 +24511,7 @@
         <v>280.334467827054</v>
       </c>
       <c r="Y26" t="n">
-        <v>271.2210146100077</v>
+        <v>296.8413058046385</v>
       </c>
     </row>
     <row r="27">
@@ -24521,10 +24521,10 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>51.51625960382143</v>
+        <v>77.13655079845226</v>
       </c>
       <c r="C27" t="n">
-        <v>83.31186613690066</v>
+        <v>55.72184087658452</v>
       </c>
       <c r="D27" t="n">
         <v>58.04843271322368</v>
@@ -24533,10 +24533,10 @@
         <v>68.24844760398587</v>
       </c>
       <c r="F27" t="n">
-        <v>55.6725795419688</v>
+        <v>28.08255428165266</v>
       </c>
       <c r="G27" t="n">
-        <v>22.59905201801528</v>
+        <v>20.35685905147942</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -24584,7 +24584,7 @@
         <v>143.4039542980102</v>
       </c>
       <c r="W27" t="n">
-        <v>136.6780591148737</v>
+        <v>160.8358674452995</v>
       </c>
       <c r="X27" t="n">
         <v>116.3763523520624</v>
@@ -24600,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>64.81505613589138</v>
+        <v>90.43534733052222</v>
       </c>
       <c r="C28" t="n">
         <v>77.85018824721276</v>
@@ -24615,16 +24615,16 @@
         <v>56.02441517151617</v>
       </c>
       <c r="G28" t="n">
-        <v>52.97405531241285</v>
+        <v>78.59434650704368</v>
       </c>
       <c r="H28" t="n">
-        <v>72.8305396560245</v>
+        <v>45.24051439570836</v>
       </c>
       <c r="I28" t="n">
         <v>66.05384207584321</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>3.962547265257697</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -24651,7 +24651,7 @@
         <v>87.89675852575441</v>
       </c>
       <c r="S28" t="n">
-        <v>116.0161599665841</v>
+        <v>110.3186709362707</v>
       </c>
       <c r="T28" t="n">
         <v>138.5489565768664</v>
@@ -24666,10 +24666,10 @@
         <v>197.1263654851759</v>
       </c>
       <c r="X28" t="n">
-        <v>110.6927313429913</v>
+        <v>108.722997277306</v>
       </c>
       <c r="Y28" t="n">
-        <v>129.1880205006797</v>
+        <v>101.5979952403636</v>
       </c>
     </row>
     <row r="29">
@@ -24679,22 +24679,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>293.3372088120655</v>
+        <v>269.0359145627791</v>
       </c>
       <c r="C29" t="n">
         <v>275.8762589195925</v>
       </c>
       <c r="D29" t="n">
-        <v>239.6661175746371</v>
+        <v>265.2864087692679</v>
       </c>
       <c r="E29" t="n">
-        <v>292.5337372208467</v>
+        <v>264.9437119605305</v>
       </c>
       <c r="F29" t="n">
-        <v>317.4794128902964</v>
+        <v>289.8893876299802</v>
       </c>
       <c r="G29" t="n">
-        <v>325.90610466372</v>
+        <v>298.3160794034038</v>
       </c>
       <c r="H29" t="n">
         <v>250.0781692643521</v>
@@ -24730,16 +24730,16 @@
         <v>60.4724850897346</v>
       </c>
       <c r="S29" t="n">
-        <v>97.05708425059944</v>
+        <v>119.6234367348303</v>
       </c>
       <c r="T29" t="n">
         <v>133.6992167127163</v>
       </c>
       <c r="U29" t="n">
-        <v>136.3287288617906</v>
+        <v>161.9490200564214</v>
       </c>
       <c r="V29" t="n">
-        <v>212.735334424089</v>
+        <v>238.3556256187198</v>
       </c>
       <c r="W29" t="n">
         <v>259.8443358659979</v>
@@ -24758,25 +24758,25 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>54.57019831422144</v>
+        <v>77.13655079845226</v>
       </c>
       <c r="C30" t="n">
-        <v>57.69157494226983</v>
+        <v>83.31186613690066</v>
       </c>
       <c r="D30" t="n">
-        <v>58.04843271322368</v>
+        <v>56.58594984901862</v>
       </c>
       <c r="E30" t="n">
-        <v>68.24844760398587</v>
+        <v>40.65842234366973</v>
       </c>
       <c r="F30" t="n">
-        <v>30.05228834733797</v>
+        <v>28.08255428165266</v>
       </c>
       <c r="G30" t="n">
-        <v>47.94688431179556</v>
+        <v>20.35685905147942</v>
       </c>
       <c r="H30" t="n">
-        <v>22.83881138508139</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -24824,7 +24824,7 @@
         <v>162.2983503095045</v>
       </c>
       <c r="X30" t="n">
-        <v>90.75606115743156</v>
+        <v>116.3763523520624</v>
       </c>
       <c r="Y30" t="n">
         <v>116.2860629258893</v>
@@ -24837,13 +24837,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>64.81505613589138</v>
+        <v>90.43534733052222</v>
       </c>
       <c r="C31" t="n">
         <v>77.85018824721276</v>
       </c>
       <c r="D31" t="n">
-        <v>33.59854897216645</v>
+        <v>59.21884016679728</v>
       </c>
       <c r="E31" t="n">
         <v>57.03732979515409</v>
@@ -24885,16 +24885,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>62.27646733112358</v>
+        <v>60.30673326543827</v>
       </c>
       <c r="S31" t="n">
-        <v>112.0536127013264</v>
+        <v>110.3186709362707</v>
       </c>
       <c r="T31" t="n">
-        <v>138.5489565768664</v>
+        <v>110.9589313165503</v>
       </c>
       <c r="U31" t="n">
-        <v>196.9223965050758</v>
+        <v>169.3323712447597</v>
       </c>
       <c r="V31" t="n">
         <v>162.7410104724129</v>
@@ -24916,28 +24916,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>277.9043287895041</v>
+        <v>278.7757904788195</v>
       </c>
       <c r="C32" t="n">
-        <v>260.4433788970311</v>
+        <v>261.3148405863465</v>
       </c>
       <c r="D32" t="n">
-        <v>249.8535287467065</v>
+        <v>250.7249904360219</v>
       </c>
       <c r="E32" t="n">
-        <v>277.1008571982853</v>
+        <v>277.9723188876007</v>
       </c>
       <c r="F32" t="n">
-        <v>302.046532867735</v>
+        <v>275.3279692967342</v>
       </c>
       <c r="G32" t="n">
-        <v>310.4732246411586</v>
+        <v>287.0433920811875</v>
       </c>
       <c r="H32" t="n">
-        <v>234.6452892417907</v>
+        <v>235.5167509311061</v>
       </c>
       <c r="I32" t="n">
-        <v>105.6463766964295</v>
+        <v>106.5178383857448</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24964,28 +24964,28 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>45.03960506717323</v>
+        <v>45.91106675648861</v>
       </c>
       <c r="S32" t="n">
-        <v>104.1905567122689</v>
+        <v>105.0620184015843</v>
       </c>
       <c r="T32" t="n">
-        <v>118.2663366901549</v>
+        <v>119.1377983794703</v>
       </c>
       <c r="U32" t="n">
-        <v>146.51614003386</v>
+        <v>119.7975764628593</v>
       </c>
       <c r="V32" t="n">
-        <v>200.3563931119276</v>
+        <v>223.7942072854738</v>
       </c>
       <c r="W32" t="n">
-        <v>218.7911646488057</v>
+        <v>245.2829175327519</v>
       </c>
       <c r="X32" t="n">
-        <v>239.2812966098618</v>
+        <v>265.7730494938079</v>
       </c>
       <c r="Y32" t="n">
-        <v>255.7881345874463</v>
+        <v>254.6898622110764</v>
       </c>
     </row>
     <row r="33">
@@ -24995,25 +24995,25 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>61.70367077589088</v>
+        <v>62.57513246520627</v>
       </c>
       <c r="C33" t="n">
-        <v>42.25869491970845</v>
+        <v>41.16042254333853</v>
       </c>
       <c r="D33" t="n">
-        <v>42.6155526906623</v>
+        <v>15.89698911966154</v>
       </c>
       <c r="E33" t="n">
-        <v>30.24921509719366</v>
+        <v>26.09700401042373</v>
       </c>
       <c r="F33" t="n">
-        <v>14.61940832477659</v>
+        <v>41.11116120872281</v>
       </c>
       <c r="G33" t="n">
-        <v>32.51400428923418</v>
+        <v>33.38546597854956</v>
       </c>
       <c r="H33" t="n">
-        <v>7.405931362520008</v>
+        <v>8.277393051835389</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -25046,25 +25046,25 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>66.85365822986137</v>
+        <v>67.72511991917675</v>
       </c>
       <c r="T33" t="n">
-        <v>69.71492462621433</v>
+        <v>96.20667751016053</v>
       </c>
       <c r="U33" t="n">
-        <v>121.1118692069984</v>
+        <v>121.9833308963137</v>
       </c>
       <c r="V33" t="n">
-        <v>127.9710742754488</v>
+        <v>128.8425359647642</v>
       </c>
       <c r="W33" t="n">
-        <v>146.8654702869432</v>
+        <v>147.7369319762585</v>
       </c>
       <c r="X33" t="n">
-        <v>100.943472329501</v>
+        <v>101.8149340188164</v>
       </c>
       <c r="Y33" t="n">
-        <v>100.8531829033279</v>
+        <v>77.42335034335684</v>
       </c>
     </row>
     <row r="34">
@@ -25074,28 +25074,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>75.00246730796084</v>
+        <v>48.28390373696008</v>
       </c>
       <c r="C34" t="n">
-        <v>62.41730822465138</v>
+        <v>35.69874465365062</v>
       </c>
       <c r="D34" t="n">
-        <v>21.21960766000507</v>
+        <v>44.65742183355128</v>
       </c>
       <c r="E34" t="n">
-        <v>15.98415857796189</v>
+        <v>42.4759114619081</v>
       </c>
       <c r="F34" t="n">
-        <v>40.59153514895479</v>
+        <v>41.46299683827017</v>
       </c>
       <c r="G34" t="n">
-        <v>63.1614664844823</v>
+        <v>64.03292817379769</v>
       </c>
       <c r="H34" t="n">
-        <v>57.39765963346312</v>
+        <v>58.2691213227785</v>
       </c>
       <c r="I34" t="n">
-        <v>50.62096205328183</v>
+        <v>51.49242374259721</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,28 +25122,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>72.46387850319303</v>
+        <v>73.33534019250841</v>
       </c>
       <c r="S34" t="n">
-        <v>119.1870851629958</v>
+        <v>120.0585468523112</v>
       </c>
       <c r="T34" t="n">
-        <v>123.116076554305</v>
+        <v>99.68624399433398</v>
       </c>
       <c r="U34" t="n">
-        <v>181.4895164825144</v>
+        <v>182.3609781718298</v>
       </c>
       <c r="V34" t="n">
-        <v>147.3081304498515</v>
+        <v>148.1795921391669</v>
       </c>
       <c r="W34" t="n">
-        <v>156.0731942679837</v>
+        <v>182.5649471519299</v>
       </c>
       <c r="X34" t="n">
-        <v>95.25985132042987</v>
+        <v>94.16157894405994</v>
       </c>
       <c r="Y34" t="n">
-        <v>113.7551404781183</v>
+        <v>114.6266021674337</v>
       </c>
     </row>
     <row r="35">
@@ -25153,28 +25153,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>252.2840375948733</v>
+        <v>254.474496229533</v>
       </c>
       <c r="C35" t="n">
-        <v>260.4433788970311</v>
+        <v>233.7248153260303</v>
       </c>
       <c r="D35" t="n">
-        <v>249.8535287467065</v>
+        <v>250.7249904360219</v>
       </c>
       <c r="E35" t="n">
-        <v>277.1008571982853</v>
+        <v>277.9723188876007</v>
       </c>
       <c r="F35" t="n">
-        <v>302.046532867735</v>
+        <v>302.9179945570503</v>
       </c>
       <c r="G35" t="n">
-        <v>310.4732246411586</v>
+        <v>311.344686330474</v>
       </c>
       <c r="H35" t="n">
-        <v>234.6452892417907</v>
+        <v>235.5167509311061</v>
       </c>
       <c r="I35" t="n">
-        <v>105.6463766964295</v>
+        <v>106.5178383857448</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25201,28 +25201,28 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>45.03960506717323</v>
+        <v>18.32104149617247</v>
       </c>
       <c r="S35" t="n">
-        <v>81.62420422803805</v>
+        <v>105.0620184015843</v>
       </c>
       <c r="T35" t="n">
-        <v>118.2663366901549</v>
+        <v>119.1377983794703</v>
       </c>
       <c r="U35" t="n">
-        <v>146.51614003386</v>
+        <v>147.3876017231754</v>
       </c>
       <c r="V35" t="n">
-        <v>222.9227455961584</v>
+        <v>223.7942072854738</v>
       </c>
       <c r="W35" t="n">
-        <v>218.7911646488057</v>
+        <v>245.2829175327519</v>
       </c>
       <c r="X35" t="n">
-        <v>264.9015878044926</v>
+        <v>265.7730494938079</v>
       </c>
       <c r="Y35" t="n">
-        <v>255.7881345874463</v>
+        <v>254.6898622110764</v>
       </c>
     </row>
     <row r="36">
@@ -25232,25 +25232,25 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>61.70367077589088</v>
+        <v>62.57513246520627</v>
       </c>
       <c r="C36" t="n">
-        <v>67.87898611433928</v>
+        <v>68.75044780365467</v>
       </c>
       <c r="D36" t="n">
-        <v>16.99526149603147</v>
+        <v>43.48701437997768</v>
       </c>
       <c r="E36" t="n">
-        <v>52.81556758142449</v>
+        <v>29.38573502145342</v>
       </c>
       <c r="F36" t="n">
-        <v>14.61940832477659</v>
+        <v>13.52113594840667</v>
       </c>
       <c r="G36" t="n">
-        <v>6.893713094603349</v>
+        <v>5.795440718233422</v>
       </c>
       <c r="H36" t="n">
-        <v>7.405931362520008</v>
+        <v>8.277393051835389</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -25283,25 +25283,25 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>66.85365822986137</v>
+        <v>67.72511991917675</v>
       </c>
       <c r="T36" t="n">
-        <v>95.33521582084515</v>
+        <v>96.20667751016053</v>
       </c>
       <c r="U36" t="n">
-        <v>121.1118692069984</v>
+        <v>121.9833308963137</v>
       </c>
       <c r="V36" t="n">
-        <v>105.404721791218</v>
+        <v>128.8425359647642</v>
       </c>
       <c r="W36" t="n">
-        <v>146.8654702869432</v>
+        <v>120.1469067159424</v>
       </c>
       <c r="X36" t="n">
-        <v>100.943472329501</v>
+        <v>101.8149340188164</v>
       </c>
       <c r="Y36" t="n">
-        <v>100.8531829033279</v>
+        <v>101.7246445926433</v>
       </c>
     </row>
     <row r="37">
@@ -25311,28 +25311,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>75.00246730796084</v>
+        <v>75.87392899727622</v>
       </c>
       <c r="C37" t="n">
-        <v>39.85095574042055</v>
+        <v>63.28876991396676</v>
       </c>
       <c r="D37" t="n">
-        <v>18.16566894960507</v>
+        <v>44.65742183355128</v>
       </c>
       <c r="E37" t="n">
-        <v>15.98415857796189</v>
+        <v>42.4759114619081</v>
       </c>
       <c r="F37" t="n">
-        <v>14.97124395432396</v>
+        <v>41.46299683827017</v>
       </c>
       <c r="G37" t="n">
-        <v>63.1614664844823</v>
+        <v>36.44290291348155</v>
       </c>
       <c r="H37" t="n">
-        <v>57.39765963346312</v>
+        <v>30.67909606246236</v>
       </c>
       <c r="I37" t="n">
-        <v>50.62096205328183</v>
+        <v>51.49242374259721</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,28 +25359,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>72.46387850319303</v>
+        <v>49.03404594322196</v>
       </c>
       <c r="S37" t="n">
-        <v>119.1870851629958</v>
+        <v>92.46852159199504</v>
       </c>
       <c r="T37" t="n">
-        <v>123.116076554305</v>
+        <v>123.9875382436204</v>
       </c>
       <c r="U37" t="n">
-        <v>181.4895164825144</v>
+        <v>182.3609781718298</v>
       </c>
       <c r="V37" t="n">
-        <v>147.3081304498515</v>
+        <v>148.1795921391669</v>
       </c>
       <c r="W37" t="n">
-        <v>181.6934854626145</v>
+        <v>182.5649471519299</v>
       </c>
       <c r="X37" t="n">
-        <v>120.8801425150607</v>
+        <v>121.7516042043761</v>
       </c>
       <c r="Y37" t="n">
-        <v>113.7551404781183</v>
+        <v>114.6266021674337</v>
       </c>
     </row>
     <row r="38">
@@ -25390,28 +25390,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>252.2840375948733</v>
+        <v>278.7757904788195</v>
       </c>
       <c r="C38" t="n">
-        <v>260.4433788970311</v>
+        <v>261.3148405863465</v>
       </c>
       <c r="D38" t="n">
-        <v>249.8535287467065</v>
+        <v>250.7249904360219</v>
       </c>
       <c r="E38" t="n">
-        <v>277.1008571982853</v>
+        <v>277.9723188876007</v>
       </c>
       <c r="F38" t="n">
-        <v>276.4262416731041</v>
+        <v>302.9179945570503</v>
       </c>
       <c r="G38" t="n">
-        <v>310.4732246411586</v>
+        <v>311.344686330474</v>
       </c>
       <c r="H38" t="n">
-        <v>234.6452892417907</v>
+        <v>207.9267256707899</v>
       </c>
       <c r="I38" t="n">
-        <v>105.6463766964295</v>
+        <v>82.21654413645838</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25438,28 +25438,28 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>45.03960506717323</v>
+        <v>45.91106675648861</v>
       </c>
       <c r="S38" t="n">
-        <v>104.1905567122689</v>
+        <v>105.0620184015843</v>
       </c>
       <c r="T38" t="n">
-        <v>95.69998420592407</v>
+        <v>91.54777311915414</v>
       </c>
       <c r="U38" t="n">
-        <v>146.51614003386</v>
+        <v>147.3876017231754</v>
       </c>
       <c r="V38" t="n">
-        <v>222.9227455961584</v>
+        <v>196.2041820251576</v>
       </c>
       <c r="W38" t="n">
-        <v>244.4114558434366</v>
+        <v>245.2829175327519</v>
       </c>
       <c r="X38" t="n">
-        <v>264.9015878044926</v>
+        <v>265.7730494938079</v>
       </c>
       <c r="Y38" t="n">
-        <v>255.7881345874463</v>
+        <v>282.2798874713925</v>
       </c>
     </row>
     <row r="39">
@@ -25469,25 +25469,25 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>46.54324965418006</v>
+        <v>34.98510720489013</v>
       </c>
       <c r="C39" t="n">
-        <v>67.87898611433928</v>
+        <v>68.75044780365467</v>
       </c>
       <c r="D39" t="n">
-        <v>16.99526149603147</v>
+        <v>43.48701437997768</v>
       </c>
       <c r="E39" t="n">
-        <v>52.81556758142449</v>
+        <v>26.09700401042373</v>
       </c>
       <c r="F39" t="n">
-        <v>14.61940832477659</v>
+        <v>41.11116120872281</v>
       </c>
       <c r="G39" t="n">
-        <v>6.893713094603349</v>
+        <v>33.38546597854956</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>8.277393051835389</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -25520,25 +25520,25 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>66.85365822986137</v>
+        <v>67.72511991917675</v>
       </c>
       <c r="T39" t="n">
-        <v>95.33521582084515</v>
+        <v>96.20667751016053</v>
       </c>
       <c r="U39" t="n">
-        <v>121.1118692069984</v>
+        <v>121.9833308963137</v>
       </c>
       <c r="V39" t="n">
-        <v>127.9710742754488</v>
+        <v>104.5412417154777</v>
       </c>
       <c r="W39" t="n">
-        <v>146.8654702869432</v>
+        <v>147.7369319762585</v>
       </c>
       <c r="X39" t="n">
-        <v>100.943472329501</v>
+        <v>74.22490875850026</v>
       </c>
       <c r="Y39" t="n">
-        <v>100.8531829033279</v>
+        <v>101.7246445926433</v>
       </c>
     </row>
     <row r="40">
@@ -25548,28 +25548,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>75.00246730796084</v>
+        <v>75.87392899727622</v>
       </c>
       <c r="C40" t="n">
-        <v>62.41730822465138</v>
+        <v>63.28876991396676</v>
       </c>
       <c r="D40" t="n">
-        <v>43.7859601442359</v>
+        <v>44.65742183355128</v>
       </c>
       <c r="E40" t="n">
-        <v>41.60444977259272</v>
+        <v>42.4759114619081</v>
       </c>
       <c r="F40" t="n">
-        <v>40.59153514895479</v>
+        <v>41.46299683827017</v>
       </c>
       <c r="G40" t="n">
-        <v>63.1614664844823</v>
+        <v>39.73163392451123</v>
       </c>
       <c r="H40" t="n">
-        <v>34.83130714923229</v>
+        <v>30.67909606246236</v>
       </c>
       <c r="I40" t="n">
-        <v>50.62096205328183</v>
+        <v>51.49242374259721</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,28 +25596,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>46.8435873085622</v>
+        <v>73.33534019250841</v>
       </c>
       <c r="S40" t="n">
-        <v>93.56679396836498</v>
+        <v>92.46852159199504</v>
       </c>
       <c r="T40" t="n">
-        <v>123.116076554305</v>
+        <v>96.39751298330428</v>
       </c>
       <c r="U40" t="n">
-        <v>155.8692252878836</v>
+        <v>182.3609781718298</v>
       </c>
       <c r="V40" t="n">
-        <v>147.3081304498515</v>
+        <v>148.1795921391669</v>
       </c>
       <c r="W40" t="n">
-        <v>181.6934854626145</v>
+        <v>182.5649471519299</v>
       </c>
       <c r="X40" t="n">
-        <v>120.8801425150607</v>
+        <v>121.7516042043761</v>
       </c>
       <c r="Y40" t="n">
-        <v>113.7551404781183</v>
+        <v>114.6266021674337</v>
       </c>
     </row>
     <row r="41">
@@ -25627,28 +25627,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>333.9734078554603</v>
+        <v>357.4112220290065</v>
       </c>
       <c r="C41" t="n">
-        <v>339.0788104472181</v>
+        <v>339.9502721365335</v>
       </c>
       <c r="D41" t="n">
-        <v>328.4889602968935</v>
+        <v>329.3604219862089</v>
       </c>
       <c r="E41" t="n">
-        <v>355.7362887484724</v>
+        <v>356.6077504377877</v>
       </c>
       <c r="F41" t="n">
-        <v>380.681964417922</v>
+        <v>353.9634008469212</v>
       </c>
       <c r="G41" t="n">
-        <v>389.1086561913456</v>
+        <v>362.3900926203448</v>
       </c>
       <c r="H41" t="n">
-        <v>313.2807207919777</v>
+        <v>289.8508882320066</v>
       </c>
       <c r="I41" t="n">
-        <v>184.2818082466165</v>
+        <v>185.1532699359319</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25675,28 +25675,28 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>123.6750366173602</v>
+        <v>96.95647304635948</v>
       </c>
       <c r="S41" t="n">
-        <v>182.8259882624559</v>
+        <v>183.6974499517713</v>
       </c>
       <c r="T41" t="n">
-        <v>196.9017682403419</v>
+        <v>197.7732299296573</v>
       </c>
       <c r="U41" t="n">
-        <v>225.1515715840471</v>
+        <v>226.0230332733624</v>
       </c>
       <c r="V41" t="n">
-        <v>301.5581771463455</v>
+        <v>302.4296388356609</v>
       </c>
       <c r="W41" t="n">
-        <v>297.4265961989927</v>
+        <v>323.918349082939</v>
       </c>
       <c r="X41" t="n">
-        <v>317.9167281600488</v>
+        <v>344.408481043995</v>
       </c>
       <c r="Y41" t="n">
-        <v>334.4235661376333</v>
+        <v>360.9153190215795</v>
       </c>
     </row>
     <row r="42">
@@ -25706,28 +25706,28 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>140.3391023260779</v>
+        <v>141.2105640153933</v>
       </c>
       <c r="C42" t="n">
-        <v>146.5144176645263</v>
+        <v>147.3858793538417</v>
       </c>
       <c r="D42" t="n">
-        <v>121.2509842408493</v>
+        <v>122.1224459301647</v>
       </c>
       <c r="E42" t="n">
-        <v>131.4509991316115</v>
+        <v>132.3224608209269</v>
       </c>
       <c r="F42" t="n">
-        <v>118.8751310695944</v>
+        <v>119.7465927589098</v>
       </c>
       <c r="G42" t="n">
-        <v>111.1494358394212</v>
+        <v>112.0208975287366</v>
       </c>
       <c r="H42" t="n">
-        <v>86.04136291270703</v>
+        <v>86.9128246020224</v>
       </c>
       <c r="I42" t="n">
-        <v>40.63619904339481</v>
+        <v>64.07401321694101</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -25754,28 +25754,28 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>73.9637528288537</v>
+        <v>50.53392026888262</v>
       </c>
       <c r="S42" t="n">
-        <v>145.4890897800484</v>
+        <v>118.7705262090476</v>
       </c>
       <c r="T42" t="n">
-        <v>173.9706473710322</v>
+        <v>147.2520838000314</v>
       </c>
       <c r="U42" t="n">
-        <v>174.1270095625545</v>
+        <v>200.6187624465007</v>
       </c>
       <c r="V42" t="n">
-        <v>180.986214631005</v>
+        <v>207.4779675149512</v>
       </c>
       <c r="W42" t="n">
-        <v>199.8806106424994</v>
+        <v>198.7823382661294</v>
       </c>
       <c r="X42" t="n">
-        <v>179.578903879688</v>
+        <v>180.4503655690034</v>
       </c>
       <c r="Y42" t="n">
-        <v>179.4886144535149</v>
+        <v>180.3600761428303</v>
       </c>
     </row>
     <row r="43">
@@ -25785,31 +25785,31 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>153.6378988581479</v>
+        <v>154.5093605474632</v>
       </c>
       <c r="C43" t="n">
-        <v>141.0527397748384</v>
+        <v>141.9242014641538</v>
       </c>
       <c r="D43" t="n">
-        <v>122.4213916944229</v>
+        <v>123.2928533837383</v>
       </c>
       <c r="E43" t="n">
-        <v>120.2398813227797</v>
+        <v>121.1113430120951</v>
       </c>
       <c r="F43" t="n">
-        <v>119.2269666991418</v>
+        <v>120.0984283884572</v>
       </c>
       <c r="G43" t="n">
-        <v>141.7968980346693</v>
+        <v>142.6683597239847</v>
       </c>
       <c r="H43" t="n">
-        <v>136.0330911836501</v>
+        <v>136.9045528729655</v>
       </c>
       <c r="I43" t="n">
-        <v>103.636102408838</v>
+        <v>130.1278552927842</v>
       </c>
       <c r="J43" t="n">
-        <v>67.16509879288334</v>
+        <v>68.03656048219871</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -25830,31 +25830,31 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>59.96796192790495</v>
+        <v>60.83942361722032</v>
       </c>
       <c r="R43" t="n">
-        <v>151.0993100533801</v>
+        <v>151.9707717426954</v>
       </c>
       <c r="S43" t="n">
-        <v>197.8225167131828</v>
+        <v>198.6939784024982</v>
       </c>
       <c r="T43" t="n">
-        <v>201.7515081044921</v>
+        <v>202.6229697938074</v>
       </c>
       <c r="U43" t="n">
-        <v>260.1249480327015</v>
+        <v>233.4063844617007</v>
       </c>
       <c r="V43" t="n">
-        <v>203.3772095158077</v>
+        <v>199.2249984290378</v>
       </c>
       <c r="W43" t="n">
-        <v>234.7086258181708</v>
+        <v>233.6103534418008</v>
       </c>
       <c r="X43" t="n">
-        <v>199.5155740652477</v>
+        <v>176.0857415052766</v>
       </c>
       <c r="Y43" t="n">
-        <v>166.7702808336745</v>
+        <v>193.2620337176207</v>
       </c>
     </row>
     <row r="44">
@@ -25864,28 +25864,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>356.5397603396912</v>
+        <v>357.4112220290065</v>
       </c>
       <c r="C44" t="n">
-        <v>339.0788104472181</v>
+        <v>339.9502721365335</v>
       </c>
       <c r="D44" t="n">
-        <v>328.4889602968935</v>
+        <v>329.3604219862089</v>
       </c>
       <c r="E44" t="n">
-        <v>355.7362887484724</v>
+        <v>356.6077504377877</v>
       </c>
       <c r="F44" t="n">
-        <v>380.681964417922</v>
+        <v>357.2521318579509</v>
       </c>
       <c r="G44" t="n">
-        <v>389.1086561913456</v>
+        <v>362.3900926203448</v>
       </c>
       <c r="H44" t="n">
-        <v>313.2807207919777</v>
+        <v>286.5621572209769</v>
       </c>
       <c r="I44" t="n">
-        <v>184.2818082466165</v>
+        <v>185.1532699359319</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25912,28 +25912,28 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>123.6750366173602</v>
+        <v>96.95647304635948</v>
       </c>
       <c r="S44" t="n">
-        <v>182.8259882624559</v>
+        <v>183.6974499517713</v>
       </c>
       <c r="T44" t="n">
-        <v>171.2814770457111</v>
+        <v>197.7732299296573</v>
       </c>
       <c r="U44" t="n">
-        <v>199.5312803894163</v>
+        <v>226.0230332733624</v>
       </c>
       <c r="V44" t="n">
-        <v>275.9378859517146</v>
+        <v>302.4296388356609</v>
       </c>
       <c r="W44" t="n">
-        <v>300.4805349093928</v>
+        <v>323.918349082939</v>
       </c>
       <c r="X44" t="n">
-        <v>343.5370193546796</v>
+        <v>344.408481043995</v>
       </c>
       <c r="Y44" t="n">
-        <v>360.0438573322642</v>
+        <v>360.9153190215795</v>
       </c>
     </row>
     <row r="45">
@@ -25943,28 +25943,28 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>140.3391023260779</v>
+        <v>141.2105640153933</v>
       </c>
       <c r="C45" t="n">
-        <v>146.5144176645263</v>
+        <v>147.3858793538417</v>
       </c>
       <c r="D45" t="n">
-        <v>121.2509842408493</v>
+        <v>122.1224459301647</v>
       </c>
       <c r="E45" t="n">
-        <v>131.4509991316115</v>
+        <v>132.3224608209269</v>
       </c>
       <c r="F45" t="n">
-        <v>118.8751310695944</v>
+        <v>119.7465927589098</v>
       </c>
       <c r="G45" t="n">
-        <v>111.1494358394212</v>
+        <v>112.0208975287366</v>
       </c>
       <c r="H45" t="n">
-        <v>86.04136291270703</v>
+        <v>86.9128246020224</v>
       </c>
       <c r="I45" t="n">
-        <v>63.20255152762564</v>
+        <v>64.07401321694101</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -25991,28 +25991,28 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>73.9637528288537</v>
+        <v>47.24518925785293</v>
       </c>
       <c r="S45" t="n">
-        <v>119.8687985854176</v>
+        <v>122.0592572200773</v>
       </c>
       <c r="T45" t="n">
-        <v>148.3503561764013</v>
+        <v>174.8421090603475</v>
       </c>
       <c r="U45" t="n">
-        <v>177.1809482729545</v>
+        <v>173.0287371861846</v>
       </c>
       <c r="V45" t="n">
-        <v>206.6065058256358</v>
+        <v>207.4779675149512</v>
       </c>
       <c r="W45" t="n">
-        <v>199.8806106424994</v>
+        <v>198.7823382661294</v>
       </c>
       <c r="X45" t="n">
-        <v>179.578903879688</v>
+        <v>180.4503655690034</v>
       </c>
       <c r="Y45" t="n">
-        <v>179.4886144535149</v>
+        <v>180.3600761428303</v>
       </c>
     </row>
     <row r="46">
@@ -26022,31 +26022,31 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>153.6378988581479</v>
+        <v>154.5093605474632</v>
       </c>
       <c r="C46" t="n">
-        <v>141.0527397748384</v>
+        <v>141.9242014641538</v>
       </c>
       <c r="D46" t="n">
-        <v>122.4213916944229</v>
+        <v>123.2928533837383</v>
       </c>
       <c r="E46" t="n">
-        <v>120.2398813227797</v>
+        <v>121.1113430120951</v>
       </c>
       <c r="F46" t="n">
-        <v>119.2269666991418</v>
+        <v>120.0984283884572</v>
       </c>
       <c r="G46" t="n">
-        <v>141.7968980346693</v>
+        <v>142.6683597239847</v>
       </c>
       <c r="H46" t="n">
-        <v>136.0330911836501</v>
+        <v>136.9045528729655</v>
       </c>
       <c r="I46" t="n">
-        <v>129.2563936034688</v>
+        <v>130.1278552927842</v>
       </c>
       <c r="J46" t="n">
-        <v>44.59874630865251</v>
+        <v>68.03656048219871</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -26067,31 +26067,31 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>59.96796192790495</v>
+        <v>60.83942361722032</v>
       </c>
       <c r="R46" t="n">
-        <v>151.0993100533801</v>
+        <v>124.3807464823793</v>
       </c>
       <c r="S46" t="n">
-        <v>197.8225167131828</v>
+        <v>198.6939784024982</v>
       </c>
       <c r="T46" t="n">
-        <v>176.1312169098613</v>
+        <v>178.321675544521</v>
       </c>
       <c r="U46" t="n">
-        <v>234.5046568380706</v>
+        <v>233.4063844617007</v>
       </c>
       <c r="V46" t="n">
-        <v>200.3232708054078</v>
+        <v>226.8150236893539</v>
       </c>
       <c r="W46" t="n">
-        <v>260.3289170128016</v>
+        <v>233.6103534418008</v>
       </c>
       <c r="X46" t="n">
-        <v>199.5155740652477</v>
+        <v>200.3870357545631</v>
       </c>
       <c r="Y46" t="n">
-        <v>192.3905720283054</v>
+        <v>193.2620337176207</v>
       </c>
     </row>
   </sheetData>
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>502440.198806375</v>
+        <v>503907.6067869019</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>481999.180044313</v>
+        <v>483466.58802484</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>481999.1800443131</v>
+        <v>483466.58802484</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>511116.6273947839</v>
+        <v>510965.521867447</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>511116.6273947841</v>
+        <v>510965.5218674471</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>511116.6273947839</v>
+        <v>510965.5218674471</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>357756.4465738533</v>
+        <v>357509.8637038348</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>357756.4465738533</v>
+        <v>357509.8637038348</v>
       </c>
     </row>
   </sheetData>
@@ -26313,13 +26313,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>757830.6133132603</v>
+        <v>757830.6133132606</v>
       </c>
       <c r="C2" t="n">
-        <v>757830.6133132603</v>
+        <v>757830.6133132604</v>
       </c>
       <c r="D2" t="n">
-        <v>757830.6133132603</v>
+        <v>757830.6133132604</v>
       </c>
       <c r="E2" t="n">
         <v>398153.8684810193</v>
@@ -26328,34 +26328,34 @@
         <v>398153.8684810193</v>
       </c>
       <c r="G2" t="n">
-        <v>421072.5864869678</v>
+        <v>421072.5864869679</v>
       </c>
       <c r="H2" t="n">
-        <v>421072.5864869678</v>
+        <v>421072.5864869679</v>
       </c>
       <c r="I2" t="n">
-        <v>434500.2333674678</v>
+        <v>435532.575009551</v>
       </c>
       <c r="J2" t="n">
-        <v>411581.5153615192</v>
+        <v>412613.8570036024</v>
       </c>
       <c r="K2" t="n">
-        <v>411581.5153615192</v>
+        <v>412613.8570036023</v>
       </c>
       <c r="L2" t="n">
-        <v>444228.3502696228</v>
+        <v>443445.9949483434</v>
       </c>
       <c r="M2" t="n">
-        <v>444228.3502696227</v>
+        <v>443445.9949483434</v>
       </c>
       <c r="N2" t="n">
-        <v>444228.3502696226</v>
+        <v>443445.9949483436</v>
       </c>
       <c r="O2" t="n">
-        <v>272279.0566219135</v>
+        <v>271389.6509467181</v>
       </c>
       <c r="P2" t="n">
-        <v>272279.0566219135</v>
+        <v>271389.6509467182</v>
       </c>
     </row>
     <row r="3">
@@ -26386,16 +26386,16 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>6812.973454767425</v>
+        <v>7336.767107248528</v>
       </c>
       <c r="J3" t="n">
-        <v>62908.34524014962</v>
+        <v>62908.3452401496</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>20955.26505903155</v>
+        <v>20258.09570757924</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -26438,28 +26438,28 @@
         <v>244604.9698508521</v>
       </c>
       <c r="I4" t="n">
-        <v>252032.7446345292</v>
+        <v>252607.0155662679</v>
       </c>
       <c r="J4" t="n">
-        <v>237890.8531188245</v>
+        <v>238465.1240505631</v>
       </c>
       <c r="K4" t="n">
-        <v>237890.8531188245</v>
+        <v>238465.1240505631</v>
       </c>
       <c r="L4" t="n">
-        <v>258035.4352669928</v>
+        <v>257489.955627033</v>
       </c>
       <c r="M4" t="n">
-        <v>258035.4352669928</v>
+        <v>257489.955627033</v>
       </c>
       <c r="N4" t="n">
-        <v>258035.4352669928</v>
+        <v>257489.955627033</v>
       </c>
       <c r="O4" t="n">
-        <v>151934.8996115138</v>
+        <v>151323.365033778</v>
       </c>
       <c r="P4" t="n">
-        <v>151934.8996115138</v>
+        <v>151323.365033778</v>
       </c>
     </row>
     <row r="5">
@@ -26490,28 +26490,28 @@
         <v>8420.168959378556</v>
       </c>
       <c r="I5" t="n">
-        <v>9977.88266401211</v>
+        <v>10097.64249520578</v>
       </c>
       <c r="J5" t="n">
-        <v>9073.199231819168</v>
+        <v>9192.959063012835</v>
       </c>
       <c r="K5" t="n">
-        <v>9073.199231819168</v>
+        <v>9192.959063012835</v>
       </c>
       <c r="L5" t="n">
-        <v>10370.62602243588</v>
+        <v>10417.12294087049</v>
       </c>
       <c r="M5" t="n">
-        <v>10370.62602243588</v>
+        <v>10417.12294087049</v>
       </c>
       <c r="N5" t="n">
-        <v>10370.62602243588</v>
+        <v>10417.12294087049</v>
       </c>
       <c r="O5" t="n">
-        <v>3759.823927443208</v>
+        <v>3806.320845877822</v>
       </c>
       <c r="P5" t="n">
-        <v>3759.823927443208</v>
+        <v>3806.320845877822</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>271803.0227642951</v>
+        <v>271758.8869856143</v>
       </c>
       <c r="C6" t="n">
-        <v>271803.0227642951</v>
+        <v>271758.8869856141</v>
       </c>
       <c r="D6" t="n">
-        <v>271803.0227642951</v>
+        <v>271758.8869856141</v>
       </c>
       <c r="E6" t="n">
-        <v>88657.99833755422</v>
+        <v>78892.86945529902</v>
       </c>
       <c r="F6" t="n">
-        <v>160175.3046186863</v>
+        <v>150410.1757364311</v>
       </c>
       <c r="G6" t="n">
-        <v>159438.4866357547</v>
+        <v>150292.7825644711</v>
       </c>
       <c r="H6" t="n">
-        <v>168047.4476767372</v>
+        <v>158901.7436054536</v>
       </c>
       <c r="I6" t="n">
-        <v>165676.6326141591</v>
+        <v>156736.2562701555</v>
       </c>
       <c r="J6" t="n">
-        <v>101709.1177707259</v>
+        <v>92673.11026823201</v>
       </c>
       <c r="K6" t="n">
-        <v>164617.4630108755</v>
+        <v>155581.4555083815</v>
       </c>
       <c r="L6" t="n">
-        <v>154867.0239211626</v>
+        <v>146739.8033167494</v>
       </c>
       <c r="M6" t="n">
-        <v>175822.288980194</v>
+        <v>166997.8990243286</v>
       </c>
       <c r="N6" t="n">
-        <v>175822.2889801939</v>
+        <v>166997.8990243288</v>
       </c>
       <c r="O6" t="n">
-        <v>116584.3330829565</v>
+        <v>103068.7762514476</v>
       </c>
       <c r="P6" t="n">
-        <v>116584.3330829565</v>
+        <v>103068.7762514477</v>
       </c>
     </row>
   </sheetData>
@@ -26715,19 +26715,19 @@
         <v>89.39663285141508</v>
       </c>
       <c r="L2" t="n">
-        <v>104.8295128739765</v>
+        <v>103.9580511846611</v>
       </c>
       <c r="M2" t="n">
-        <v>104.8295128739765</v>
+        <v>103.9580511846611</v>
       </c>
       <c r="N2" t="n">
-        <v>104.8295128739765</v>
+        <v>103.9580511846611</v>
       </c>
       <c r="O2" t="n">
-        <v>26.19408132378943</v>
+        <v>25.32261963447407</v>
       </c>
       <c r="P2" t="n">
-        <v>26.19408132378943</v>
+        <v>25.32261963447407</v>
       </c>
     </row>
     <row r="3">
@@ -26810,28 +26810,28 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>25.62029119463083</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="J4" t="n">
-        <v>25.62029119463083</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="K4" t="n">
-        <v>25.62029119463083</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="L4" t="n">
-        <v>25.62029119463083</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="M4" t="n">
-        <v>25.62029119463083</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="N4" t="n">
-        <v>25.62029119463083</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="O4" t="n">
-        <v>25.62029119463083</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="P4" t="n">
-        <v>25.62029119463083</v>
+        <v>27.59002526031614</v>
       </c>
     </row>
   </sheetData>
@@ -26916,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>89.39663285141508</v>
+        <v>89.39663285141506</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26931,13 +26931,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>78.63543155018702</v>
+        <v>78.63543155018701</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>26.19408132378944</v>
+        <v>25.32261963447405</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27032,7 +27032,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>25.62029119463083</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27153,7 +27153,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>89.39663285141508</v>
+        <v>89.39663285141506</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27168,7 +27168,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>78.63543155018702</v>
+        <v>78.63543155018701</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -29219,7 +29219,7 @@
         <v>100.1578341526431</v>
       </c>
       <c r="J25" t="n">
-        <v>93.35918011667277</v>
+        <v>95.24932896758294</v>
       </c>
       <c r="K25" t="n">
         <v>22.26949182588285</v>
@@ -29477,7 +29477,7 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q28" t="n">
-        <v>86.16204325169439</v>
+        <v>88.05219210260454</v>
       </c>
       <c r="R28" t="n">
         <v>89.39663285141508</v>
@@ -29714,7 +29714,7 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q31" t="n">
-        <v>86.16204325169439</v>
+        <v>88.05219210260454</v>
       </c>
       <c r="R31" t="n">
         <v>89.39663285141508</v>
@@ -29748,28 +29748,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>104.8295128739765</v>
+        <v>103.9580511846611</v>
       </c>
       <c r="C32" t="n">
-        <v>104.8295128739765</v>
+        <v>103.9580511846611</v>
       </c>
       <c r="D32" t="n">
-        <v>104.8295128739765</v>
+        <v>103.9580511846611</v>
       </c>
       <c r="E32" t="n">
-        <v>104.8295128739765</v>
+        <v>103.9580511846611</v>
       </c>
       <c r="F32" t="n">
-        <v>104.8295128739765</v>
+        <v>103.9580511846611</v>
       </c>
       <c r="G32" t="n">
-        <v>104.8295128739765</v>
+        <v>103.9580511846611</v>
       </c>
       <c r="H32" t="n">
-        <v>104.8295128739765</v>
+        <v>103.9580511846611</v>
       </c>
       <c r="I32" t="n">
-        <v>104.8295128739765</v>
+        <v>103.9580511846611</v>
       </c>
       <c r="J32" t="n">
         <v>11.94928935461252</v>
@@ -29796,28 +29796,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R32" t="n">
-        <v>104.8295128739765</v>
+        <v>103.9580511846611</v>
       </c>
       <c r="S32" t="n">
-        <v>104.8295128739765</v>
+        <v>103.9580511846611</v>
       </c>
       <c r="T32" t="n">
-        <v>104.8295128739765</v>
+        <v>103.9580511846611</v>
       </c>
       <c r="U32" t="n">
-        <v>104.8295128739765</v>
+        <v>103.9580511846611</v>
       </c>
       <c r="V32" t="n">
-        <v>104.8295128739765</v>
+        <v>103.9580511846611</v>
       </c>
       <c r="W32" t="n">
-        <v>104.8295128739765</v>
+        <v>103.9580511846611</v>
       </c>
       <c r="X32" t="n">
-        <v>104.8295128739765</v>
+        <v>103.9580511846611</v>
       </c>
       <c r="Y32" t="n">
-        <v>104.8295128739765</v>
+        <v>103.9580511846611</v>
       </c>
     </row>
     <row r="33">
@@ -29827,25 +29827,25 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>104.8295128739765</v>
+        <v>103.9580511846611</v>
       </c>
       <c r="C33" t="n">
-        <v>104.8295128739765</v>
+        <v>103.9580511846611</v>
       </c>
       <c r="D33" t="n">
-        <v>104.8295128739765</v>
+        <v>103.9580511846611</v>
       </c>
       <c r="E33" t="n">
-        <v>104.8295128739765</v>
+        <v>103.9580511846611</v>
       </c>
       <c r="F33" t="n">
-        <v>104.8295128739765</v>
+        <v>103.9580511846611</v>
       </c>
       <c r="G33" t="n">
-        <v>104.8295128739765</v>
+        <v>103.9580511846611</v>
       </c>
       <c r="H33" t="n">
-        <v>104.8295128739765</v>
+        <v>103.9580511846611</v>
       </c>
       <c r="I33" t="n">
         <v>89.39663285141508</v>
@@ -29878,25 +29878,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
-        <v>104.8295128739765</v>
+        <v>103.9580511846611</v>
       </c>
       <c r="T33" t="n">
-        <v>104.8295128739765</v>
+        <v>103.9580511846611</v>
       </c>
       <c r="U33" t="n">
-        <v>104.8295128739765</v>
+        <v>103.9580511846611</v>
       </c>
       <c r="V33" t="n">
-        <v>104.8295128739765</v>
+        <v>103.9580511846611</v>
       </c>
       <c r="W33" t="n">
-        <v>104.8295128739765</v>
+        <v>103.9580511846611</v>
       </c>
       <c r="X33" t="n">
-        <v>104.8295128739765</v>
+        <v>103.9580511846611</v>
       </c>
       <c r="Y33" t="n">
-        <v>104.8295128739765</v>
+        <v>103.9580511846611</v>
       </c>
     </row>
     <row r="34">
@@ -29906,28 +29906,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>104.8295128739765</v>
+        <v>103.9580511846611</v>
       </c>
       <c r="C34" t="n">
-        <v>104.8295128739765</v>
+        <v>103.9580511846611</v>
       </c>
       <c r="D34" t="n">
-        <v>104.8295128739765</v>
+        <v>103.9580511846611</v>
       </c>
       <c r="E34" t="n">
-        <v>104.8295128739765</v>
+        <v>103.9580511846611</v>
       </c>
       <c r="F34" t="n">
-        <v>104.8295128739765</v>
+        <v>103.9580511846611</v>
       </c>
       <c r="G34" t="n">
-        <v>104.8295128739765</v>
+        <v>103.9580511846611</v>
       </c>
       <c r="H34" t="n">
-        <v>104.8295128739765</v>
+        <v>103.9580511846611</v>
       </c>
       <c r="I34" t="n">
-        <v>104.8295128739765</v>
+        <v>103.9580511846611</v>
       </c>
       <c r="J34" t="n">
         <v>93.35918011667277</v>
@@ -29951,31 +29951,31 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q34" t="n">
-        <v>86.16204325169439</v>
+        <v>88.05219210260454</v>
       </c>
       <c r="R34" t="n">
-        <v>104.8295128739765</v>
+        <v>103.9580511846611</v>
       </c>
       <c r="S34" t="n">
-        <v>104.8295128739765</v>
+        <v>103.9580511846611</v>
       </c>
       <c r="T34" t="n">
-        <v>104.8295128739765</v>
+        <v>103.9580511846611</v>
       </c>
       <c r="U34" t="n">
-        <v>104.8295128739765</v>
+        <v>103.9580511846611</v>
       </c>
       <c r="V34" t="n">
-        <v>104.8295128739765</v>
+        <v>103.9580511846611</v>
       </c>
       <c r="W34" t="n">
-        <v>104.8295128739765</v>
+        <v>103.9580511846611</v>
       </c>
       <c r="X34" t="n">
-        <v>104.8295128739765</v>
+        <v>103.9580511846611</v>
       </c>
       <c r="Y34" t="n">
-        <v>104.8295128739765</v>
+        <v>103.9580511846611</v>
       </c>
     </row>
     <row r="35">
@@ -29985,28 +29985,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>104.8295128739765</v>
+        <v>103.9580511846611</v>
       </c>
       <c r="C35" t="n">
-        <v>104.8295128739765</v>
+        <v>103.9580511846611</v>
       </c>
       <c r="D35" t="n">
-        <v>104.8295128739765</v>
+        <v>103.9580511846611</v>
       </c>
       <c r="E35" t="n">
-        <v>104.8295128739765</v>
+        <v>103.9580511846611</v>
       </c>
       <c r="F35" t="n">
-        <v>104.8295128739765</v>
+        <v>103.9580511846611</v>
       </c>
       <c r="G35" t="n">
-        <v>104.8295128739765</v>
+        <v>103.9580511846611</v>
       </c>
       <c r="H35" t="n">
-        <v>104.8295128739765</v>
+        <v>103.9580511846611</v>
       </c>
       <c r="I35" t="n">
-        <v>104.8295128739765</v>
+        <v>103.9580511846611</v>
       </c>
       <c r="J35" t="n">
         <v>11.94928935461252</v>
@@ -30033,28 +30033,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R35" t="n">
-        <v>104.8295128739765</v>
+        <v>103.9580511846611</v>
       </c>
       <c r="S35" t="n">
-        <v>104.8295128739765</v>
+        <v>103.9580511846611</v>
       </c>
       <c r="T35" t="n">
-        <v>104.8295128739765</v>
+        <v>103.9580511846611</v>
       </c>
       <c r="U35" t="n">
-        <v>104.8295128739765</v>
+        <v>103.9580511846611</v>
       </c>
       <c r="V35" t="n">
-        <v>104.8295128739765</v>
+        <v>103.9580511846611</v>
       </c>
       <c r="W35" t="n">
-        <v>104.8295128739765</v>
+        <v>103.9580511846611</v>
       </c>
       <c r="X35" t="n">
-        <v>104.8295128739765</v>
+        <v>103.9580511846611</v>
       </c>
       <c r="Y35" t="n">
-        <v>104.8295128739765</v>
+        <v>103.9580511846611</v>
       </c>
     </row>
     <row r="36">
@@ -30064,25 +30064,25 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>104.8295128739765</v>
+        <v>103.9580511846611</v>
       </c>
       <c r="C36" t="n">
-        <v>104.8295128739765</v>
+        <v>103.9580511846611</v>
       </c>
       <c r="D36" t="n">
-        <v>104.8295128739765</v>
+        <v>103.9580511846611</v>
       </c>
       <c r="E36" t="n">
-        <v>104.8295128739765</v>
+        <v>103.9580511846611</v>
       </c>
       <c r="F36" t="n">
-        <v>104.8295128739765</v>
+        <v>103.9580511846611</v>
       </c>
       <c r="G36" t="n">
-        <v>104.8295128739765</v>
+        <v>103.9580511846611</v>
       </c>
       <c r="H36" t="n">
-        <v>104.8295128739765</v>
+        <v>103.9580511846611</v>
       </c>
       <c r="I36" t="n">
         <v>89.39663285141508</v>
@@ -30115,25 +30115,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
-        <v>104.8295128739765</v>
+        <v>103.9580511846611</v>
       </c>
       <c r="T36" t="n">
-        <v>104.8295128739765</v>
+        <v>103.9580511846611</v>
       </c>
       <c r="U36" t="n">
-        <v>104.8295128739765</v>
+        <v>103.9580511846611</v>
       </c>
       <c r="V36" t="n">
-        <v>104.8295128739765</v>
+        <v>103.9580511846611</v>
       </c>
       <c r="W36" t="n">
-        <v>104.8295128739765</v>
+        <v>103.9580511846611</v>
       </c>
       <c r="X36" t="n">
-        <v>104.8295128739765</v>
+        <v>103.9580511846611</v>
       </c>
       <c r="Y36" t="n">
-        <v>104.8295128739765</v>
+        <v>103.9580511846611</v>
       </c>
     </row>
     <row r="37">
@@ -30143,34 +30143,34 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>104.8295128739765</v>
+        <v>103.9580511846611</v>
       </c>
       <c r="C37" t="n">
-        <v>104.8295128739765</v>
+        <v>103.9580511846611</v>
       </c>
       <c r="D37" t="n">
-        <v>104.8295128739765</v>
+        <v>103.9580511846611</v>
       </c>
       <c r="E37" t="n">
-        <v>104.8295128739765</v>
+        <v>103.9580511846611</v>
       </c>
       <c r="F37" t="n">
-        <v>104.8295128739765</v>
+        <v>103.9580511846611</v>
       </c>
       <c r="G37" t="n">
-        <v>104.8295128739765</v>
+        <v>103.9580511846611</v>
       </c>
       <c r="H37" t="n">
-        <v>104.8295128739765</v>
+        <v>103.9580511846611</v>
       </c>
       <c r="I37" t="n">
-        <v>104.8295128739765</v>
+        <v>103.9580511846611</v>
       </c>
       <c r="J37" t="n">
         <v>93.35918011667277</v>
       </c>
       <c r="K37" t="n">
-        <v>22.26949182588285</v>
+        <v>24.15964067679301</v>
       </c>
       <c r="L37" t="n">
         <v>0</v>
@@ -30191,28 +30191,28 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R37" t="n">
-        <v>104.8295128739765</v>
+        <v>103.9580511846611</v>
       </c>
       <c r="S37" t="n">
-        <v>104.8295128739765</v>
+        <v>103.9580511846611</v>
       </c>
       <c r="T37" t="n">
-        <v>104.8295128739765</v>
+        <v>103.9580511846611</v>
       </c>
       <c r="U37" t="n">
-        <v>104.8295128739765</v>
+        <v>103.9580511846611</v>
       </c>
       <c r="V37" t="n">
-        <v>104.8295128739765</v>
+        <v>103.9580511846611</v>
       </c>
       <c r="W37" t="n">
-        <v>104.8295128739765</v>
+        <v>103.9580511846611</v>
       </c>
       <c r="X37" t="n">
-        <v>104.8295128739765</v>
+        <v>103.9580511846611</v>
       </c>
       <c r="Y37" t="n">
-        <v>104.8295128739765</v>
+        <v>103.9580511846611</v>
       </c>
     </row>
     <row r="38">
@@ -30222,28 +30222,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>104.8295128739765</v>
+        <v>103.9580511846611</v>
       </c>
       <c r="C38" t="n">
-        <v>104.8295128739765</v>
+        <v>103.9580511846611</v>
       </c>
       <c r="D38" t="n">
-        <v>104.8295128739765</v>
+        <v>103.9580511846611</v>
       </c>
       <c r="E38" t="n">
-        <v>104.8295128739765</v>
+        <v>103.9580511846611</v>
       </c>
       <c r="F38" t="n">
-        <v>104.8295128739765</v>
+        <v>103.9580511846611</v>
       </c>
       <c r="G38" t="n">
-        <v>104.8295128739765</v>
+        <v>103.9580511846611</v>
       </c>
       <c r="H38" t="n">
-        <v>104.8295128739765</v>
+        <v>103.9580511846611</v>
       </c>
       <c r="I38" t="n">
-        <v>104.8295128739765</v>
+        <v>103.9580511846611</v>
       </c>
       <c r="J38" t="n">
         <v>11.94928935461252</v>
@@ -30270,28 +30270,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R38" t="n">
-        <v>104.8295128739765</v>
+        <v>103.9580511846611</v>
       </c>
       <c r="S38" t="n">
-        <v>104.8295128739765</v>
+        <v>103.9580511846611</v>
       </c>
       <c r="T38" t="n">
-        <v>104.8295128739765</v>
+        <v>103.9580511846611</v>
       </c>
       <c r="U38" t="n">
-        <v>104.8295128739765</v>
+        <v>103.9580511846611</v>
       </c>
       <c r="V38" t="n">
-        <v>104.8295128739765</v>
+        <v>103.9580511846611</v>
       </c>
       <c r="W38" t="n">
-        <v>104.8295128739765</v>
+        <v>103.9580511846611</v>
       </c>
       <c r="X38" t="n">
-        <v>104.8295128739765</v>
+        <v>103.9580511846611</v>
       </c>
       <c r="Y38" t="n">
-        <v>104.8295128739765</v>
+        <v>103.9580511846611</v>
       </c>
     </row>
     <row r="39">
@@ -30301,25 +30301,25 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>104.8295128739765</v>
+        <v>103.9580511846611</v>
       </c>
       <c r="C39" t="n">
-        <v>104.8295128739765</v>
+        <v>103.9580511846611</v>
       </c>
       <c r="D39" t="n">
-        <v>104.8295128739765</v>
+        <v>103.9580511846611</v>
       </c>
       <c r="E39" t="n">
-        <v>104.8295128739765</v>
+        <v>103.9580511846611</v>
       </c>
       <c r="F39" t="n">
-        <v>104.8295128739765</v>
+        <v>103.9580511846611</v>
       </c>
       <c r="G39" t="n">
-        <v>104.8295128739765</v>
+        <v>103.9580511846611</v>
       </c>
       <c r="H39" t="n">
-        <v>104.8295128739765</v>
+        <v>103.9580511846611</v>
       </c>
       <c r="I39" t="n">
         <v>89.39663285141508</v>
@@ -30352,25 +30352,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
-        <v>104.8295128739765</v>
+        <v>103.9580511846611</v>
       </c>
       <c r="T39" t="n">
-        <v>104.8295128739765</v>
+        <v>103.9580511846611</v>
       </c>
       <c r="U39" t="n">
-        <v>104.8295128739765</v>
+        <v>103.9580511846611</v>
       </c>
       <c r="V39" t="n">
-        <v>104.8295128739765</v>
+        <v>103.9580511846611</v>
       </c>
       <c r="W39" t="n">
-        <v>104.8295128739765</v>
+        <v>103.9580511846611</v>
       </c>
       <c r="X39" t="n">
-        <v>104.8295128739765</v>
+        <v>103.9580511846611</v>
       </c>
       <c r="Y39" t="n">
-        <v>104.8295128739765</v>
+        <v>103.9580511846611</v>
       </c>
     </row>
     <row r="40">
@@ -30380,31 +30380,31 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>104.8295128739765</v>
+        <v>103.9580511846611</v>
       </c>
       <c r="C40" t="n">
-        <v>104.8295128739765</v>
+        <v>103.9580511846611</v>
       </c>
       <c r="D40" t="n">
-        <v>104.8295128739765</v>
+        <v>103.9580511846611</v>
       </c>
       <c r="E40" t="n">
-        <v>104.8295128739765</v>
+        <v>103.9580511846611</v>
       </c>
       <c r="F40" t="n">
-        <v>104.8295128739765</v>
+        <v>103.9580511846611</v>
       </c>
       <c r="G40" t="n">
-        <v>104.8295128739765</v>
+        <v>103.9580511846611</v>
       </c>
       <c r="H40" t="n">
-        <v>104.8295128739765</v>
+        <v>103.9580511846611</v>
       </c>
       <c r="I40" t="n">
-        <v>104.8295128739765</v>
+        <v>103.9580511846611</v>
       </c>
       <c r="J40" t="n">
-        <v>93.35918011667277</v>
+        <v>95.24932896758294</v>
       </c>
       <c r="K40" t="n">
         <v>22.26949182588285</v>
@@ -30428,28 +30428,28 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R40" t="n">
-        <v>104.8295128739765</v>
+        <v>103.9580511846611</v>
       </c>
       <c r="S40" t="n">
-        <v>104.8295128739765</v>
+        <v>103.9580511846611</v>
       </c>
       <c r="T40" t="n">
-        <v>104.8295128739765</v>
+        <v>103.9580511846611</v>
       </c>
       <c r="U40" t="n">
-        <v>104.8295128739765</v>
+        <v>103.9580511846611</v>
       </c>
       <c r="V40" t="n">
-        <v>104.8295128739765</v>
+        <v>103.9580511846611</v>
       </c>
       <c r="W40" t="n">
-        <v>104.8295128739765</v>
+        <v>103.9580511846611</v>
       </c>
       <c r="X40" t="n">
-        <v>104.8295128739765</v>
+        <v>103.9580511846611</v>
       </c>
       <c r="Y40" t="n">
-        <v>104.8295128739765</v>
+        <v>103.9580511846611</v>
       </c>
     </row>
     <row r="41">
@@ -30459,28 +30459,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>26.19408132378943</v>
+        <v>25.32261963447407</v>
       </c>
       <c r="C41" t="n">
-        <v>26.19408132378943</v>
+        <v>25.32261963447407</v>
       </c>
       <c r="D41" t="n">
-        <v>26.19408132378943</v>
+        <v>25.32261963447407</v>
       </c>
       <c r="E41" t="n">
-        <v>26.19408132378943</v>
+        <v>25.32261963447407</v>
       </c>
       <c r="F41" t="n">
-        <v>26.19408132378943</v>
+        <v>25.32261963447407</v>
       </c>
       <c r="G41" t="n">
-        <v>26.19408132378943</v>
+        <v>25.32261963447407</v>
       </c>
       <c r="H41" t="n">
-        <v>26.19408132378943</v>
+        <v>25.32261963447407</v>
       </c>
       <c r="I41" t="n">
-        <v>26.19408132378943</v>
+        <v>25.32261963447407</v>
       </c>
       <c r="J41" t="n">
         <v>11.94928935461252</v>
@@ -30507,28 +30507,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R41" t="n">
-        <v>26.19408132378943</v>
+        <v>25.32261963447407</v>
       </c>
       <c r="S41" t="n">
-        <v>26.19408132378943</v>
+        <v>25.32261963447407</v>
       </c>
       <c r="T41" t="n">
-        <v>26.19408132378943</v>
+        <v>25.32261963447407</v>
       </c>
       <c r="U41" t="n">
-        <v>26.19408132378943</v>
+        <v>25.32261963447407</v>
       </c>
       <c r="V41" t="n">
-        <v>26.19408132378943</v>
+        <v>25.32261963447407</v>
       </c>
       <c r="W41" t="n">
-        <v>26.19408132378943</v>
+        <v>25.32261963447407</v>
       </c>
       <c r="X41" t="n">
-        <v>26.19408132378943</v>
+        <v>25.32261963447407</v>
       </c>
       <c r="Y41" t="n">
-        <v>26.19408132378943</v>
+        <v>25.32261963447407</v>
       </c>
     </row>
     <row r="42">
@@ -30538,28 +30538,28 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>26.19408132378943</v>
+        <v>25.32261963447407</v>
       </c>
       <c r="C42" t="n">
-        <v>26.19408132378943</v>
+        <v>25.32261963447407</v>
       </c>
       <c r="D42" t="n">
-        <v>26.19408132378943</v>
+        <v>25.32261963447407</v>
       </c>
       <c r="E42" t="n">
-        <v>26.19408132378943</v>
+        <v>25.32261963447407</v>
       </c>
       <c r="F42" t="n">
-        <v>26.19408132378943</v>
+        <v>25.32261963447407</v>
       </c>
       <c r="G42" t="n">
-        <v>26.19408132378943</v>
+        <v>25.32261963447407</v>
       </c>
       <c r="H42" t="n">
-        <v>26.19408132378943</v>
+        <v>25.32261963447407</v>
       </c>
       <c r="I42" t="n">
-        <v>26.19408132378943</v>
+        <v>25.32261963447407</v>
       </c>
       <c r="J42" t="n">
         <v>0.7465913262578567</v>
@@ -30586,28 +30586,28 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>26.19408132378943</v>
+        <v>25.32261963447407</v>
       </c>
       <c r="S42" t="n">
-        <v>26.19408132378943</v>
+        <v>25.32261963447407</v>
       </c>
       <c r="T42" t="n">
-        <v>26.19408132378943</v>
+        <v>25.32261963447407</v>
       </c>
       <c r="U42" t="n">
-        <v>26.19408132378943</v>
+        <v>25.32261963447407</v>
       </c>
       <c r="V42" t="n">
-        <v>26.19408132378943</v>
+        <v>25.32261963447407</v>
       </c>
       <c r="W42" t="n">
-        <v>26.19408132378943</v>
+        <v>25.32261963447407</v>
       </c>
       <c r="X42" t="n">
-        <v>26.19408132378943</v>
+        <v>25.32261963447407</v>
       </c>
       <c r="Y42" t="n">
-        <v>26.19408132378943</v>
+        <v>25.32261963447407</v>
       </c>
     </row>
     <row r="43">
@@ -30617,31 +30617,31 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>26.19408132378943</v>
+        <v>25.32261963447407</v>
       </c>
       <c r="C43" t="n">
-        <v>26.19408132378943</v>
+        <v>25.32261963447407</v>
       </c>
       <c r="D43" t="n">
-        <v>26.19408132378943</v>
+        <v>25.32261963447407</v>
       </c>
       <c r="E43" t="n">
-        <v>26.19408132378943</v>
+        <v>25.32261963447407</v>
       </c>
       <c r="F43" t="n">
-        <v>26.19408132378943</v>
+        <v>25.32261963447407</v>
       </c>
       <c r="G43" t="n">
-        <v>26.19408132378943</v>
+        <v>25.32261963447407</v>
       </c>
       <c r="H43" t="n">
-        <v>26.19408132378943</v>
+        <v>25.32261963447407</v>
       </c>
       <c r="I43" t="n">
-        <v>26.19408132378943</v>
+        <v>25.32261963447407</v>
       </c>
       <c r="J43" t="n">
-        <v>26.19408132378943</v>
+        <v>25.32261963447407</v>
       </c>
       <c r="K43" t="n">
         <v>22.26949182588285</v>
@@ -30659,34 +30659,34 @@
         <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>2.721440735106512</v>
+        <v>4.611589586016663</v>
       </c>
       <c r="Q43" t="n">
-        <v>26.19408132378943</v>
+        <v>25.32261963447407</v>
       </c>
       <c r="R43" t="n">
-        <v>26.19408132378943</v>
+        <v>25.32261963447407</v>
       </c>
       <c r="S43" t="n">
-        <v>26.19408132378943</v>
+        <v>25.32261963447407</v>
       </c>
       <c r="T43" t="n">
-        <v>26.19408132378943</v>
+        <v>25.32261963447407</v>
       </c>
       <c r="U43" t="n">
-        <v>26.19408132378943</v>
+        <v>25.32261963447407</v>
       </c>
       <c r="V43" t="n">
-        <v>26.19408132378943</v>
+        <v>25.32261963447407</v>
       </c>
       <c r="W43" t="n">
-        <v>26.19408132378943</v>
+        <v>25.32261963447407</v>
       </c>
       <c r="X43" t="n">
-        <v>26.19408132378943</v>
+        <v>25.32261963447407</v>
       </c>
       <c r="Y43" t="n">
-        <v>26.19408132378943</v>
+        <v>25.32261963447407</v>
       </c>
     </row>
     <row r="44">
@@ -30696,28 +30696,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>26.19408132378943</v>
+        <v>25.32261963447407</v>
       </c>
       <c r="C44" t="n">
-        <v>26.19408132378943</v>
+        <v>25.32261963447407</v>
       </c>
       <c r="D44" t="n">
-        <v>26.19408132378943</v>
+        <v>25.32261963447407</v>
       </c>
       <c r="E44" t="n">
-        <v>26.19408132378943</v>
+        <v>25.32261963447407</v>
       </c>
       <c r="F44" t="n">
-        <v>26.19408132378943</v>
+        <v>25.32261963447407</v>
       </c>
       <c r="G44" t="n">
-        <v>26.19408132378943</v>
+        <v>25.32261963447407</v>
       </c>
       <c r="H44" t="n">
-        <v>26.19408132378943</v>
+        <v>25.32261963447407</v>
       </c>
       <c r="I44" t="n">
-        <v>26.19408132378943</v>
+        <v>25.32261963447407</v>
       </c>
       <c r="J44" t="n">
         <v>11.94928935461252</v>
@@ -30744,28 +30744,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R44" t="n">
-        <v>26.19408132378943</v>
+        <v>25.32261963447407</v>
       </c>
       <c r="S44" t="n">
-        <v>26.19408132378943</v>
+        <v>25.32261963447407</v>
       </c>
       <c r="T44" t="n">
-        <v>26.19408132378943</v>
+        <v>25.32261963447407</v>
       </c>
       <c r="U44" t="n">
-        <v>26.19408132378943</v>
+        <v>25.32261963447407</v>
       </c>
       <c r="V44" t="n">
-        <v>26.19408132378943</v>
+        <v>25.32261963447407</v>
       </c>
       <c r="W44" t="n">
-        <v>26.19408132378943</v>
+        <v>25.32261963447407</v>
       </c>
       <c r="X44" t="n">
-        <v>26.19408132378943</v>
+        <v>25.32261963447407</v>
       </c>
       <c r="Y44" t="n">
-        <v>26.19408132378943</v>
+        <v>25.32261963447407</v>
       </c>
     </row>
     <row r="45">
@@ -30775,28 +30775,28 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>26.19408132378943</v>
+        <v>25.32261963447407</v>
       </c>
       <c r="C45" t="n">
-        <v>26.19408132378943</v>
+        <v>25.32261963447407</v>
       </c>
       <c r="D45" t="n">
-        <v>26.19408132378943</v>
+        <v>25.32261963447407</v>
       </c>
       <c r="E45" t="n">
-        <v>26.19408132378943</v>
+        <v>25.32261963447407</v>
       </c>
       <c r="F45" t="n">
-        <v>26.19408132378943</v>
+        <v>25.32261963447407</v>
       </c>
       <c r="G45" t="n">
-        <v>26.19408132378943</v>
+        <v>25.32261963447407</v>
       </c>
       <c r="H45" t="n">
-        <v>26.19408132378943</v>
+        <v>25.32261963447407</v>
       </c>
       <c r="I45" t="n">
-        <v>26.19408132378943</v>
+        <v>25.32261963447407</v>
       </c>
       <c r="J45" t="n">
         <v>0.7465913262578567</v>
@@ -30823,28 +30823,28 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>26.19408132378943</v>
+        <v>25.32261963447407</v>
       </c>
       <c r="S45" t="n">
-        <v>26.19408132378943</v>
+        <v>25.32261963447407</v>
       </c>
       <c r="T45" t="n">
-        <v>26.19408132378943</v>
+        <v>25.32261963447407</v>
       </c>
       <c r="U45" t="n">
-        <v>26.19408132378943</v>
+        <v>25.32261963447407</v>
       </c>
       <c r="V45" t="n">
-        <v>26.19408132378943</v>
+        <v>25.32261963447407</v>
       </c>
       <c r="W45" t="n">
-        <v>26.19408132378943</v>
+        <v>25.32261963447407</v>
       </c>
       <c r="X45" t="n">
-        <v>26.19408132378943</v>
+        <v>25.32261963447407</v>
       </c>
       <c r="Y45" t="n">
-        <v>26.19408132378943</v>
+        <v>25.32261963447407</v>
       </c>
     </row>
     <row r="46">
@@ -30854,31 +30854,31 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>26.19408132378943</v>
+        <v>25.32261963447407</v>
       </c>
       <c r="C46" t="n">
-        <v>26.19408132378943</v>
+        <v>25.32261963447407</v>
       </c>
       <c r="D46" t="n">
-        <v>26.19408132378943</v>
+        <v>25.32261963447407</v>
       </c>
       <c r="E46" t="n">
-        <v>26.19408132378943</v>
+        <v>25.32261963447407</v>
       </c>
       <c r="F46" t="n">
-        <v>26.19408132378943</v>
+        <v>25.32261963447407</v>
       </c>
       <c r="G46" t="n">
-        <v>26.19408132378943</v>
+        <v>25.32261963447407</v>
       </c>
       <c r="H46" t="n">
-        <v>26.19408132378943</v>
+        <v>25.32261963447407</v>
       </c>
       <c r="I46" t="n">
-        <v>26.19408132378943</v>
+        <v>25.32261963447407</v>
       </c>
       <c r="J46" t="n">
-        <v>26.19408132378943</v>
+        <v>25.32261963447407</v>
       </c>
       <c r="K46" t="n">
         <v>22.26949182588285</v>
@@ -30896,34 +30896,34 @@
         <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>2.721440735106512</v>
+        <v>4.611589586016663</v>
       </c>
       <c r="Q46" t="n">
-        <v>26.19408132378943</v>
+        <v>25.32261963447407</v>
       </c>
       <c r="R46" t="n">
-        <v>26.19408132378943</v>
+        <v>25.32261963447407</v>
       </c>
       <c r="S46" t="n">
-        <v>26.19408132378943</v>
+        <v>25.32261963447407</v>
       </c>
       <c r="T46" t="n">
-        <v>26.19408132378943</v>
+        <v>25.32261963447407</v>
       </c>
       <c r="U46" t="n">
-        <v>26.19408132378943</v>
+        <v>25.32261963447407</v>
       </c>
       <c r="V46" t="n">
-        <v>26.19408132378943</v>
+        <v>25.32261963447407</v>
       </c>
       <c r="W46" t="n">
-        <v>26.19408132378943</v>
+        <v>25.32261963447407</v>
       </c>
       <c r="X46" t="n">
-        <v>26.19408132378943</v>
+        <v>25.32261963447407</v>
       </c>
       <c r="Y46" t="n">
-        <v>26.19408132378943</v>
+        <v>25.32261963447407</v>
       </c>
     </row>
   </sheetData>
@@ -36360,22 +36360,22 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>24.58512791403969</v>
+        <v>26.47527676494984</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="N23" t="n">
-        <v>25.62029119463083</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="O23" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
@@ -36439,13 +36439,13 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>24.58512791403969</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="L24" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
@@ -36454,10 +36454,10 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>25.62029119463083</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="Q24" t="n">
-        <v>25.62029119463083</v>
+        <v>26.47527676494983</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,19 +36515,19 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>1.89014885091016</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>25.62029119463083</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="M25" t="n">
-        <v>25.62029119463083</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="N25" t="n">
-        <v>25.62029119463083</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="O25" t="n">
         <v>24.58512791403967</v>
@@ -36597,19 +36597,19 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>25.62029119463083</v>
+        <v>26.47527676494984</v>
       </c>
       <c r="M26" t="n">
-        <v>25.62029119463083</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="N26" t="n">
-        <v>24.58512791403969</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
@@ -36676,16 +36676,16 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>24.58512791403969</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="L27" t="n">
-        <v>25.62029119463083</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="M27" t="n">
-        <v>25.62029119463083</v>
+        <v>26.47527676494983</v>
       </c>
       <c r="N27" t="n">
-        <v>25.62029119463083</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
@@ -36758,13 +36758,13 @@
         <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>25.62029119463083</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="M28" t="n">
-        <v>25.62029119463083</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="N28" t="n">
-        <v>25.62029119463083</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="O28" t="n">
         <v>24.58512791403967</v>
@@ -36773,7 +36773,7 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>1.890148850910151</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36834,22 +36834,22 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>24.58512791403969</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="N29" t="n">
-        <v>25.62029119463083</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="O29" t="n">
-        <v>25.62029119463083</v>
+        <v>26.47527676494983</v>
       </c>
       <c r="P29" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
@@ -36916,19 +36916,19 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>24.58512791403969</v>
+        <v>26.47527676494984</v>
       </c>
       <c r="M30" t="n">
-        <v>25.62029119463083</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="N30" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="P30" t="n">
-        <v>25.62029119463083</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -36995,13 +36995,13 @@
         <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>25.62029119463083</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="M31" t="n">
-        <v>25.62029119463083</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="N31" t="n">
-        <v>25.62029119463083</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="O31" t="n">
         <v>24.58512791403967</v>
@@ -37010,7 +37010,7 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>1.890148850910151</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37074,19 +37074,19 @@
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="M32" t="n">
-        <v>24.58512791403969</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="N32" t="n">
-        <v>25.62029119463083</v>
+        <v>26.47527676494983</v>
       </c>
       <c r="O32" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>25.62029119463083</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
@@ -37150,25 +37150,25 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>24.58512791403969</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>25.62029119463083</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>25.62029119463083</v>
+        <v>26.47527676494983</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37232,13 +37232,13 @@
         <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>25.62029119463083</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="M34" t="n">
-        <v>25.62029119463083</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="N34" t="n">
-        <v>25.62029119463083</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="O34" t="n">
         <v>24.58512791403967</v>
@@ -37247,7 +37247,7 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>1.890148850910151</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37308,19 +37308,19 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="L35" t="n">
-        <v>25.62029119463083</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="M35" t="n">
-        <v>25.62029119463083</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="N35" t="n">
-        <v>25.62029119463083</v>
+        <v>26.47527676494983</v>
       </c>
       <c r="O35" t="n">
-        <v>24.58512791403969</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
         <v>0</v>
@@ -37387,25 +37387,25 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>26.47527676494984</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>24.58512791403969</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="O36" t="n">
-        <v>25.62029119463083</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="P36" t="n">
-        <v>25.62029119463083</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="Q36" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37466,16 +37466,16 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>1.89014885091016</v>
       </c>
       <c r="L37" t="n">
-        <v>25.62029119463083</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="M37" t="n">
-        <v>25.62029119463084</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="N37" t="n">
-        <v>25.62029119463083</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="O37" t="n">
         <v>24.58512791403967</v>
@@ -37545,22 +37545,22 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>24.58512791403969</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="N38" t="n">
-        <v>25.62029119463083</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="O38" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>25.62029119463083</v>
+        <v>26.47527676494983</v>
       </c>
       <c r="Q38" t="n">
         <v>0</v>
@@ -37627,22 +37627,22 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>24.58512791403969</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>25.62029119463083</v>
+        <v>26.47527676494984</v>
       </c>
       <c r="O39" t="n">
-        <v>25.62029119463083</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37700,19 +37700,19 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>1.89014885091016</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>25.62029119463083</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="M40" t="n">
-        <v>25.62029119463083</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="N40" t="n">
-        <v>25.62029119463083</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="O40" t="n">
         <v>24.58512791403967</v>
@@ -37782,22 +37782,22 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>24.58512791403969</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="N41" t="n">
-        <v>25.62029119463083</v>
+        <v>26.47527676494984</v>
       </c>
       <c r="O41" t="n">
-        <v>25.62029119463083</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="P41" t="n">
-        <v>25.62029119463083</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
@@ -37864,19 +37864,19 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="M42" t="n">
-        <v>25.62029119463083</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="N42" t="n">
-        <v>25.62029119463083</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="O42" t="n">
-        <v>25.62029119463083</v>
+        <v>26.47527676494983</v>
       </c>
       <c r="P42" t="n">
-        <v>24.58512791403969</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -37943,19 +37943,19 @@
         <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>25.62029119463083</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="M43" t="n">
-        <v>25.62029119463083</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="N43" t="n">
-        <v>25.62029119463083</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="O43" t="n">
         <v>24.58512791403967</v>
       </c>
       <c r="P43" t="n">
-        <v>0</v>
+        <v>1.890148850910151</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
@@ -38019,19 +38019,19 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="L44" t="n">
-        <v>25.62029119463083</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="M44" t="n">
-        <v>25.62029119463083</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="N44" t="n">
-        <v>25.62029119463083</v>
+        <v>26.47527676494983</v>
       </c>
       <c r="O44" t="n">
-        <v>24.58512791403969</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
         <v>0</v>
@@ -38101,22 +38101,22 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>26.47527676494984</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>24.58512791403969</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>25.62029119463083</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="P45" t="n">
-        <v>25.62029119463083</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="Q45" t="n">
-        <v>25.62029119463083</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38180,19 +38180,19 @@
         <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>25.62029119463083</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="M46" t="n">
-        <v>25.62029119463083</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="N46" t="n">
-        <v>25.62029119463084</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="O46" t="n">
         <v>24.58512791403967</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>1.890148850910151</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>
